--- a/Code/Results/Cases/Case_5_9/res_line/loading_percent.xlsx
+++ b/Code/Results/Cases/Case_5_9/res_line/loading_percent.xlsx
@@ -366,13 +366,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:M25"/>
+  <dimension ref="A1:O25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:13">
+    <row r="1" spans="1:15">
       <c r="B1" s="1">
         <v>0</v>
       </c>
@@ -409,989 +409,995 @@
       <c r="M1" s="1">
         <v>11</v>
       </c>
-    </row>
-    <row r="2" spans="1:13">
+      <c r="N1" s="1">
+        <v>12</v>
+      </c>
+      <c r="O1" s="1">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="2" spans="1:15">
       <c r="A2" s="1">
         <v>0</v>
       </c>
       <c r="B2">
-        <v>21.60446983700009</v>
+        <v>26.16876971499946</v>
       </c>
       <c r="C2">
-        <v>13.94492119022322</v>
+        <v>13.73573299531583</v>
       </c>
       <c r="D2">
-        <v>8.160729891403555</v>
+        <v>2.761778119965832</v>
       </c>
       <c r="E2">
-        <v>5.750358083167916</v>
+        <v>6.190187650254304</v>
       </c>
       <c r="F2">
-        <v>63.57679481334939</v>
-      </c>
-      <c r="G2">
-        <v>0</v>
-      </c>
-      <c r="H2">
-        <v>4.080468853276381</v>
+        <v>36.58644444249355</v>
       </c>
       <c r="I2">
         <v>0</v>
       </c>
       <c r="J2">
-        <v>8.28734546302589</v>
+        <v>5.685678746555479</v>
       </c>
       <c r="K2">
         <v>0</v>
       </c>
       <c r="L2">
-        <v>7.303625169747281</v>
+        <v>7.663063013264656</v>
       </c>
       <c r="M2">
-        <v>14.2213636312356</v>
-      </c>
-    </row>
-    <row r="3" spans="1:13">
+        <v>0</v>
+      </c>
+      <c r="N2">
+        <v>13.43809364244934</v>
+      </c>
+      <c r="O2">
+        <v>27.57605428722018</v>
+      </c>
+    </row>
+    <row r="3" spans="1:15">
       <c r="A3" s="1">
         <v>1</v>
       </c>
       <c r="B3">
-        <v>19.9779873948523</v>
+        <v>24.61648745514669</v>
       </c>
       <c r="C3">
-        <v>12.90163887852438</v>
+        <v>12.78261273740898</v>
       </c>
       <c r="D3">
-        <v>7.76898534880525</v>
+        <v>2.719244237383533</v>
       </c>
       <c r="E3">
-        <v>5.694521473261455</v>
+        <v>6.220385865574873</v>
       </c>
       <c r="F3">
-        <v>59.8089830337568</v>
-      </c>
-      <c r="G3">
-        <v>0</v>
-      </c>
-      <c r="H3">
-        <v>4.080468853276381</v>
+        <v>35.61142470688554</v>
       </c>
       <c r="I3">
         <v>0</v>
       </c>
       <c r="J3">
-        <v>8.100776222730195</v>
+        <v>5.742595964347633</v>
       </c>
       <c r="K3">
         <v>0</v>
       </c>
       <c r="L3">
-        <v>7.016039340439645</v>
+        <v>7.481602430806493</v>
       </c>
       <c r="M3">
-        <v>13.18832900961402</v>
-      </c>
-    </row>
-    <row r="4" spans="1:13">
+        <v>0</v>
+      </c>
+      <c r="N3">
+        <v>13.72013776336715</v>
+      </c>
+      <c r="O3">
+        <v>26.91986788768961</v>
+      </c>
+    </row>
+    <row r="4" spans="1:15">
       <c r="A4" s="1">
         <v>2</v>
       </c>
       <c r="B4">
-        <v>18.93821724342318</v>
+        <v>23.63087815652016</v>
       </c>
       <c r="C4">
-        <v>12.2352223230038</v>
+        <v>12.16658254993843</v>
       </c>
       <c r="D4">
-        <v>7.525133166841483</v>
+        <v>2.69342039252762</v>
       </c>
       <c r="E4">
-        <v>5.662586835094189</v>
+        <v>6.240360584389173</v>
       </c>
       <c r="F4">
-        <v>57.44055772517336</v>
-      </c>
-      <c r="G4">
-        <v>0</v>
-      </c>
-      <c r="H4">
-        <v>4.080468853276381</v>
+        <v>35.0378694926319</v>
       </c>
       <c r="I4">
         <v>0</v>
       </c>
       <c r="J4">
-        <v>7.988455038792018</v>
+        <v>5.778693722178226</v>
       </c>
       <c r="K4">
         <v>0</v>
       </c>
       <c r="L4">
-        <v>6.842733698660688</v>
+        <v>7.372345287033669</v>
       </c>
       <c r="M4">
-        <v>12.52645790456948</v>
-      </c>
-    </row>
-    <row r="5" spans="1:13">
+        <v>0</v>
+      </c>
+      <c r="N4">
+        <v>13.89599206776406</v>
+      </c>
+      <c r="O4">
+        <v>26.5382846423185</v>
+      </c>
+    </row>
+    <row r="5" spans="1:15">
       <c r="A5" s="1">
         <v>3</v>
       </c>
       <c r="B5">
-        <v>18.50385051896787</v>
+        <v>23.22135697697118</v>
       </c>
       <c r="C5">
-        <v>11.95687337947827</v>
+        <v>11.90769710394857</v>
       </c>
       <c r="D5">
-        <v>7.424914179536407</v>
+        <v>2.6829536908579</v>
       </c>
       <c r="E5">
-        <v>5.650130438425125</v>
+        <v>6.248857304846557</v>
       </c>
       <c r="F5">
-        <v>56.46165060880966</v>
-      </c>
-      <c r="G5">
-        <v>0</v>
-      </c>
-      <c r="H5">
-        <v>4.080468853276381</v>
+        <v>34.81047798154939</v>
       </c>
       <c r="I5">
         <v>0</v>
       </c>
       <c r="J5">
-        <v>7.943201939157165</v>
+        <v>5.793699133279681</v>
       </c>
       <c r="K5">
         <v>0</v>
       </c>
       <c r="L5">
-        <v>6.772963481613969</v>
+        <v>7.328398689001646</v>
       </c>
       <c r="M5">
-        <v>12.249571783076</v>
-      </c>
-    </row>
-    <row r="6" spans="1:13">
+        <v>0</v>
+      </c>
+      <c r="N5">
+        <v>13.96837950740837</v>
+      </c>
+      <c r="O5">
+        <v>26.38809704411452</v>
+      </c>
+    </row>
+    <row r="6" spans="1:15">
       <c r="A6" s="1">
         <v>4</v>
       </c>
       <c r="B6">
-        <v>18.43107266757191</v>
+        <v>23.15289094965882</v>
       </c>
       <c r="C6">
-        <v>11.91023662235147</v>
+        <v>11.86423254642838</v>
       </c>
       <c r="D6">
-        <v>7.408221769575469</v>
+        <v>2.681218669585362</v>
       </c>
       <c r="E6">
-        <v>5.648094794372158</v>
+        <v>6.250289638643573</v>
       </c>
       <c r="F6">
-        <v>56.29827988530614</v>
-      </c>
-      <c r="G6">
-        <v>0</v>
-      </c>
-      <c r="H6">
-        <v>4.080468853276381</v>
+        <v>34.77310307530128</v>
       </c>
       <c r="I6">
         <v>0</v>
       </c>
       <c r="J6">
-        <v>7.935717896059888</v>
+        <v>5.796208775353461</v>
       </c>
       <c r="K6">
         <v>0</v>
       </c>
       <c r="L6">
-        <v>6.76143086638257</v>
+        <v>7.321137213028928</v>
       </c>
       <c r="M6">
-        <v>12.20315575622735</v>
-      </c>
-    </row>
-    <row r="7" spans="1:13">
+        <v>0</v>
+      </c>
+      <c r="N6">
+        <v>13.98044465966994</v>
+      </c>
+      <c r="O6">
+        <v>26.36347764233556</v>
+      </c>
+    </row>
+    <row r="7" spans="1:15">
       <c r="A7" s="1">
         <v>5</v>
       </c>
       <c r="B7">
-        <v>18.93240273116388</v>
+        <v>23.62538664876199</v>
       </c>
       <c r="C7">
-        <v>12.23149621102085</v>
+        <v>12.16312303566162</v>
       </c>
       <c r="D7">
-        <v>7.523785009808362</v>
+        <v>2.693279026227944</v>
       </c>
       <c r="E7">
-        <v>5.662416629703107</v>
+        <v>6.240473733489478</v>
       </c>
       <c r="F7">
-        <v>57.42741126184258</v>
-      </c>
-      <c r="G7">
-        <v>0</v>
-      </c>
-      <c r="H7">
-        <v>4.080468853276381</v>
+        <v>35.03477712710082</v>
       </c>
       <c r="I7">
         <v>0</v>
       </c>
       <c r="J7">
-        <v>7.987842691291208</v>
+        <v>5.778894887050397</v>
       </c>
       <c r="K7">
         <v>0</v>
       </c>
       <c r="L7">
-        <v>6.841789248411552</v>
+        <v>7.371750228248086</v>
       </c>
       <c r="M7">
-        <v>12.52275303589682</v>
-      </c>
-    </row>
-    <row r="8" spans="1:13">
+        <v>0</v>
+      </c>
+      <c r="N7">
+        <v>13.89696530652384</v>
+      </c>
+      <c r="O7">
+        <v>26.53623772862717</v>
+      </c>
+    </row>
+    <row r="8" spans="1:15">
       <c r="A8" s="1">
         <v>6</v>
       </c>
       <c r="B8">
-        <v>21.05198239680557</v>
+        <v>25.64043817256983</v>
       </c>
       <c r="C8">
-        <v>13.5903807327849</v>
+        <v>13.41342915783472</v>
       </c>
       <c r="D8">
-        <v>8.026330677045669</v>
+        <v>2.747041213668358</v>
       </c>
       <c r="E8">
-        <v>5.730596840807974</v>
+        <v>6.200300397911974</v>
       </c>
       <c r="F8">
-        <v>62.28902602440755</v>
-      </c>
-      <c r="G8">
-        <v>0</v>
-      </c>
-      <c r="H8">
-        <v>4.080468853276381</v>
+        <v>36.2450597201214</v>
       </c>
       <c r="I8">
         <v>0</v>
       </c>
       <c r="J8">
-        <v>8.222524824662409</v>
+        <v>5.705068762399716</v>
       </c>
       <c r="K8">
         <v>0</v>
       </c>
       <c r="L8">
-        <v>7.203799499570154</v>
+        <v>7.600066442408986</v>
       </c>
       <c r="M8">
-        <v>13.87075084668461</v>
-      </c>
-    </row>
-    <row r="9" spans="1:13">
+        <v>0</v>
+      </c>
+      <c r="N8">
+        <v>13.5348189044047</v>
+      </c>
+      <c r="O8">
+        <v>27.3453482815922</v>
+      </c>
+    </row>
+    <row r="9" spans="1:15">
       <c r="A9" s="1">
         <v>7</v>
       </c>
       <c r="B9">
-        <v>24.89968084759555</v>
+        <v>29.32554084650392</v>
       </c>
       <c r="C9">
-        <v>16.06466974395258</v>
+        <v>15.62572030215222</v>
       </c>
       <c r="D9">
-        <v>8.98737992602639</v>
+        <v>2.855636984075612</v>
       </c>
       <c r="E9">
-        <v>5.884650795060399</v>
+        <v>6.133067631664552</v>
       </c>
       <c r="F9">
-        <v>71.39740621569707</v>
-      </c>
-      <c r="G9">
-        <v>0</v>
-      </c>
-      <c r="H9">
-        <v>4.080468853276381</v>
+        <v>38.81701091237848</v>
       </c>
       <c r="I9">
         <v>0</v>
       </c>
       <c r="J9">
-        <v>8.702858001794498</v>
+        <v>5.569134847416849</v>
       </c>
       <c r="K9">
         <v>0</v>
       </c>
       <c r="L9">
-        <v>7.956316050269487</v>
+        <v>8.0636078169083</v>
       </c>
       <c r="M9">
-        <v>16.30723251243033</v>
-      </c>
-    </row>
-    <row r="10" spans="1:13">
+        <v>0</v>
+      </c>
+      <c r="N9">
+        <v>12.84337677987479</v>
+      </c>
+      <c r="O9">
+        <v>29.10337945470429</v>
+      </c>
+    </row>
+    <row r="10" spans="1:15">
       <c r="A10" s="1">
         <v>8</v>
       </c>
       <c r="B10">
-        <v>27.56788060884834</v>
+        <v>31.86482813308219</v>
       </c>
       <c r="C10">
-        <v>17.79019364155832</v>
+        <v>17.11250403026789</v>
       </c>
       <c r="D10">
-        <v>9.68345140605768</v>
+        <v>2.938705311325997</v>
       </c>
       <c r="E10">
-        <v>6.013037107629946</v>
+        <v>6.090997509392882</v>
       </c>
       <c r="F10">
-        <v>77.86694075989709</v>
-      </c>
-      <c r="G10">
-        <v>0</v>
-      </c>
-      <c r="H10">
-        <v>4.080468853276381</v>
+        <v>40.82834521158764</v>
       </c>
       <c r="I10">
         <v>0</v>
       </c>
       <c r="J10">
-        <v>9.072337173691574</v>
+        <v>5.474223340630513</v>
       </c>
       <c r="K10">
         <v>0</v>
       </c>
       <c r="L10">
-        <v>8.775427703993827</v>
+        <v>8.412341374263383</v>
       </c>
       <c r="M10">
-        <v>17.99057952051517</v>
-      </c>
-    </row>
-    <row r="11" spans="1:13">
+        <v>0</v>
+      </c>
+      <c r="N10">
+        <v>12.34299563669887</v>
+      </c>
+      <c r="O10">
+        <v>30.50322068088157</v>
+      </c>
+    </row>
+    <row r="11" spans="1:15">
       <c r="A11" s="1">
         <v>9</v>
       </c>
       <c r="B11">
-        <v>28.75570175051651</v>
+        <v>33.02217152487888</v>
       </c>
       <c r="C11">
-        <v>18.56175142694333</v>
+        <v>17.76062890051401</v>
       </c>
       <c r="D11">
-        <v>9.999764135804575</v>
+        <v>2.977563365603433</v>
       </c>
       <c r="E11">
-        <v>6.075522957571986</v>
+        <v>6.07352661902017</v>
       </c>
       <c r="F11">
-        <v>80.77663582237416</v>
-      </c>
-      <c r="G11">
-        <v>0</v>
-      </c>
-      <c r="H11">
-        <v>4.080468853276381</v>
+        <v>41.77058627346723</v>
       </c>
       <c r="I11">
         <v>0</v>
       </c>
       <c r="J11">
-        <v>9.245343174266552</v>
+        <v>5.432020023255655</v>
       </c>
       <c r="K11">
         <v>0</v>
       </c>
       <c r="L11">
-        <v>9.139049473322947</v>
+        <v>8.572563740772161</v>
       </c>
       <c r="M11">
-        <v>18.73855812428772</v>
-      </c>
-    </row>
-    <row r="12" spans="1:13">
+        <v>0</v>
+      </c>
+      <c r="N11">
+        <v>12.11609572951522</v>
+      </c>
+      <c r="O11">
+        <v>31.16471475711039</v>
+      </c>
+    </row>
+    <row r="12" spans="1:15">
       <c r="A12" s="1">
         <v>10</v>
       </c>
       <c r="B12">
-        <v>29.20265406548668</v>
+        <v>33.46853147118318</v>
       </c>
       <c r="C12">
-        <v>18.8526848652689</v>
+        <v>18.00216916665198</v>
       </c>
       <c r="D12">
-        <v>10.11971164517792</v>
+        <v>2.99246642449354</v>
       </c>
       <c r="E12">
-        <v>6.099853168314178</v>
+        <v>6.067158310501042</v>
       </c>
       <c r="F12">
-        <v>81.87544444729166</v>
-      </c>
-      <c r="G12">
-        <v>0</v>
-      </c>
-      <c r="H12">
-        <v>4.080468853276381</v>
+        <v>42.13143700405713</v>
       </c>
       <c r="I12">
         <v>0</v>
       </c>
       <c r="J12">
-        <v>9.311710824661095</v>
+        <v>5.416169437002508</v>
       </c>
       <c r="K12">
         <v>0</v>
       </c>
       <c r="L12">
-        <v>9.275707846249</v>
+        <v>8.633455591750822</v>
       </c>
       <c r="M12">
-        <v>19.01979429714433</v>
-      </c>
-    </row>
-    <row r="13" spans="1:13">
+        <v>0</v>
+      </c>
+      <c r="N12">
+        <v>12.03019627742144</v>
+      </c>
+      <c r="O12">
+        <v>31.41889124139138</v>
+      </c>
+    </row>
+    <row r="13" spans="1:15">
       <c r="A13" s="1">
         <v>11</v>
       </c>
       <c r="B13">
-        <v>29.1065055384091</v>
+        <v>33.37268775653966</v>
       </c>
       <c r="C13">
-        <v>18.79006973674619</v>
+        <v>17.95031931945416</v>
       </c>
       <c r="D13">
-        <v>10.09386729671859</v>
+        <v>2.989247803672919</v>
       </c>
       <c r="E13">
-        <v>6.094582023128759</v>
+        <v>6.068518692808158</v>
       </c>
       <c r="F13">
-        <v>81.63889750421369</v>
-      </c>
-      <c r="G13">
-        <v>0</v>
-      </c>
-      <c r="H13">
-        <v>4.080468853276381</v>
+        <v>42.05353884150454</v>
       </c>
       <c r="I13">
         <v>0</v>
       </c>
       <c r="J13">
-        <v>9.297376660751624</v>
+        <v>5.419577472842134</v>
       </c>
       <c r="K13">
         <v>0</v>
       </c>
       <c r="L13">
-        <v>9.246317517167812</v>
+        <v>8.620331738124856</v>
       </c>
       <c r="M13">
-        <v>18.95930434946104</v>
-      </c>
-    </row>
-    <row r="14" spans="1:13">
+        <v>0</v>
+      </c>
+      <c r="N13">
+        <v>12.0486966280152</v>
+      </c>
+      <c r="O13">
+        <v>31.36398344376778</v>
+      </c>
+    </row>
+    <row r="14" spans="1:15">
       <c r="A14" s="1">
         <v>12</v>
       </c>
       <c r="B14">
-        <v>28.79252417198501</v>
+        <v>33.0590239146041</v>
       </c>
       <c r="C14">
-        <v>18.58570707264696</v>
+        <v>17.78057751194764</v>
       </c>
       <c r="D14">
-        <v>10.00962749621945</v>
+        <v>2.978785458815534</v>
       </c>
       <c r="E14">
-        <v>6.077510700152191</v>
+        <v>6.07299768429902</v>
       </c>
       <c r="F14">
-        <v>80.86708426653567</v>
-      </c>
-      <c r="G14">
-        <v>0</v>
-      </c>
-      <c r="H14">
-        <v>4.080468853276381</v>
+        <v>41.80019169895536</v>
       </c>
       <c r="I14">
         <v>0</v>
       </c>
       <c r="J14">
-        <v>9.250785198567232</v>
+        <v>5.430713416423865</v>
       </c>
       <c r="K14">
         <v>0</v>
       </c>
       <c r="L14">
-        <v>9.150311577421439</v>
+        <v>8.577568975955963</v>
       </c>
       <c r="M14">
-        <v>18.76173226787955</v>
-      </c>
-    </row>
-    <row r="15" spans="1:13">
+        <v>0</v>
+      </c>
+      <c r="N14">
+        <v>12.10902876841822</v>
+      </c>
+      <c r="O14">
+        <v>31.18555129542481</v>
+      </c>
+    </row>
+    <row r="15" spans="1:15">
       <c r="A15" s="1">
         <v>13</v>
       </c>
       <c r="B15">
-        <v>28.59985977720231</v>
+        <v>32.86604858362776</v>
       </c>
       <c r="C15">
-        <v>18.46039054495039</v>
+        <v>17.67610436788945</v>
       </c>
       <c r="D15">
-        <v>9.958057325746447</v>
+        <v>2.972402609011724</v>
       </c>
       <c r="E15">
-        <v>6.067143742139526</v>
+        <v>6.075773685359025</v>
       </c>
       <c r="F15">
-        <v>80.39399280205213</v>
-      </c>
-      <c r="G15">
-        <v>0</v>
-      </c>
-      <c r="H15">
-        <v>4.080468853276381</v>
+        <v>41.6455406619536</v>
       </c>
       <c r="I15">
         <v>0</v>
       </c>
       <c r="J15">
-        <v>9.222362749740844</v>
+        <v>5.437551272241057</v>
       </c>
       <c r="K15">
         <v>0</v>
       </c>
       <c r="L15">
-        <v>9.091378556079462</v>
+        <v>8.551403982278384</v>
       </c>
       <c r="M15">
-        <v>18.64047050112691</v>
-      </c>
-    </row>
-    <row r="16" spans="1:13">
+        <v>0</v>
+      </c>
+      <c r="N15">
+        <v>12.14598435308214</v>
+      </c>
+      <c r="O15">
+        <v>31.07674069362659</v>
+      </c>
+    </row>
+    <row r="16" spans="1:15">
       <c r="A16" s="1">
         <v>14</v>
       </c>
       <c r="B16">
-        <v>27.48980275462694</v>
+        <v>31.79098304965244</v>
       </c>
       <c r="C16">
-        <v>17.739556641523</v>
+        <v>17.0695935955643</v>
       </c>
       <c r="D16">
-        <v>9.662789906034822</v>
+        <v>2.936190214435521</v>
       </c>
       <c r="E16">
-        <v>6.00904221379234</v>
+        <v>6.092173459974293</v>
       </c>
       <c r="F16">
-        <v>77.67625414373809</v>
-      </c>
-      <c r="G16">
-        <v>0</v>
-      </c>
-      <c r="H16">
-        <v>4.080468853276381</v>
+        <v>40.76732547143315</v>
       </c>
       <c r="I16">
         <v>0</v>
       </c>
       <c r="J16">
-        <v>9.061141605305918</v>
+        <v>5.477000246027764</v>
       </c>
       <c r="K16">
         <v>0</v>
       </c>
       <c r="L16">
-        <v>8.751503936646911</v>
+        <v>8.401901392683349</v>
       </c>
       <c r="M16">
-        <v>17.94138410434386</v>
-      </c>
-    </row>
-    <row r="17" spans="1:13">
+        <v>0</v>
+      </c>
+      <c r="N16">
+        <v>12.35783184504831</v>
+      </c>
+      <c r="O16">
+        <v>30.46049781553338</v>
+      </c>
+    </row>
+    <row r="17" spans="1:15">
       <c r="A17" s="1">
         <v>15</v>
       </c>
       <c r="B17">
-        <v>26.80274358439081</v>
+        <v>31.13978011509291</v>
       </c>
       <c r="C17">
-        <v>17.29436514266873</v>
+        <v>16.69040466404141</v>
       </c>
       <c r="D17">
-        <v>9.481701840162383</v>
+        <v>2.914272157801558</v>
       </c>
       <c r="E17">
-        <v>5.974497023309373</v>
+        <v>6.102666358413762</v>
       </c>
       <c r="F17">
-        <v>76.00157533552627</v>
-      </c>
-      <c r="G17">
-        <v>0</v>
-      </c>
-      <c r="H17">
-        <v>4.080468853276381</v>
+        <v>40.23562313287764</v>
       </c>
       <c r="I17">
         <v>0</v>
       </c>
       <c r="J17">
-        <v>8.963592368801455</v>
+        <v>5.501443829784671</v>
       </c>
       <c r="K17">
         <v>0</v>
       </c>
       <c r="L17">
-        <v>8.540865104765473</v>
+        <v>8.310583003641018</v>
       </c>
       <c r="M17">
-        <v>17.50832112717864</v>
-      </c>
-    </row>
-    <row r="18" spans="1:13">
+        <v>0</v>
+      </c>
+      <c r="N17">
+        <v>12.48792320476606</v>
+      </c>
+      <c r="O17">
+        <v>30.0888600279713</v>
+      </c>
+    </row>
+    <row r="18" spans="1:15">
       <c r="A18" s="1">
         <v>16</v>
       </c>
       <c r="B18">
-        <v>26.40505989327088</v>
+        <v>30.76180515194401</v>
       </c>
       <c r="C18">
-        <v>17.0369940047275</v>
+        <v>16.46963796468966</v>
       </c>
       <c r="D18">
-        <v>9.37749729018114</v>
+        <v>2.901763836960335</v>
       </c>
       <c r="E18">
-        <v>5.955006068318792</v>
+        <v>6.108857970696139</v>
       </c>
       <c r="F18">
-        <v>75.03507482801822</v>
-      </c>
-      <c r="G18">
-        <v>0</v>
-      </c>
-      <c r="H18">
-        <v>4.080468853276381</v>
+        <v>39.93235864891681</v>
       </c>
       <c r="I18">
         <v>0</v>
       </c>
       <c r="J18">
-        <v>8.907937915599797</v>
+        <v>5.515595234450464</v>
       </c>
       <c r="K18">
         <v>0</v>
       </c>
       <c r="L18">
-        <v>8.41884654818851</v>
+        <v>8.258207984497677</v>
       </c>
       <c r="M18">
-        <v>17.2575223064356</v>
-      </c>
-    </row>
-    <row r="19" spans="1:13">
+        <v>0</v>
+      </c>
+      <c r="N18">
+        <v>12.56282192118957</v>
+      </c>
+      <c r="O18">
+        <v>29.87741865300538</v>
+      </c>
+    </row>
+    <row r="19" spans="1:15">
       <c r="A19" s="1">
         <v>17</v>
       </c>
       <c r="B19">
-        <v>26.26995669608651</v>
+        <v>30.63323998777662</v>
       </c>
       <c r="C19">
-        <v>16.94960904058622</v>
+        <v>16.394427229563</v>
       </c>
       <c r="D19">
-        <v>9.342201678185079</v>
+        <v>2.897544655054045</v>
       </c>
       <c r="E19">
-        <v>5.948469570673597</v>
+        <v>6.110980982153196</v>
       </c>
       <c r="F19">
-        <v>74.70722700948571</v>
-      </c>
-      <c r="G19">
-        <v>0</v>
-      </c>
-      <c r="H19">
-        <v>4.080468853276381</v>
+        <v>39.83011485235234</v>
       </c>
       <c r="I19">
         <v>0</v>
       </c>
       <c r="J19">
-        <v>8.889168266149978</v>
+        <v>5.520402736428991</v>
       </c>
       <c r="K19">
         <v>0</v>
       </c>
       <c r="L19">
-        <v>8.377377624334432</v>
+        <v>8.240500665201694</v>
       </c>
       <c r="M19">
-        <v>17.17229695386526</v>
-      </c>
-    </row>
-    <row r="20" spans="1:13">
+        <v>0</v>
+      </c>
+      <c r="N19">
+        <v>12.58819636835746</v>
+      </c>
+      <c r="O19">
+        <v>29.80622245313642</v>
+      </c>
+    </row>
+    <row r="20" spans="1:15">
       <c r="A20" s="1">
         <v>18</v>
       </c>
       <c r="B20">
-        <v>26.87613568770332</v>
+        <v>31.20945526644443</v>
       </c>
       <c r="C20">
-        <v>17.34188745211574</v>
+        <v>16.73104486653456</v>
       </c>
       <c r="D20">
-        <v>9.500982523131791</v>
+        <v>2.916594957295006</v>
       </c>
       <c r="E20">
-        <v>5.978134707227921</v>
+        <v>6.101533134343978</v>
       </c>
       <c r="F20">
-        <v>76.18017494000739</v>
-      </c>
-      <c r="G20">
-        <v>0</v>
-      </c>
-      <c r="H20">
-        <v>4.080468853276381</v>
+        <v>40.29195845866212</v>
       </c>
       <c r="I20">
         <v>0</v>
       </c>
       <c r="J20">
-        <v>8.973928798704193</v>
+        <v>5.498832298873823</v>
       </c>
       <c r="K20">
         <v>0</v>
       </c>
       <c r="L20">
-        <v>8.563375757527668</v>
+        <v>8.32028867799688</v>
       </c>
       <c r="M20">
-        <v>17.55459500626317</v>
-      </c>
-    </row>
-    <row r="21" spans="1:13">
+        <v>0</v>
+      </c>
+      <c r="N20">
+        <v>12.47406771111917</v>
+      </c>
+      <c r="O20">
+        <v>30.12818110323958</v>
+      </c>
+    </row>
+    <row r="21" spans="1:15">
       <c r="A21" s="1">
         <v>19</v>
       </c>
       <c r="B21">
-        <v>28.88481748028554</v>
+        <v>33.15133069962283</v>
       </c>
       <c r="C21">
-        <v>18.64576076741581</v>
+        <v>17.83053895876848</v>
       </c>
       <c r="D21">
-        <v>10.03436422189949</v>
+        <v>2.981853091324477</v>
       </c>
       <c r="E21">
-        <v>6.082506093625401</v>
+        <v>6.071675309466391</v>
       </c>
       <c r="F21">
-        <v>81.0938501545255</v>
-      </c>
-      <c r="G21">
-        <v>0</v>
-      </c>
-      <c r="H21">
-        <v>4.080468853276381</v>
+        <v>41.87449484377422</v>
       </c>
       <c r="I21">
         <v>0</v>
       </c>
       <c r="J21">
-        <v>9.264445717530442</v>
+        <v>5.427439042222929</v>
       </c>
       <c r="K21">
         <v>0</v>
       </c>
       <c r="L21">
-        <v>9.178536702726653</v>
+        <v>8.590123513114369</v>
       </c>
       <c r="M21">
-        <v>18.81981350777631</v>
-      </c>
-    </row>
-    <row r="22" spans="1:13">
+        <v>0</v>
+      </c>
+      <c r="N21">
+        <v>12.09130782683733</v>
+      </c>
+      <c r="O21">
+        <v>31.23785993274671</v>
+      </c>
+    </row>
+    <row r="22" spans="1:15">
       <c r="A22" s="1">
         <v>20</v>
       </c>
       <c r="B22">
-        <v>30.18155241916786</v>
+        <v>34.43858468818845</v>
       </c>
       <c r="C22">
-        <v>19.49112829421757</v>
+        <v>18.52653613405975</v>
       </c>
       <c r="D22">
-        <v>10.38407930611101</v>
+        <v>3.025620712362882</v>
       </c>
       <c r="E22">
-        <v>6.154664805762065</v>
+        <v>6.053608876597581</v>
       </c>
       <c r="F22">
-        <v>84.28877089945462</v>
-      </c>
-      <c r="G22">
-        <v>0</v>
-      </c>
-      <c r="H22">
-        <v>4.080468853276381</v>
+        <v>42.93245236021617</v>
       </c>
       <c r="I22">
         <v>0</v>
       </c>
       <c r="J22">
-        <v>9.459389838163199</v>
+        <v>5.38153769028088</v>
       </c>
       <c r="K22">
         <v>0</v>
       </c>
       <c r="L22">
-        <v>9.574692673117134</v>
+        <v>8.767755826178661</v>
       </c>
       <c r="M22">
-        <v>19.63535045725671</v>
-      </c>
-    </row>
-    <row r="23" spans="1:13">
+        <v>0</v>
+      </c>
+      <c r="N22">
+        <v>11.84124120793042</v>
+      </c>
+      <c r="O22">
+        <v>31.98465961088105</v>
+      </c>
+    </row>
+    <row r="23" spans="1:15">
       <c r="A23" s="1">
         <v>21</v>
       </c>
       <c r="B23">
-        <v>29.49058610157785</v>
+        <v>33.75495792460421</v>
       </c>
       <c r="C23">
-        <v>19.04029414525604</v>
+        <v>18.15707571499715</v>
       </c>
       <c r="D23">
-        <v>10.19723943935382</v>
+        <v>3.002146097517794</v>
       </c>
       <c r="E23">
-        <v>6.115759637382284</v>
+        <v>6.063115926815503</v>
       </c>
       <c r="F23">
-        <v>82.58436481508177</v>
-      </c>
-      <c r="G23">
-        <v>0</v>
-      </c>
-      <c r="H23">
-        <v>4.080468853276381</v>
+        <v>42.36557661830022</v>
       </c>
       <c r="I23">
         <v>0</v>
       </c>
       <c r="J23">
-        <v>9.354821837274411</v>
+        <v>5.405969869104216</v>
       </c>
       <c r="K23">
         <v>0</v>
       </c>
       <c r="L23">
-        <v>9.363696619870282</v>
+        <v>8.672833509709362</v>
       </c>
       <c r="M23">
-        <v>19.20090953984186</v>
-      </c>
-    </row>
-    <row r="24" spans="1:13">
+        <v>0</v>
+      </c>
+      <c r="N23">
+        <v>11.97472707086079</v>
+      </c>
+      <c r="O23">
+        <v>31.58405106185088</v>
+      </c>
+    </row>
+    <row r="24" spans="1:15">
       <c r="A24" s="1">
         <v>22</v>
       </c>
       <c r="B24">
-        <v>26.84296354267018</v>
+        <v>31.17796631816158</v>
       </c>
       <c r="C24">
-        <v>17.3204071032918</v>
+        <v>16.71268005866692</v>
       </c>
       <c r="D24">
-        <v>9.49226603642375</v>
+        <v>2.915544533562057</v>
       </c>
       <c r="E24">
-        <v>5.976488965197591</v>
+        <v>6.102044969942417</v>
       </c>
       <c r="F24">
-        <v>76.09944172646668</v>
-      </c>
-      <c r="G24">
-        <v>0</v>
-      </c>
-      <c r="H24">
-        <v>4.080468853276381</v>
+        <v>40.26648173387321</v>
       </c>
       <c r="I24">
         <v>0</v>
       </c>
       <c r="J24">
-        <v>8.96925437638979</v>
+        <v>5.500012664643558</v>
       </c>
       <c r="K24">
         <v>0</v>
       </c>
       <c r="L24">
-        <v>8.553201574075292</v>
+        <v>8.315900352090271</v>
       </c>
       <c r="M24">
-        <v>17.53368031049977</v>
-      </c>
-    </row>
-    <row r="25" spans="1:13">
+        <v>0</v>
+      </c>
+      <c r="N24">
+        <v>12.48033143898555</v>
+      </c>
+      <c r="O24">
+        <v>30.11039714544078</v>
+      </c>
+    </row>
+    <row r="25" spans="1:15">
       <c r="A25" s="1">
         <v>23</v>
       </c>
       <c r="B25">
-        <v>23.88910905061299</v>
+        <v>28.35801035633562</v>
       </c>
       <c r="C25">
-        <v>15.41347219782998</v>
+        <v>15.05215238855941</v>
       </c>
       <c r="D25">
-        <v>8.729625695287741</v>
+        <v>2.825790561463164</v>
       </c>
       <c r="E25">
-        <v>5.84053377229647</v>
+        <v>6.149992621580735</v>
       </c>
       <c r="F25">
-        <v>68.976204954511</v>
-      </c>
-      <c r="G25">
-        <v>0</v>
-      </c>
-      <c r="H25">
-        <v>4.080468853276381</v>
+        <v>38.0999885630995</v>
       </c>
       <c r="I25">
         <v>0</v>
       </c>
       <c r="J25">
-        <v>8.570374095639442</v>
+        <v>5.60500497509052</v>
       </c>
       <c r="K25">
         <v>0</v>
       </c>
       <c r="L25">
-        <v>7.737558234594152</v>
+        <v>7.936683754167491</v>
       </c>
       <c r="M25">
-        <v>15.66842748981874</v>
+        <v>0</v>
+      </c>
+      <c r="N25">
+        <v>13.0287999904294</v>
+      </c>
+      <c r="O25">
+        <v>28.6090952265751</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_5_9/res_line/loading_percent.xlsx
+++ b/Code/Results/Cases/Case_5_9/res_line/loading_percent.xlsx
@@ -421,40 +421,46 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>26.16876971499946</v>
+        <v>24.13997182844919</v>
       </c>
       <c r="C2">
-        <v>13.73573299531583</v>
+        <v>13.68555941304395</v>
       </c>
       <c r="D2">
-        <v>2.761778119965832</v>
+        <v>5.224514808835614</v>
       </c>
       <c r="E2">
-        <v>6.190187650254304</v>
+        <v>7.041466551349158</v>
       </c>
       <c r="F2">
-        <v>36.58644444249355</v>
+        <v>21.38680860400817</v>
+      </c>
+      <c r="G2">
+        <v>0</v>
+      </c>
+      <c r="H2">
+        <v>4.251792669784106</v>
       </c>
       <c r="I2">
-        <v>0</v>
+        <v>13.94773125311326</v>
       </c>
       <c r="J2">
-        <v>5.685678746555479</v>
+        <v>5.48990039356756</v>
       </c>
       <c r="K2">
         <v>0</v>
       </c>
       <c r="L2">
-        <v>7.663063013264656</v>
+        <v>7.960725259097176</v>
       </c>
       <c r="M2">
         <v>0</v>
       </c>
       <c r="N2">
-        <v>13.43809364244934</v>
+        <v>0</v>
       </c>
       <c r="O2">
-        <v>27.57605428722018</v>
+        <v>15.70977017227793</v>
       </c>
     </row>
     <row r="3" spans="1:15">
@@ -462,40 +468,46 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>24.61648745514669</v>
+        <v>22.51688189433116</v>
       </c>
       <c r="C3">
-        <v>12.78261273740898</v>
+        <v>12.93209561407523</v>
       </c>
       <c r="D3">
-        <v>2.719244237383533</v>
+        <v>5.116799005549588</v>
       </c>
       <c r="E3">
-        <v>6.220385865574873</v>
+        <v>7.099164269638661</v>
       </c>
       <c r="F3">
-        <v>35.61142470688554</v>
+        <v>21.29002178973662</v>
+      </c>
+      <c r="G3">
+        <v>0</v>
+      </c>
+      <c r="H3">
+        <v>4.251792669778333</v>
       </c>
       <c r="I3">
-        <v>0</v>
+        <v>14.30973498237867</v>
       </c>
       <c r="J3">
-        <v>5.742595964347633</v>
+        <v>5.559662106951339</v>
       </c>
       <c r="K3">
         <v>0</v>
       </c>
       <c r="L3">
-        <v>7.481602430806493</v>
+        <v>7.706771278637331</v>
       </c>
       <c r="M3">
         <v>0</v>
       </c>
       <c r="N3">
-        <v>13.72013776336715</v>
+        <v>0</v>
       </c>
       <c r="O3">
-        <v>26.91986788768961</v>
+        <v>15.76771529276528</v>
       </c>
     </row>
     <row r="4" spans="1:15">
@@ -503,40 +515,46 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>23.63087815652016</v>
+        <v>21.46055402777281</v>
       </c>
       <c r="C4">
-        <v>12.16658254993843</v>
+        <v>12.44675115057781</v>
       </c>
       <c r="D4">
-        <v>2.69342039252762</v>
+        <v>5.050978342797584</v>
       </c>
       <c r="E4">
-        <v>6.240360584389173</v>
+        <v>7.137485320460287</v>
       </c>
       <c r="F4">
-        <v>35.0378694926319</v>
+        <v>21.25597124198324</v>
+      </c>
+      <c r="G4">
+        <v>0</v>
+      </c>
+      <c r="H4">
+        <v>4.251792669778333</v>
       </c>
       <c r="I4">
-        <v>0</v>
+        <v>14.54522201125629</v>
       </c>
       <c r="J4">
-        <v>5.778693722178226</v>
+        <v>5.603733052208647</v>
       </c>
       <c r="K4">
         <v>0</v>
       </c>
       <c r="L4">
-        <v>7.372345287033669</v>
+        <v>7.5489532382979</v>
       </c>
       <c r="M4">
         <v>0</v>
       </c>
       <c r="N4">
-        <v>13.89599206776406</v>
+        <v>0</v>
       </c>
       <c r="O4">
-        <v>26.5382846423185</v>
+        <v>15.82248981071083</v>
       </c>
     </row>
     <row r="5" spans="1:15">
@@ -544,40 +562,46 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>23.22135697697118</v>
+        <v>21.01497711702434</v>
       </c>
       <c r="C5">
-        <v>11.90769710394857</v>
+        <v>12.24335618246877</v>
       </c>
       <c r="D5">
-        <v>2.6829536908579</v>
+        <v>5.02426348563655</v>
       </c>
       <c r="E5">
-        <v>6.248857304846557</v>
+        <v>7.153817202705198</v>
       </c>
       <c r="F5">
-        <v>34.81047798154939</v>
+        <v>21.24824059462732</v>
+      </c>
+      <c r="G5">
+        <v>0</v>
+      </c>
+      <c r="H5">
+        <v>4.251792669778333</v>
       </c>
       <c r="I5">
-        <v>0</v>
+        <v>14.64437061004795</v>
       </c>
       <c r="J5">
-        <v>5.793699133279681</v>
+        <v>5.622010660096112</v>
       </c>
       <c r="K5">
         <v>0</v>
       </c>
       <c r="L5">
-        <v>7.328398689001646</v>
+        <v>7.48425034051585</v>
       </c>
       <c r="M5">
         <v>0</v>
       </c>
       <c r="N5">
-        <v>13.96837950740837</v>
+        <v>0</v>
       </c>
       <c r="O5">
-        <v>26.38809704411452</v>
+        <v>15.84940335647291</v>
       </c>
     </row>
     <row r="6" spans="1:15">
@@ -585,40 +609,46 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>23.15289094965882</v>
+        <v>20.9400738553758</v>
       </c>
       <c r="C6">
-        <v>11.86423254642838</v>
+        <v>12.20924697755987</v>
       </c>
       <c r="D6">
-        <v>2.681218669585362</v>
+        <v>5.019834827521938</v>
       </c>
       <c r="E6">
-        <v>6.250289638643573</v>
+        <v>7.156571988592642</v>
       </c>
       <c r="F6">
-        <v>34.77310307530128</v>
+        <v>21.24732094705391</v>
+      </c>
+      <c r="G6">
+        <v>0</v>
+      </c>
+      <c r="H6">
+        <v>4.251792669778333</v>
       </c>
       <c r="I6">
-        <v>0</v>
+        <v>14.66102289565209</v>
       </c>
       <c r="J6">
-        <v>5.796208775353461</v>
+        <v>5.625065077291639</v>
       </c>
       <c r="K6">
         <v>0</v>
       </c>
       <c r="L6">
-        <v>7.321137213028928</v>
+        <v>7.473485466950726</v>
       </c>
       <c r="M6">
         <v>0</v>
       </c>
       <c r="N6">
-        <v>13.98044465966994</v>
+        <v>0</v>
       </c>
       <c r="O6">
-        <v>26.36347764233556</v>
+        <v>15.8541428916352</v>
       </c>
     </row>
     <row r="7" spans="1:15">
@@ -626,40 +656,46 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>23.62538664876199</v>
+        <v>21.4546061417169</v>
       </c>
       <c r="C7">
-        <v>12.16312303566162</v>
+        <v>12.44403067314009</v>
       </c>
       <c r="D7">
-        <v>2.693279026227944</v>
+        <v>5.050617584011652</v>
       </c>
       <c r="E7">
-        <v>6.240473733489478</v>
+        <v>7.137702695351251</v>
       </c>
       <c r="F7">
-        <v>35.03477712710082</v>
+        <v>21.25584242277335</v>
+      </c>
+      <c r="G7">
+        <v>0</v>
+      </c>
+      <c r="H7">
+        <v>4.251792669778333</v>
       </c>
       <c r="I7">
-        <v>0</v>
+        <v>14.54654643335178</v>
       </c>
       <c r="J7">
-        <v>5.778894887050397</v>
+        <v>5.603978252044318</v>
       </c>
       <c r="K7">
         <v>0</v>
       </c>
       <c r="L7">
-        <v>7.371750228248086</v>
+        <v>7.548082098245182</v>
       </c>
       <c r="M7">
         <v>0</v>
       </c>
       <c r="N7">
-        <v>13.89696530652384</v>
+        <v>0</v>
       </c>
       <c r="O7">
-        <v>26.53623772862717</v>
+        <v>15.82283448966185</v>
       </c>
     </row>
     <row r="8" spans="1:15">
@@ -667,40 +703,46 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>25.64043817256983</v>
+        <v>23.59267478810403</v>
       </c>
       <c r="C8">
-        <v>13.41342915783472</v>
+        <v>13.43053094011501</v>
       </c>
       <c r="D8">
-        <v>2.747041213668358</v>
+        <v>5.187325005212065</v>
       </c>
       <c r="E8">
-        <v>6.200300397911974</v>
+        <v>7.06075250025891</v>
       </c>
       <c r="F8">
-        <v>36.2450597201214</v>
+        <v>21.34803160458184</v>
+      </c>
+      <c r="G8">
+        <v>0</v>
+      </c>
+      <c r="H8">
+        <v>4.251792669778333</v>
       </c>
       <c r="I8">
-        <v>0</v>
+        <v>14.06971879202533</v>
       </c>
       <c r="J8">
-        <v>5.705068762399716</v>
+        <v>5.513701996679149</v>
       </c>
       <c r="K8">
         <v>0</v>
       </c>
       <c r="L8">
-        <v>7.600066442408986</v>
+        <v>7.873602486362794</v>
       </c>
       <c r="M8">
         <v>0</v>
       </c>
       <c r="N8">
-        <v>13.5348189044047</v>
+        <v>0</v>
       </c>
       <c r="O8">
-        <v>27.3453482815922</v>
+        <v>15.72562398645946</v>
       </c>
     </row>
     <row r="9" spans="1:15">
@@ -708,40 +750,46 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>29.32554084650392</v>
+        <v>27.31556538852504</v>
       </c>
       <c r="C9">
-        <v>15.62572030215222</v>
+        <v>15.18170721811139</v>
       </c>
       <c r="D9">
-        <v>2.855636984075612</v>
+        <v>5.456751320715918</v>
       </c>
       <c r="E9">
-        <v>6.133067631664552</v>
+        <v>6.933398733637149</v>
       </c>
       <c r="F9">
-        <v>38.81701091237848</v>
+        <v>21.73997805762022</v>
+      </c>
+      <c r="G9">
+        <v>0</v>
+      </c>
+      <c r="H9">
+        <v>4.251792669778333</v>
       </c>
       <c r="I9">
-        <v>0</v>
+        <v>13.24676534289415</v>
       </c>
       <c r="J9">
-        <v>5.569134847416849</v>
+        <v>5.346136770194885</v>
       </c>
       <c r="K9">
         <v>0</v>
       </c>
       <c r="L9">
-        <v>8.0636078169083</v>
+        <v>8.493620157934116</v>
       </c>
       <c r="M9">
         <v>0</v>
       </c>
       <c r="N9">
-        <v>12.84337677987479</v>
+        <v>0</v>
       </c>
       <c r="O9">
-        <v>29.10337945470429</v>
+        <v>15.69781559260496</v>
       </c>
     </row>
     <row r="10" spans="1:15">
@@ -749,40 +797,46 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>31.86482813308219</v>
+        <v>29.770234694292</v>
       </c>
       <c r="C10">
-        <v>17.11250403026789</v>
+        <v>16.35377804673891</v>
       </c>
       <c r="D10">
-        <v>2.938705311325997</v>
+        <v>5.65404005908148</v>
       </c>
       <c r="E10">
-        <v>6.090997509392882</v>
+        <v>6.855044972608006</v>
       </c>
       <c r="F10">
-        <v>40.82834521158764</v>
+        <v>22.16889147553549</v>
+      </c>
+      <c r="G10">
+        <v>0</v>
+      </c>
+      <c r="H10">
+        <v>4.251792669778333</v>
       </c>
       <c r="I10">
-        <v>0</v>
+        <v>12.72241557642765</v>
       </c>
       <c r="J10">
-        <v>5.474223340630513</v>
+        <v>5.228282903816332</v>
       </c>
       <c r="K10">
         <v>0</v>
       </c>
       <c r="L10">
-        <v>8.412341374263383</v>
+        <v>8.934053703739529</v>
       </c>
       <c r="M10">
         <v>0</v>
       </c>
       <c r="N10">
-        <v>12.34299563669887</v>
+        <v>0</v>
       </c>
       <c r="O10">
-        <v>30.50322068088157</v>
+        <v>15.79089232111245</v>
       </c>
     </row>
     <row r="11" spans="1:15">
@@ -790,40 +844,46 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>33.02217152487888</v>
+        <v>30.82731897079422</v>
       </c>
       <c r="C11">
-        <v>17.76062890051401</v>
+        <v>16.86186936766453</v>
       </c>
       <c r="D11">
-        <v>2.977563365603433</v>
+        <v>5.743368197923705</v>
       </c>
       <c r="E11">
-        <v>6.07352661902017</v>
+        <v>6.822909668138048</v>
       </c>
       <c r="F11">
-        <v>41.77058627346723</v>
+        <v>22.39687380125326</v>
+      </c>
+      <c r="G11">
+        <v>0</v>
+      </c>
+      <c r="H11">
+        <v>4.251792669778333</v>
       </c>
       <c r="I11">
-        <v>0</v>
+        <v>12.50457133961266</v>
       </c>
       <c r="J11">
-        <v>5.432020023255655</v>
+        <v>5.175688527586669</v>
       </c>
       <c r="K11">
         <v>0</v>
       </c>
       <c r="L11">
-        <v>8.572563740772161</v>
+        <v>9.130469045953356</v>
       </c>
       <c r="M11">
         <v>0</v>
       </c>
       <c r="N11">
-        <v>12.11609572951522</v>
+        <v>0</v>
       </c>
       <c r="O11">
-        <v>31.16471475711039</v>
+        <v>15.86085199115143</v>
       </c>
     </row>
     <row r="12" spans="1:15">
@@ -831,40 +891,46 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>33.46853147118318</v>
+        <v>31.21915365852751</v>
       </c>
       <c r="C12">
-        <v>18.00216916665198</v>
+        <v>17.0506578573876</v>
       </c>
       <c r="D12">
-        <v>2.99246642449354</v>
+        <v>5.77711316549261</v>
       </c>
       <c r="E12">
-        <v>6.067158310501042</v>
+        <v>6.811264115661802</v>
       </c>
       <c r="F12">
-        <v>42.13143700405713</v>
+        <v>22.48809061196826</v>
+      </c>
+      <c r="G12">
+        <v>0</v>
+      </c>
+      <c r="H12">
+        <v>4.251792669778333</v>
       </c>
       <c r="I12">
-        <v>0</v>
+        <v>12.42538104490103</v>
       </c>
       <c r="J12">
-        <v>5.416169437002508</v>
+        <v>5.155908218801597</v>
       </c>
       <c r="K12">
         <v>0</v>
       </c>
       <c r="L12">
-        <v>8.633455591750822</v>
+        <v>9.204234031067465</v>
       </c>
       <c r="M12">
         <v>0</v>
       </c>
       <c r="N12">
-        <v>12.03019627742144</v>
+        <v>0</v>
       </c>
       <c r="O12">
-        <v>31.41889124139138</v>
+        <v>15.89154987553534</v>
       </c>
     </row>
     <row r="13" spans="1:15">
@@ -872,40 +938,46 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>33.37268775653966</v>
+        <v>31.13513962521256</v>
       </c>
       <c r="C13">
-        <v>17.95031931945416</v>
+        <v>17.01015963362606</v>
       </c>
       <c r="D13">
-        <v>2.989247803672919</v>
+        <v>5.769849531490283</v>
       </c>
       <c r="E13">
-        <v>6.068518692808158</v>
+        <v>6.81374860011172</v>
       </c>
       <c r="F13">
-        <v>42.05353884150454</v>
+        <v>22.46822583793728</v>
+      </c>
+      <c r="G13">
+        <v>0</v>
+      </c>
+      <c r="H13">
+        <v>4.251792669778333</v>
       </c>
       <c r="I13">
-        <v>0</v>
+        <v>12.44228346965863</v>
       </c>
       <c r="J13">
-        <v>5.419577472842134</v>
+        <v>5.160162383547394</v>
       </c>
       <c r="K13">
         <v>0</v>
       </c>
       <c r="L13">
-        <v>8.620331738124856</v>
+        <v>9.188375358420817</v>
       </c>
       <c r="M13">
         <v>0</v>
       </c>
       <c r="N13">
-        <v>12.0486966280152</v>
+        <v>0</v>
       </c>
       <c r="O13">
-        <v>31.36398344376778</v>
+        <v>15.88474785621719</v>
       </c>
     </row>
     <row r="14" spans="1:15">
@@ -913,40 +985,46 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>33.0590239146041</v>
+        <v>30.8597243936896</v>
       </c>
       <c r="C14">
-        <v>17.78057751194764</v>
+        <v>16.87747355363558</v>
       </c>
       <c r="D14">
-        <v>2.978785458815534</v>
+        <v>5.746146167838088</v>
       </c>
       <c r="E14">
-        <v>6.07299768429902</v>
+        <v>6.821940978826298</v>
       </c>
       <c r="F14">
-        <v>41.80019169895536</v>
+        <v>22.40427951494368</v>
+      </c>
+      <c r="G14">
+        <v>0</v>
+      </c>
+      <c r="H14">
+        <v>4.251792669778333</v>
       </c>
       <c r="I14">
-        <v>0</v>
+        <v>12.4979880673479</v>
       </c>
       <c r="J14">
-        <v>5.430713416423865</v>
+        <v>5.174058524818021</v>
       </c>
       <c r="K14">
         <v>0</v>
       </c>
       <c r="L14">
-        <v>8.577568975955963</v>
+        <v>9.136550266357911</v>
       </c>
       <c r="M14">
         <v>0</v>
       </c>
       <c r="N14">
-        <v>12.10902876841822</v>
+        <v>0</v>
       </c>
       <c r="O14">
-        <v>31.18555129542481</v>
+        <v>15.86329192729656</v>
       </c>
     </row>
     <row r="15" spans="1:15">
@@ -954,40 +1032,46 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>32.86604858362776</v>
+        <v>30.68992598845747</v>
       </c>
       <c r="C15">
-        <v>17.67610436788945</v>
+        <v>16.7957287481092</v>
       </c>
       <c r="D15">
-        <v>2.972402609011724</v>
+        <v>5.731615942118243</v>
       </c>
       <c r="E15">
-        <v>6.075773685359025</v>
+        <v>6.827027792693184</v>
       </c>
       <c r="F15">
-        <v>41.6455406619536</v>
+        <v>22.36575111585514</v>
+      </c>
+      <c r="G15">
+        <v>0</v>
+      </c>
+      <c r="H15">
+        <v>4.251792669778333</v>
       </c>
       <c r="I15">
-        <v>0</v>
+        <v>12.53254939060546</v>
       </c>
       <c r="J15">
-        <v>5.437551272241057</v>
+        <v>5.182587710903757</v>
       </c>
       <c r="K15">
         <v>0</v>
       </c>
       <c r="L15">
-        <v>8.551403982278384</v>
+        <v>9.10472478308982</v>
       </c>
       <c r="M15">
         <v>0</v>
       </c>
       <c r="N15">
-        <v>12.14598435308214</v>
+        <v>0</v>
       </c>
       <c r="O15">
-        <v>31.07674069362659</v>
+        <v>15.85070405175928</v>
       </c>
     </row>
     <row r="16" spans="1:15">
@@ -995,40 +1079,46 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>31.79098304965244</v>
+        <v>29.6999621328529</v>
       </c>
       <c r="C16">
-        <v>17.0695935955643</v>
+        <v>16.32006737900025</v>
       </c>
       <c r="D16">
-        <v>2.936190214435521</v>
+        <v>5.648191941218257</v>
       </c>
       <c r="E16">
-        <v>6.092173459974293</v>
+        <v>6.857217270639292</v>
       </c>
       <c r="F16">
-        <v>40.76732547143315</v>
+        <v>22.15466761346023</v>
+      </c>
+      <c r="G16">
+        <v>0</v>
+      </c>
+      <c r="H16">
+        <v>4.251792669778333</v>
       </c>
       <c r="I16">
-        <v>0</v>
+        <v>12.73709541942669</v>
       </c>
       <c r="J16">
-        <v>5.477000246027764</v>
+        <v>5.231739684676553</v>
       </c>
       <c r="K16">
         <v>0</v>
       </c>
       <c r="L16">
-        <v>8.401901392683349</v>
+        <v>8.92113405248946</v>
       </c>
       <c r="M16">
         <v>0</v>
       </c>
       <c r="N16">
-        <v>12.35783184504831</v>
+        <v>0</v>
       </c>
       <c r="O16">
-        <v>30.46049781553338</v>
+        <v>15.78689626353061</v>
       </c>
     </row>
     <row r="17" spans="1:15">
@@ -1036,40 +1126,46 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>31.13978011509291</v>
+        <v>29.07747042959418</v>
       </c>
       <c r="C17">
-        <v>16.69040466404141</v>
+        <v>16.02183003789301</v>
       </c>
       <c r="D17">
-        <v>2.914272157801558</v>
+        <v>5.596890724544815</v>
       </c>
       <c r="E17">
-        <v>6.102666358413762</v>
+        <v>6.876649110360757</v>
       </c>
       <c r="F17">
-        <v>40.23562313287764</v>
+        <v>22.03371111635269</v>
+      </c>
+      <c r="G17">
+        <v>0</v>
+      </c>
+      <c r="H17">
+        <v>4.251792669778333</v>
       </c>
       <c r="I17">
-        <v>0</v>
+        <v>12.86809446209194</v>
       </c>
       <c r="J17">
-        <v>5.501443829784671</v>
+        <v>5.262146395633112</v>
       </c>
       <c r="K17">
         <v>0</v>
       </c>
       <c r="L17">
-        <v>8.310583003641018</v>
+        <v>8.807462320835889</v>
       </c>
       <c r="M17">
         <v>0</v>
       </c>
       <c r="N17">
-        <v>12.48792320476606</v>
+        <v>0</v>
       </c>
       <c r="O17">
-        <v>30.0888600279713</v>
+        <v>15.75499533397427</v>
       </c>
     </row>
     <row r="18" spans="1:15">
@@ -1077,40 +1173,46 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>30.76180515194401</v>
+        <v>28.71381746719688</v>
       </c>
       <c r="C18">
-        <v>16.46963796468966</v>
+        <v>15.84792989765047</v>
       </c>
       <c r="D18">
-        <v>2.901763836960335</v>
+        <v>5.567345283936503</v>
       </c>
       <c r="E18">
-        <v>6.108857970696139</v>
+        <v>6.888154789182471</v>
       </c>
       <c r="F18">
-        <v>39.93235864891681</v>
+        <v>21.96722542169724</v>
+      </c>
+      <c r="G18">
+        <v>0</v>
+      </c>
+      <c r="H18">
+        <v>4.251792669778333</v>
       </c>
       <c r="I18">
-        <v>0</v>
+        <v>12.94536625286954</v>
       </c>
       <c r="J18">
-        <v>5.515595234450464</v>
+        <v>5.279732001434859</v>
       </c>
       <c r="K18">
         <v>0</v>
       </c>
       <c r="L18">
-        <v>8.258207984497677</v>
+        <v>8.741712789995573</v>
       </c>
       <c r="M18">
         <v>0</v>
       </c>
       <c r="N18">
-        <v>12.56282192118957</v>
+        <v>0</v>
       </c>
       <c r="O18">
-        <v>29.87741865300538</v>
+        <v>15.73923283689646</v>
       </c>
     </row>
     <row r="19" spans="1:15">
@@ -1118,40 +1220,46 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>30.63323998777662</v>
+        <v>28.58972380251701</v>
       </c>
       <c r="C19">
-        <v>16.394427229563</v>
+        <v>15.78864503030688</v>
       </c>
       <c r="D19">
-        <v>2.897544655054045</v>
+        <v>5.557335805708781</v>
       </c>
       <c r="E19">
-        <v>6.110980982153196</v>
+        <v>6.892106365720061</v>
       </c>
       <c r="F19">
-        <v>39.83011485235234</v>
+        <v>21.94523929679062</v>
+      </c>
+      <c r="G19">
+        <v>0</v>
+      </c>
+      <c r="H19">
+        <v>4.251792669778333</v>
       </c>
       <c r="I19">
-        <v>0</v>
+        <v>12.9718504733119</v>
       </c>
       <c r="J19">
-        <v>5.520402736428991</v>
+        <v>5.285703058598896</v>
       </c>
       <c r="K19">
         <v>0</v>
       </c>
       <c r="L19">
-        <v>8.240500665201694</v>
+        <v>8.719389374744429</v>
       </c>
       <c r="M19">
         <v>0</v>
       </c>
       <c r="N19">
-        <v>12.58819636835746</v>
+        <v>0</v>
       </c>
       <c r="O19">
-        <v>29.80622245313642</v>
+        <v>15.73433281151417</v>
       </c>
     </row>
     <row r="20" spans="1:15">
@@ -1159,40 +1267,46 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>31.20945526644443</v>
+        <v>29.14431583148449</v>
       </c>
       <c r="C20">
-        <v>16.73104486653456</v>
+        <v>16.05382244530981</v>
       </c>
       <c r="D20">
-        <v>2.916594957295006</v>
+        <v>5.602355955787263</v>
       </c>
       <c r="E20">
-        <v>6.101533134343978</v>
+        <v>6.87454637503901</v>
       </c>
       <c r="F20">
-        <v>40.29195845866212</v>
+        <v>22.04626662439259</v>
+      </c>
+      <c r="G20">
+        <v>0</v>
+      </c>
+      <c r="H20">
+        <v>4.251792669778333</v>
       </c>
       <c r="I20">
-        <v>0</v>
+        <v>12.85394797459359</v>
       </c>
       <c r="J20">
-        <v>5.498832298873823</v>
+        <v>5.258899637885174</v>
       </c>
       <c r="K20">
         <v>0</v>
       </c>
       <c r="L20">
-        <v>8.32028867799688</v>
+        <v>8.819601377090306</v>
       </c>
       <c r="M20">
         <v>0</v>
       </c>
       <c r="N20">
-        <v>12.47406771111917</v>
+        <v>0</v>
       </c>
       <c r="O20">
-        <v>30.12818110323958</v>
+        <v>15.758121869567</v>
       </c>
     </row>
     <row r="21" spans="1:15">
@@ -1200,40 +1314,46 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>33.15133069962283</v>
+        <v>30.94084928512551</v>
       </c>
       <c r="C21">
-        <v>17.83053895876848</v>
+        <v>16.91654477253998</v>
       </c>
       <c r="D21">
-        <v>2.981853091324477</v>
+        <v>5.753110795883522</v>
       </c>
       <c r="E21">
-        <v>6.071675309466391</v>
+        <v>6.819520316464065</v>
       </c>
       <c r="F21">
-        <v>41.87449484377422</v>
+        <v>22.42292834624987</v>
+      </c>
+      <c r="G21">
+        <v>0</v>
+      </c>
+      <c r="H21">
+        <v>4.251792669778333</v>
       </c>
       <c r="I21">
-        <v>0</v>
+        <v>12.48153379221771</v>
       </c>
       <c r="J21">
-        <v>5.427439042222929</v>
+        <v>5.169973284886945</v>
       </c>
       <c r="K21">
         <v>0</v>
       </c>
       <c r="L21">
-        <v>8.590123513114369</v>
+        <v>9.151789529757911</v>
       </c>
       <c r="M21">
         <v>0</v>
       </c>
       <c r="N21">
-        <v>12.09130782683733</v>
+        <v>0</v>
       </c>
       <c r="O21">
-        <v>31.23785993274671</v>
+        <v>15.86947809135545</v>
       </c>
     </row>
     <row r="22" spans="1:15">
@@ -1241,40 +1361,46 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>34.43858468818845</v>
+        <v>32.06572597965999</v>
       </c>
       <c r="C22">
-        <v>18.52653613405975</v>
+        <v>17.45931897790479</v>
       </c>
       <c r="D22">
-        <v>3.025620712362882</v>
+        <v>5.851153483837381</v>
       </c>
       <c r="E22">
-        <v>6.053608876597581</v>
+        <v>6.786618091430858</v>
       </c>
       <c r="F22">
-        <v>42.93245236021617</v>
+        <v>22.6976332411614</v>
+      </c>
+      <c r="G22">
+        <v>0</v>
+      </c>
+      <c r="H22">
+        <v>4.251792669778333</v>
       </c>
       <c r="I22">
-        <v>0</v>
+        <v>12.25757709324051</v>
       </c>
       <c r="J22">
-        <v>5.38153769028088</v>
+        <v>5.112642433029492</v>
       </c>
       <c r="K22">
         <v>0</v>
       </c>
       <c r="L22">
-        <v>8.767755826178661</v>
+        <v>9.365302902984389</v>
       </c>
       <c r="M22">
         <v>0</v>
       </c>
       <c r="N22">
-        <v>11.84124120793042</v>
+        <v>0</v>
       </c>
       <c r="O22">
-        <v>31.98465961088105</v>
+        <v>15.96687166081901</v>
       </c>
     </row>
     <row r="23" spans="1:15">
@@ -1282,40 +1408,46 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>33.75495792460421</v>
+        <v>31.46983033799773</v>
       </c>
       <c r="C23">
-        <v>18.15707571499715</v>
+        <v>17.17155705922828</v>
       </c>
       <c r="D23">
-        <v>3.002146097517794</v>
+        <v>5.798877054218469</v>
       </c>
       <c r="E23">
-        <v>6.063115926815503</v>
+        <v>6.803891985516137</v>
       </c>
       <c r="F23">
-        <v>42.36557661830022</v>
+        <v>22.54835902232209</v>
+      </c>
+      <c r="G23">
+        <v>0</v>
+      </c>
+      <c r="H23">
+        <v>4.251792669778333</v>
       </c>
       <c r="I23">
-        <v>0</v>
+        <v>12.37520735437863</v>
       </c>
       <c r="J23">
-        <v>5.405969869104216</v>
+        <v>5.143172508480037</v>
       </c>
       <c r="K23">
         <v>0</v>
       </c>
       <c r="L23">
-        <v>8.672833509709362</v>
+        <v>9.251688823991566</v>
       </c>
       <c r="M23">
         <v>0</v>
       </c>
       <c r="N23">
-        <v>11.97472707086079</v>
+        <v>0</v>
       </c>
       <c r="O23">
-        <v>31.58405106185088</v>
+        <v>15.9125635643784</v>
       </c>
     </row>
     <row r="24" spans="1:15">
@@ -1323,40 +1455,46 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>31.17796631816158</v>
+        <v>29.11411301843841</v>
       </c>
       <c r="C24">
-        <v>16.71268005866692</v>
+        <v>16.03936627583765</v>
       </c>
       <c r="D24">
-        <v>2.915544533562057</v>
+        <v>5.599885284093538</v>
       </c>
       <c r="E24">
-        <v>6.102044969942417</v>
+        <v>6.875495982584787</v>
       </c>
       <c r="F24">
-        <v>40.26648173387321</v>
+        <v>22.04058077948497</v>
+      </c>
+      <c r="G24">
+        <v>0</v>
+      </c>
+      <c r="H24">
+        <v>4.251792669778333</v>
       </c>
       <c r="I24">
-        <v>0</v>
+        <v>12.86033752489645</v>
       </c>
       <c r="J24">
-        <v>5.500012664643558</v>
+        <v>5.260367171160649</v>
       </c>
       <c r="K24">
         <v>0</v>
       </c>
       <c r="L24">
-        <v>8.315900352090271</v>
+        <v>8.814114546242005</v>
       </c>
       <c r="M24">
         <v>0</v>
       </c>
       <c r="N24">
-        <v>12.48033143898555</v>
+        <v>0</v>
       </c>
       <c r="O24">
-        <v>30.11039714544078</v>
+        <v>15.75670035150082</v>
       </c>
     </row>
     <row r="25" spans="1:15">
@@ -1364,40 +1502,46 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>28.35801035633562</v>
+        <v>26.35812390922944</v>
       </c>
       <c r="C25">
-        <v>15.05215238855941</v>
+        <v>14.72794654747827</v>
       </c>
       <c r="D25">
-        <v>2.825790561463164</v>
+        <v>5.383878682274916</v>
       </c>
       <c r="E25">
-        <v>6.149992621580735</v>
+        <v>6.965245690355279</v>
       </c>
       <c r="F25">
-        <v>38.0999885630995</v>
+        <v>21.61001280877681</v>
+      </c>
+      <c r="G25">
+        <v>0</v>
+      </c>
+      <c r="H25">
+        <v>4.251792669778333</v>
       </c>
       <c r="I25">
-        <v>0</v>
+        <v>13.45627784626862</v>
       </c>
       <c r="J25">
-        <v>5.60500497509052</v>
+        <v>5.390505583965323</v>
       </c>
       <c r="K25">
         <v>0</v>
       </c>
       <c r="L25">
-        <v>7.936683754167491</v>
+        <v>8.328285418625761</v>
       </c>
       <c r="M25">
         <v>0</v>
       </c>
       <c r="N25">
-        <v>13.0287999904294</v>
+        <v>0</v>
       </c>
       <c r="O25">
-        <v>28.6090952265751</v>
+        <v>15.68642656115868</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_5_9/res_line/loading_percent.xlsx
+++ b/Code/Results/Cases/Case_5_9/res_line/loading_percent.xlsx
@@ -421,37 +421,37 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>24.13997182844919</v>
+        <v>18.91491841113828</v>
       </c>
       <c r="C2">
-        <v>13.68555941304395</v>
+        <v>8.934646501143071</v>
       </c>
       <c r="D2">
-        <v>5.224514808835614</v>
+        <v>8.255381932655309</v>
       </c>
       <c r="E2">
-        <v>7.041466551349158</v>
+        <v>12.38757432589048</v>
       </c>
       <c r="F2">
-        <v>21.38680860400817</v>
+        <v>33.69482902560704</v>
       </c>
       <c r="G2">
         <v>0</v>
       </c>
       <c r="H2">
-        <v>4.251792669784106</v>
+        <v>7.344005520526261</v>
       </c>
       <c r="I2">
-        <v>13.94773125311326</v>
+        <v>24.77953575933526</v>
       </c>
       <c r="J2">
-        <v>5.48990039356756</v>
+        <v>9.623628999666686</v>
       </c>
       <c r="K2">
         <v>0</v>
       </c>
       <c r="L2">
-        <v>7.960725259097176</v>
+        <v>11.53494986194546</v>
       </c>
       <c r="M2">
         <v>0</v>
@@ -460,7 +460,7 @@
         <v>0</v>
       </c>
       <c r="O2">
-        <v>15.70977017227793</v>
+        <v>25.83468950717293</v>
       </c>
     </row>
     <row r="3" spans="1:15">
@@ -468,37 +468,37 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>22.51688189433116</v>
+        <v>18.31392817680905</v>
       </c>
       <c r="C3">
-        <v>12.93209561407523</v>
+        <v>8.553639185446569</v>
       </c>
       <c r="D3">
-        <v>5.116799005549588</v>
+        <v>8.248553358349813</v>
       </c>
       <c r="E3">
-        <v>7.099164269638661</v>
+        <v>12.42236024627984</v>
       </c>
       <c r="F3">
-        <v>21.29002178973662</v>
+        <v>33.82991092919632</v>
       </c>
       <c r="G3">
         <v>0</v>
       </c>
       <c r="H3">
-        <v>4.251792669778333</v>
+        <v>7.344005520526261</v>
       </c>
       <c r="I3">
-        <v>14.30973498237867</v>
+        <v>24.93851085218981</v>
       </c>
       <c r="J3">
-        <v>5.559662106951339</v>
+        <v>9.648996252664226</v>
       </c>
       <c r="K3">
         <v>0</v>
       </c>
       <c r="L3">
-        <v>7.706771278637331</v>
+        <v>11.50412389053931</v>
       </c>
       <c r="M3">
         <v>0</v>
@@ -507,7 +507,7 @@
         <v>0</v>
       </c>
       <c r="O3">
-        <v>15.76771529276528</v>
+        <v>25.95752624055027</v>
       </c>
     </row>
     <row r="4" spans="1:15">
@@ -515,37 +515,37 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>21.46055402777281</v>
+        <v>17.93549525465857</v>
       </c>
       <c r="C4">
-        <v>12.44675115057781</v>
+        <v>8.30971540045657</v>
       </c>
       <c r="D4">
-        <v>5.050978342797584</v>
+        <v>8.245132061207565</v>
       </c>
       <c r="E4">
-        <v>7.137485320460287</v>
+        <v>12.4451525064107</v>
       </c>
       <c r="F4">
-        <v>21.25597124198324</v>
+        <v>33.9218742675852</v>
       </c>
       <c r="G4">
         <v>0</v>
       </c>
       <c r="H4">
-        <v>4.251792669778333</v>
+        <v>7.344005520526261</v>
       </c>
       <c r="I4">
-        <v>14.54522201125629</v>
+        <v>25.04180605976789</v>
       </c>
       <c r="J4">
-        <v>5.603733052208647</v>
+        <v>9.665372723096111</v>
       </c>
       <c r="K4">
         <v>0</v>
       </c>
       <c r="L4">
-        <v>7.5489532382979</v>
+        <v>11.48640380535896</v>
       </c>
       <c r="M4">
         <v>0</v>
@@ -554,7 +554,7 @@
         <v>0</v>
       </c>
       <c r="O4">
-        <v>15.82248981071083</v>
+        <v>26.03951817855526</v>
       </c>
     </row>
     <row r="5" spans="1:15">
@@ -562,37 +562,37 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>21.01497711702434</v>
+        <v>17.77912295581072</v>
       </c>
       <c r="C5">
-        <v>12.24335618246877</v>
+        <v>8.207902639933264</v>
       </c>
       <c r="D5">
-        <v>5.02426348563655</v>
+        <v>8.243933060137239</v>
       </c>
       <c r="E5">
-        <v>7.153817202705198</v>
+        <v>12.45480160939264</v>
       </c>
       <c r="F5">
-        <v>21.24824059462732</v>
+        <v>33.96161145667689</v>
       </c>
       <c r="G5">
         <v>0</v>
       </c>
       <c r="H5">
-        <v>4.251792669778333</v>
+        <v>7.344005520526261</v>
       </c>
       <c r="I5">
-        <v>14.64437061004795</v>
+        <v>25.08532968212033</v>
       </c>
       <c r="J5">
-        <v>5.622010660096112</v>
+        <v>9.672248260332472</v>
       </c>
       <c r="K5">
         <v>0</v>
       </c>
       <c r="L5">
-        <v>7.48425034051585</v>
+        <v>11.47949057106102</v>
       </c>
       <c r="M5">
         <v>0</v>
@@ -601,7 +601,7 @@
         <v>0</v>
       </c>
       <c r="O5">
-        <v>15.84940335647291</v>
+        <v>26.07457817576494</v>
       </c>
     </row>
     <row r="6" spans="1:15">
@@ -609,37 +609,37 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>20.9400738553758</v>
+        <v>17.75303366025093</v>
       </c>
       <c r="C6">
-        <v>12.20924697755987</v>
+        <v>8.190854204261591</v>
       </c>
       <c r="D6">
-        <v>5.019834827521938</v>
+        <v>8.243745791017277</v>
       </c>
       <c r="E6">
-        <v>7.156571988592642</v>
+        <v>12.45642566087164</v>
       </c>
       <c r="F6">
-        <v>21.24732094705391</v>
+        <v>33.96834614808441</v>
       </c>
       <c r="G6">
         <v>0</v>
       </c>
       <c r="H6">
-        <v>4.251792669778333</v>
+        <v>7.344005520526261</v>
       </c>
       <c r="I6">
-        <v>14.66102289565209</v>
+        <v>25.09264313726559</v>
       </c>
       <c r="J6">
-        <v>5.625065077291639</v>
+        <v>9.673402155735605</v>
       </c>
       <c r="K6">
         <v>0</v>
       </c>
       <c r="L6">
-        <v>7.473485466950726</v>
+        <v>11.47836134776432</v>
       </c>
       <c r="M6">
         <v>0</v>
@@ -648,7 +648,7 @@
         <v>0</v>
       </c>
       <c r="O6">
-        <v>15.8541428916352</v>
+        <v>26.08049924515172</v>
       </c>
     </row>
     <row r="7" spans="1:15">
@@ -656,37 +656,37 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>21.4546061417169</v>
+        <v>17.93339480742511</v>
       </c>
       <c r="C7">
-        <v>12.44403067314009</v>
+        <v>8.308351942563956</v>
       </c>
       <c r="D7">
-        <v>5.050617584011652</v>
+        <v>8.245115099118925</v>
       </c>
       <c r="E7">
-        <v>7.137702695351251</v>
+        <v>12.44528117483152</v>
       </c>
       <c r="F7">
-        <v>21.25584242277335</v>
+        <v>33.92240103093035</v>
       </c>
       <c r="G7">
         <v>0</v>
       </c>
       <c r="H7">
-        <v>4.251792669778333</v>
+        <v>7.344005520526261</v>
       </c>
       <c r="I7">
-        <v>14.54654643335178</v>
+        <v>25.04238724358961</v>
       </c>
       <c r="J7">
-        <v>5.603978252044318</v>
+        <v>9.665464630331805</v>
       </c>
       <c r="K7">
         <v>0</v>
       </c>
       <c r="L7">
-        <v>7.548082098245182</v>
+        <v>11.48630931911156</v>
       </c>
       <c r="M7">
         <v>0</v>
@@ -695,7 +695,7 @@
         <v>0</v>
       </c>
       <c r="O7">
-        <v>15.82283448966185</v>
+        <v>26.03998434463245</v>
       </c>
     </row>
     <row r="8" spans="1:15">
@@ -703,37 +703,37 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>23.59267478810403</v>
+        <v>18.70977401060528</v>
       </c>
       <c r="C8">
-        <v>13.43053094011501</v>
+        <v>8.805402187622301</v>
       </c>
       <c r="D8">
-        <v>5.187325005212065</v>
+        <v>8.252868063862104</v>
       </c>
       <c r="E8">
-        <v>7.06075250025891</v>
+        <v>12.39927133039408</v>
       </c>
       <c r="F8">
-        <v>21.34803160458184</v>
+        <v>33.73952826208895</v>
       </c>
       <c r="G8">
         <v>0</v>
       </c>
       <c r="H8">
-        <v>4.251792669778333</v>
+        <v>7.344005520526261</v>
       </c>
       <c r="I8">
-        <v>14.06971879202533</v>
+        <v>24.83317111780618</v>
       </c>
       <c r="J8">
-        <v>5.513701996679149</v>
+        <v>9.632209772939254</v>
       </c>
       <c r="K8">
         <v>0</v>
       </c>
       <c r="L8">
-        <v>7.873602486362794</v>
+        <v>11.52407314941284</v>
       </c>
       <c r="M8">
         <v>0</v>
@@ -742,7 +742,7 @@
         <v>0</v>
       </c>
       <c r="O8">
-        <v>15.72562398645946</v>
+        <v>25.8756774466936</v>
       </c>
     </row>
     <row r="9" spans="1:15">
@@ -750,37 +750,37 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>27.31556538852504</v>
+        <v>20.14910027797533</v>
       </c>
       <c r="C9">
-        <v>15.18170721811139</v>
+        <v>9.697246936767856</v>
       </c>
       <c r="D9">
-        <v>5.456751320715918</v>
+        <v>8.274138136974305</v>
       </c>
       <c r="E9">
-        <v>6.933398733637149</v>
+        <v>12.32039421649977</v>
       </c>
       <c r="F9">
-        <v>21.73997805762022</v>
+        <v>33.452826637689</v>
       </c>
       <c r="G9">
         <v>0</v>
       </c>
       <c r="H9">
-        <v>4.251792669778333</v>
+        <v>7.344005520526261</v>
       </c>
       <c r="I9">
-        <v>13.24676534289415</v>
+        <v>24.46796438094947</v>
       </c>
       <c r="J9">
-        <v>5.346136770194885</v>
+        <v>9.573323843198493</v>
       </c>
       <c r="K9">
         <v>0</v>
       </c>
       <c r="L9">
-        <v>8.493620157934116</v>
+        <v>11.60751024282115</v>
       </c>
       <c r="M9">
         <v>0</v>
@@ -789,7 +789,7 @@
         <v>0</v>
       </c>
       <c r="O9">
-        <v>15.69781559260496</v>
+        <v>25.60579458203549</v>
       </c>
     </row>
     <row r="10" spans="1:15">
@@ -797,37 +797,37 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>29.770234694292</v>
+        <v>21.14589348913665</v>
       </c>
       <c r="C10">
-        <v>16.35377804673891</v>
+        <v>10.29791472249729</v>
       </c>
       <c r="D10">
-        <v>5.65404005908148</v>
+        <v>8.293387824673225</v>
       </c>
       <c r="E10">
-        <v>6.855044972608006</v>
+        <v>12.26932443426507</v>
       </c>
       <c r="F10">
-        <v>22.16889147553549</v>
+        <v>33.28645215165197</v>
       </c>
       <c r="G10">
         <v>0</v>
       </c>
       <c r="H10">
-        <v>4.251792669778333</v>
+        <v>7.344005520526261</v>
       </c>
       <c r="I10">
-        <v>12.72241557642765</v>
+        <v>24.22707387350372</v>
       </c>
       <c r="J10">
-        <v>5.228282903816332</v>
+        <v>9.533878090855417</v>
       </c>
       <c r="K10">
         <v>0</v>
       </c>
       <c r="L10">
-        <v>8.934053703739529</v>
+        <v>11.67425736422484</v>
       </c>
       <c r="M10">
         <v>0</v>
@@ -836,7 +836,7 @@
         <v>0</v>
       </c>
       <c r="O10">
-        <v>15.79089232111245</v>
+        <v>25.4396738810175</v>
       </c>
     </row>
     <row r="11" spans="1:15">
@@ -844,37 +844,37 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>30.82731897079422</v>
+        <v>21.58441245985476</v>
       </c>
       <c r="C11">
-        <v>16.86186936766453</v>
+        <v>10.55867527605919</v>
       </c>
       <c r="D11">
-        <v>5.743368197923705</v>
+        <v>8.302914214878539</v>
       </c>
       <c r="E11">
-        <v>6.822909668138048</v>
+        <v>12.24757791702846</v>
       </c>
       <c r="F11">
-        <v>22.39687380125326</v>
+        <v>33.22046178794712</v>
       </c>
       <c r="G11">
         <v>0</v>
       </c>
       <c r="H11">
-        <v>4.251792669778333</v>
+        <v>7.344005520526261</v>
       </c>
       <c r="I11">
-        <v>12.50457133961266</v>
+        <v>24.12343412451679</v>
       </c>
       <c r="J11">
-        <v>5.175688527586669</v>
+        <v>9.516753825840265</v>
       </c>
       <c r="K11">
         <v>0</v>
       </c>
       <c r="L11">
-        <v>9.130469045953356</v>
+        <v>11.70574246609774</v>
       </c>
       <c r="M11">
         <v>0</v>
@@ -883,7 +883,7 @@
         <v>0</v>
       </c>
       <c r="O11">
-        <v>15.86085199115143</v>
+        <v>25.37114145514664</v>
       </c>
     </row>
     <row r="12" spans="1:15">
@@ -891,37 +891,37 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>31.21915365852751</v>
+        <v>21.74819509582455</v>
       </c>
       <c r="C12">
-        <v>17.0506578573876</v>
+        <v>10.65558005546342</v>
       </c>
       <c r="D12">
-        <v>5.77711316549261</v>
+        <v>8.306630672125367</v>
       </c>
       <c r="E12">
-        <v>6.811264115661802</v>
+        <v>12.23955609640388</v>
       </c>
       <c r="F12">
-        <v>22.48809061196826</v>
+        <v>33.19687360181638</v>
       </c>
       <c r="G12">
         <v>0</v>
       </c>
       <c r="H12">
-        <v>4.251792669778333</v>
+        <v>7.344005520526261</v>
       </c>
       <c r="I12">
-        <v>12.42538104490103</v>
+        <v>24.08504278387185</v>
       </c>
       <c r="J12">
-        <v>5.155908218801597</v>
+        <v>9.510386571330141</v>
       </c>
       <c r="K12">
         <v>0</v>
       </c>
       <c r="L12">
-        <v>9.204234031067465</v>
+        <v>11.71782070112406</v>
       </c>
       <c r="M12">
         <v>0</v>
@@ -930,7 +930,7 @@
         <v>0</v>
       </c>
       <c r="O12">
-        <v>15.89154987553534</v>
+        <v>25.34620657256538</v>
       </c>
     </row>
     <row r="13" spans="1:15">
@@ -938,37 +938,37 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>31.13513962521256</v>
+        <v>21.71302464548928</v>
       </c>
       <c r="C13">
-        <v>17.01015963362606</v>
+        <v>10.63479231789674</v>
       </c>
       <c r="D13">
-        <v>5.769849531490283</v>
+        <v>8.305825444816689</v>
       </c>
       <c r="E13">
-        <v>6.81374860011172</v>
+        <v>12.24127426834506</v>
       </c>
       <c r="F13">
-        <v>22.46822583793728</v>
+        <v>33.20189132640731</v>
       </c>
       <c r="G13">
         <v>0</v>
       </c>
       <c r="H13">
-        <v>4.251792669778333</v>
+        <v>7.344005520526261</v>
       </c>
       <c r="I13">
-        <v>12.44228346965863</v>
+        <v>24.09327302402257</v>
       </c>
       <c r="J13">
-        <v>5.160162383547394</v>
+        <v>9.51175266387312</v>
       </c>
       <c r="K13">
         <v>0</v>
       </c>
       <c r="L13">
-        <v>9.188375358420817</v>
+        <v>11.71521261431787</v>
       </c>
       <c r="M13">
         <v>0</v>
@@ -977,7 +977,7 @@
         <v>0</v>
       </c>
       <c r="O13">
-        <v>15.88474785621719</v>
+        <v>25.35153144160323</v>
       </c>
     </row>
     <row r="14" spans="1:15">
@@ -985,37 +985,37 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>30.8597243936896</v>
+        <v>21.59793323374789</v>
       </c>
       <c r="C14">
-        <v>16.87747355363558</v>
+        <v>10.5666847850994</v>
       </c>
       <c r="D14">
-        <v>5.746146167838088</v>
+        <v>8.303217794804791</v>
       </c>
       <c r="E14">
-        <v>6.821940978826298</v>
+        <v>12.24691368864819</v>
       </c>
       <c r="F14">
-        <v>22.40427951494368</v>
+        <v>33.21849305850456</v>
       </c>
       <c r="G14">
         <v>0</v>
       </c>
       <c r="H14">
-        <v>4.251792669778333</v>
+        <v>7.344005520526261</v>
       </c>
       <c r="I14">
-        <v>12.4979880673479</v>
+        <v>24.1202585128345</v>
       </c>
       <c r="J14">
-        <v>5.174058524818021</v>
+        <v>9.516227639609649</v>
       </c>
       <c r="K14">
         <v>0</v>
       </c>
       <c r="L14">
-        <v>9.136550266357911</v>
+        <v>11.70673306672036</v>
       </c>
       <c r="M14">
         <v>0</v>
@@ -1024,7 +1024,7 @@
         <v>0</v>
       </c>
       <c r="O14">
-        <v>15.86329192729656</v>
+        <v>25.3690696395526</v>
       </c>
     </row>
     <row r="15" spans="1:15">
@@ -1032,37 +1032,37 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>30.68992598845747</v>
+        <v>21.527136588841</v>
       </c>
       <c r="C15">
-        <v>16.7957287481092</v>
+        <v>10.52472620372478</v>
       </c>
       <c r="D15">
-        <v>5.731615942118243</v>
+        <v>8.301634681454638</v>
       </c>
       <c r="E15">
-        <v>6.827027792693184</v>
+        <v>12.25039573586874</v>
       </c>
       <c r="F15">
-        <v>22.36575111585514</v>
+        <v>33.22884474098324</v>
       </c>
       <c r="G15">
         <v>0</v>
       </c>
       <c r="H15">
-        <v>4.251792669778333</v>
+        <v>7.344005520526261</v>
       </c>
       <c r="I15">
-        <v>12.53254939060546</v>
+        <v>24.13689923136718</v>
       </c>
       <c r="J15">
-        <v>5.182587710903757</v>
+        <v>9.518983955311782</v>
       </c>
       <c r="K15">
         <v>0</v>
       </c>
       <c r="L15">
-        <v>9.10472478308982</v>
+        <v>11.70155917705193</v>
       </c>
       <c r="M15">
         <v>0</v>
@@ -1071,7 +1071,7 @@
         <v>0</v>
       </c>
       <c r="O15">
-        <v>15.85070405175928</v>
+        <v>25.37994486464943</v>
       </c>
     </row>
     <row r="16" spans="1:15">
@@ -1079,37 +1079,37 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>29.6999621328529</v>
+        <v>21.11692354978569</v>
       </c>
       <c r="C16">
-        <v>16.32006737900025</v>
+        <v>10.28061821397764</v>
       </c>
       <c r="D16">
-        <v>5.648191941218257</v>
+        <v>8.292780599729193</v>
       </c>
       <c r="E16">
-        <v>6.857217270639292</v>
+        <v>12.27077546859626</v>
       </c>
       <c r="F16">
-        <v>22.15466761346023</v>
+        <v>33.29096044843551</v>
       </c>
       <c r="G16">
         <v>0</v>
       </c>
       <c r="H16">
-        <v>4.251792669778333</v>
+        <v>7.344005520526261</v>
       </c>
       <c r="I16">
-        <v>12.73709541942669</v>
+        <v>24.23396657297814</v>
       </c>
       <c r="J16">
-        <v>5.231739684676553</v>
+        <v>9.535013650971047</v>
       </c>
       <c r="K16">
         <v>0</v>
       </c>
       <c r="L16">
-        <v>8.92113405248946</v>
+        <v>11.67222181789647</v>
       </c>
       <c r="M16">
         <v>0</v>
@@ -1118,7 +1118,7 @@
         <v>0</v>
       </c>
       <c r="O16">
-        <v>15.78689626353061</v>
+        <v>25.44429466035603</v>
       </c>
     </row>
     <row r="17" spans="1:15">
@@ -1126,37 +1126,37 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>29.07747042959418</v>
+        <v>20.86135177960088</v>
       </c>
       <c r="C17">
-        <v>16.02183003789301</v>
+        <v>10.12763408288378</v>
       </c>
       <c r="D17">
-        <v>5.596890724544815</v>
+        <v>8.287544870600696</v>
       </c>
       <c r="E17">
-        <v>6.876649110360757</v>
+        <v>12.28365787117873</v>
       </c>
       <c r="F17">
-        <v>22.03371111635269</v>
+        <v>33.33155437197452</v>
       </c>
       <c r="G17">
         <v>0</v>
       </c>
       <c r="H17">
-        <v>4.251792669778333</v>
+        <v>7.344005520526261</v>
       </c>
       <c r="I17">
-        <v>12.86809446209194</v>
+        <v>24.2950364149105</v>
       </c>
       <c r="J17">
-        <v>5.262146395633112</v>
+        <v>9.545056926354301</v>
       </c>
       <c r="K17">
         <v>0</v>
       </c>
       <c r="L17">
-        <v>8.807462320835889</v>
+        <v>11.65450750014817</v>
       </c>
       <c r="M17">
         <v>0</v>
@@ -1165,7 +1165,7 @@
         <v>0</v>
       </c>
       <c r="O17">
-        <v>15.75499533397427</v>
+        <v>25.48557701027178</v>
       </c>
     </row>
     <row r="18" spans="1:15">
@@ -1173,37 +1173,37 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>28.71381746719688</v>
+        <v>20.71295533514545</v>
       </c>
       <c r="C18">
-        <v>15.84792989765047</v>
+        <v>10.03846851759511</v>
       </c>
       <c r="D18">
-        <v>5.567345283936503</v>
+        <v>8.284605959948662</v>
       </c>
       <c r="E18">
-        <v>6.888154789182471</v>
+        <v>12.29120732814401</v>
       </c>
       <c r="F18">
-        <v>21.96722542169724</v>
+        <v>33.35581499631778</v>
       </c>
       <c r="G18">
         <v>0</v>
       </c>
       <c r="H18">
-        <v>4.251792669778333</v>
+        <v>7.344005520526261</v>
       </c>
       <c r="I18">
-        <v>12.94536625286954</v>
+        <v>24.33072149140852</v>
       </c>
       <c r="J18">
-        <v>5.279732001434859</v>
+        <v>9.550910749541078</v>
       </c>
       <c r="K18">
         <v>0</v>
       </c>
       <c r="L18">
-        <v>8.741712789995573</v>
+        <v>11.64442461047141</v>
       </c>
       <c r="M18">
         <v>0</v>
@@ -1212,7 +1212,7 @@
         <v>0</v>
       </c>
       <c r="O18">
-        <v>15.73923283689646</v>
+        <v>25.5099835590044</v>
       </c>
     </row>
     <row r="19" spans="1:15">
@@ -1220,37 +1220,37 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>28.58972380251701</v>
+        <v>20.66247484307321</v>
       </c>
       <c r="C19">
-        <v>15.78864503030688</v>
+        <v>10.0080785674701</v>
       </c>
       <c r="D19">
-        <v>5.557335805708781</v>
+        <v>8.2836234036709</v>
       </c>
       <c r="E19">
-        <v>6.892106365720061</v>
+        <v>12.29378747697715</v>
       </c>
       <c r="F19">
-        <v>21.94523929679062</v>
+        <v>33.36418566020669</v>
       </c>
       <c r="G19">
         <v>0</v>
       </c>
       <c r="H19">
-        <v>4.251792669778333</v>
+        <v>7.344005520526261</v>
       </c>
       <c r="I19">
-        <v>12.9718504733119</v>
+        <v>24.34289990296446</v>
       </c>
       <c r="J19">
-        <v>5.285703058598896</v>
+        <v>9.552906029073828</v>
       </c>
       <c r="K19">
         <v>0</v>
       </c>
       <c r="L19">
-        <v>8.719389374744429</v>
+        <v>11.64102908127459</v>
       </c>
       <c r="M19">
         <v>0</v>
@@ -1259,7 +1259,7 @@
         <v>0</v>
       </c>
       <c r="O19">
-        <v>15.73433281151417</v>
+        <v>25.51836074916329</v>
       </c>
     </row>
     <row r="20" spans="1:15">
@@ -1267,37 +1267,37 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>29.14431583148449</v>
+        <v>20.88870352914701</v>
       </c>
       <c r="C20">
-        <v>16.05382244530981</v>
+        <v>10.14404126307694</v>
       </c>
       <c r="D20">
-        <v>5.602355955787263</v>
+        <v>8.288094726798747</v>
       </c>
       <c r="E20">
-        <v>6.87454637503901</v>
+        <v>12.282272048064</v>
       </c>
       <c r="F20">
-        <v>22.04626662439259</v>
+        <v>33.32713863217814</v>
       </c>
       <c r="G20">
         <v>0</v>
       </c>
       <c r="H20">
-        <v>4.251792669778333</v>
+        <v>7.344005520526261</v>
       </c>
       <c r="I20">
-        <v>12.85394797459359</v>
+        <v>24.28847753712081</v>
       </c>
       <c r="J20">
-        <v>5.258899637885174</v>
+        <v>9.54397981698761</v>
       </c>
       <c r="K20">
         <v>0</v>
       </c>
       <c r="L20">
-        <v>8.819601377090306</v>
+        <v>11.65638229863064</v>
       </c>
       <c r="M20">
         <v>0</v>
@@ -1306,7 +1306,7 @@
         <v>0</v>
       </c>
       <c r="O20">
-        <v>15.758121869567</v>
+        <v>25.4811138794187</v>
       </c>
     </row>
     <row r="21" spans="1:15">
@@ -1314,37 +1314,37 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>30.94084928512551</v>
+        <v>21.631801064858</v>
       </c>
       <c r="C21">
-        <v>16.91654477253998</v>
+        <v>10.58673985928062</v>
       </c>
       <c r="D21">
-        <v>5.753110795883522</v>
+        <v>8.303980779516142</v>
       </c>
       <c r="E21">
-        <v>6.819520316464065</v>
+        <v>12.24525147418075</v>
       </c>
       <c r="F21">
-        <v>22.42292834624987</v>
+        <v>33.21357865302384</v>
       </c>
       <c r="G21">
         <v>0</v>
       </c>
       <c r="H21">
-        <v>4.251792669778333</v>
+        <v>7.344005520526261</v>
       </c>
       <c r="I21">
-        <v>12.48153379221771</v>
+        <v>24.11230901947834</v>
       </c>
       <c r="J21">
-        <v>5.169973284886945</v>
+        <v>9.514910050770844</v>
       </c>
       <c r="K21">
         <v>0</v>
       </c>
       <c r="L21">
-        <v>9.151789529757911</v>
+        <v>11.70921954166615</v>
       </c>
       <c r="M21">
         <v>0</v>
@@ -1353,7 +1353,7 @@
         <v>0</v>
       </c>
       <c r="O21">
-        <v>15.86947809135545</v>
+        <v>25.36389060886549</v>
       </c>
     </row>
     <row r="22" spans="1:15">
@@ -1361,37 +1361,37 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>32.06572597965999</v>
+        <v>22.10414843704795</v>
       </c>
       <c r="C22">
-        <v>17.45931897790479</v>
+        <v>10.86533099663499</v>
       </c>
       <c r="D22">
-        <v>5.851153483837381</v>
+        <v>8.314997874977479</v>
       </c>
       <c r="E22">
-        <v>6.786618091430858</v>
+        <v>12.22229835810298</v>
       </c>
       <c r="F22">
-        <v>22.6976332411614</v>
+        <v>33.14752931260676</v>
       </c>
       <c r="G22">
         <v>0</v>
       </c>
       <c r="H22">
-        <v>4.251792669778333</v>
+        <v>7.344005520526261</v>
       </c>
       <c r="I22">
-        <v>12.25757709324051</v>
+        <v>24.00215523971771</v>
       </c>
       <c r="J22">
-        <v>5.112642433029492</v>
+        <v>9.49659493059257</v>
       </c>
       <c r="K22">
         <v>0</v>
       </c>
       <c r="L22">
-        <v>9.365302902984389</v>
+        <v>11.74465537468627</v>
       </c>
       <c r="M22">
         <v>0</v>
@@ -1400,7 +1400,7 @@
         <v>0</v>
       </c>
       <c r="O22">
-        <v>15.96687166081901</v>
+        <v>25.29320774303746</v>
       </c>
     </row>
     <row r="23" spans="1:15">
@@ -1408,37 +1408,37 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>31.46983033799773</v>
+        <v>21.85330431492731</v>
       </c>
       <c r="C23">
-        <v>17.17155705922828</v>
+        <v>10.71763690784692</v>
       </c>
       <c r="D23">
-        <v>5.798877054218469</v>
+        <v>8.309060335511633</v>
       </c>
       <c r="E23">
-        <v>6.803891985516137</v>
+        <v>12.23443538571989</v>
       </c>
       <c r="F23">
-        <v>22.54835902232209</v>
+        <v>33.18203145883851</v>
       </c>
       <c r="G23">
         <v>0</v>
       </c>
       <c r="H23">
-        <v>4.251792669778333</v>
+        <v>7.344005520526261</v>
       </c>
       <c r="I23">
-        <v>12.37520735437863</v>
+        <v>24.06049036950441</v>
       </c>
       <c r="J23">
-        <v>5.143172508480037</v>
+        <v>9.506307682613393</v>
       </c>
       <c r="K23">
         <v>0</v>
       </c>
       <c r="L23">
-        <v>9.251688823991566</v>
+        <v>11.72566186806246</v>
       </c>
       <c r="M23">
         <v>0</v>
@@ -1447,7 +1447,7 @@
         <v>0</v>
       </c>
       <c r="O23">
-        <v>15.9125635643784</v>
+        <v>25.33038834964425</v>
       </c>
     </row>
     <row r="24" spans="1:15">
@@ -1455,37 +1455,37 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>29.11411301843841</v>
+        <v>20.87634235589023</v>
       </c>
       <c r="C24">
-        <v>16.03936627583765</v>
+        <v>10.13662735161574</v>
       </c>
       <c r="D24">
-        <v>5.599885284093538</v>
+        <v>8.287845914984567</v>
       </c>
       <c r="E24">
-        <v>6.875495982584787</v>
+        <v>12.28289813263023</v>
       </c>
       <c r="F24">
-        <v>22.04058077948497</v>
+        <v>33.32913211468014</v>
       </c>
       <c r="G24">
         <v>0</v>
       </c>
       <c r="H24">
-        <v>4.251792669778333</v>
+        <v>7.344005520526261</v>
       </c>
       <c r="I24">
-        <v>12.86033752489645</v>
+        <v>24.29144101399554</v>
       </c>
       <c r="J24">
-        <v>5.260367171160649</v>
+        <v>9.544466529482953</v>
       </c>
       <c r="K24">
         <v>0</v>
       </c>
       <c r="L24">
-        <v>8.814114546242005</v>
+        <v>11.65553438624504</v>
       </c>
       <c r="M24">
         <v>0</v>
@@ -1494,7 +1494,7 @@
         <v>0</v>
       </c>
       <c r="O24">
-        <v>15.75670035150082</v>
+        <v>25.48312956556329</v>
       </c>
     </row>
     <row r="25" spans="1:15">
@@ -1502,37 +1502,37 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>26.35812390922944</v>
+        <v>19.76972465227891</v>
       </c>
       <c r="C25">
-        <v>14.72794654747827</v>
+        <v>9.465311364035921</v>
       </c>
       <c r="D25">
-        <v>5.383878682274916</v>
+        <v>8.26774210946826</v>
       </c>
       <c r="E25">
-        <v>6.965245690355279</v>
+        <v>12.34052151164507</v>
       </c>
       <c r="F25">
-        <v>21.61001280877681</v>
+        <v>33.52264338063226</v>
       </c>
       <c r="G25">
         <v>0</v>
       </c>
       <c r="H25">
-        <v>4.251792669778333</v>
+        <v>7.344005520526261</v>
       </c>
       <c r="I25">
-        <v>13.45627784626862</v>
+        <v>24.56194308863829</v>
       </c>
       <c r="J25">
-        <v>5.390505583965323</v>
+        <v>9.588580795133092</v>
       </c>
       <c r="K25">
         <v>0</v>
       </c>
       <c r="L25">
-        <v>8.328285418625761</v>
+        <v>11.58396128793384</v>
       </c>
       <c r="M25">
         <v>0</v>
@@ -1541,7 +1541,7 @@
         <v>0</v>
       </c>
       <c r="O25">
-        <v>15.68642656115868</v>
+        <v>25.67317611036766</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_5_9/res_line/loading_percent.xlsx
+++ b/Code/Results/Cases/Case_5_9/res_line/loading_percent.xlsx
@@ -421,37 +421,37 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>18.91491841113828</v>
+        <v>24.13997182844908</v>
       </c>
       <c r="C2">
-        <v>8.934646501143071</v>
+        <v>13.68555941304403</v>
       </c>
       <c r="D2">
-        <v>8.255381932655309</v>
+        <v>5.224514808835658</v>
       </c>
       <c r="E2">
-        <v>12.38757432589048</v>
+        <v>7.041466551349217</v>
       </c>
       <c r="F2">
-        <v>33.69482902560704</v>
+        <v>21.38680860400868</v>
       </c>
       <c r="G2">
         <v>0</v>
       </c>
       <c r="H2">
-        <v>7.344005520526261</v>
+        <v>4.251792669784106</v>
       </c>
       <c r="I2">
-        <v>24.77953575933526</v>
+        <v>13.94773125311376</v>
       </c>
       <c r="J2">
-        <v>9.623628999666686</v>
+        <v>5.489900393567593</v>
       </c>
       <c r="K2">
         <v>0</v>
       </c>
       <c r="L2">
-        <v>11.53494986194546</v>
+        <v>7.960725259097141</v>
       </c>
       <c r="M2">
         <v>0</v>
@@ -460,7 +460,7 @@
         <v>0</v>
       </c>
       <c r="O2">
-        <v>25.83468950717293</v>
+        <v>15.70977017227836</v>
       </c>
     </row>
     <row r="3" spans="1:15">
@@ -468,37 +468,37 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>18.31392817680905</v>
+        <v>22.51688189433113</v>
       </c>
       <c r="C3">
-        <v>8.553639185446569</v>
+        <v>12.93209561407523</v>
       </c>
       <c r="D3">
-        <v>8.248553358349813</v>
+        <v>5.116799005549638</v>
       </c>
       <c r="E3">
-        <v>12.42236024627984</v>
+        <v>7.099164269638723</v>
       </c>
       <c r="F3">
-        <v>33.82991092919632</v>
+        <v>21.29002178973691</v>
       </c>
       <c r="G3">
         <v>0</v>
       </c>
       <c r="H3">
-        <v>7.344005520526261</v>
+        <v>4.251792669778333</v>
       </c>
       <c r="I3">
-        <v>24.93851085218981</v>
+        <v>14.30973498237894</v>
       </c>
       <c r="J3">
-        <v>9.648996252664226</v>
+        <v>5.559662106951373</v>
       </c>
       <c r="K3">
         <v>0</v>
       </c>
       <c r="L3">
-        <v>11.50412389053931</v>
+        <v>7.706771278637321</v>
       </c>
       <c r="M3">
         <v>0</v>
@@ -507,7 +507,7 @@
         <v>0</v>
       </c>
       <c r="O3">
-        <v>25.95752624055027</v>
+        <v>15.76771529276552</v>
       </c>
     </row>
     <row r="4" spans="1:15">
@@ -515,37 +515,37 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>17.93549525465857</v>
+        <v>21.46055402777284</v>
       </c>
       <c r="C4">
-        <v>8.30971540045657</v>
+        <v>12.44675115057786</v>
       </c>
       <c r="D4">
-        <v>8.245132061207565</v>
+        <v>5.050978342797626</v>
       </c>
       <c r="E4">
-        <v>12.4451525064107</v>
+        <v>7.137485320460348</v>
       </c>
       <c r="F4">
-        <v>33.9218742675852</v>
+        <v>21.25597124198315</v>
       </c>
       <c r="G4">
         <v>0</v>
       </c>
       <c r="H4">
-        <v>7.344005520526261</v>
+        <v>4.251792669778333</v>
       </c>
       <c r="I4">
-        <v>25.04180605976789</v>
+        <v>14.54522201125623</v>
       </c>
       <c r="J4">
-        <v>9.665372723096111</v>
+        <v>5.603733052208647</v>
       </c>
       <c r="K4">
         <v>0</v>
       </c>
       <c r="L4">
-        <v>11.48640380535896</v>
+        <v>7.548953238297932</v>
       </c>
       <c r="M4">
         <v>0</v>
@@ -554,7 +554,7 @@
         <v>0</v>
       </c>
       <c r="O4">
-        <v>26.03951817855526</v>
+        <v>15.82248981071074</v>
       </c>
     </row>
     <row r="5" spans="1:15">
@@ -562,37 +562,37 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>17.77912295581072</v>
+        <v>21.01497711702433</v>
       </c>
       <c r="C5">
-        <v>8.207902639933264</v>
+        <v>12.2433561824686</v>
       </c>
       <c r="D5">
-        <v>8.243933060137239</v>
+        <v>5.024263485636545</v>
       </c>
       <c r="E5">
-        <v>12.45480160939264</v>
+        <v>7.153817202705199</v>
       </c>
       <c r="F5">
-        <v>33.96161145667689</v>
+        <v>21.24824059462734</v>
       </c>
       <c r="G5">
         <v>0</v>
       </c>
       <c r="H5">
-        <v>7.344005520526261</v>
+        <v>4.251792669778333</v>
       </c>
       <c r="I5">
-        <v>25.08532968212033</v>
+        <v>14.64437061004787</v>
       </c>
       <c r="J5">
-        <v>9.672248260332472</v>
+        <v>5.622010660096113</v>
       </c>
       <c r="K5">
         <v>0</v>
       </c>
       <c r="L5">
-        <v>11.47949057106102</v>
+        <v>7.484250340515906</v>
       </c>
       <c r="M5">
         <v>0</v>
@@ -601,7 +601,7 @@
         <v>0</v>
       </c>
       <c r="O5">
-        <v>26.07457817576494</v>
+        <v>15.84940335647292</v>
       </c>
     </row>
     <row r="6" spans="1:15">
@@ -609,37 +609,37 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>17.75303366025093</v>
+        <v>20.9400738553758</v>
       </c>
       <c r="C6">
-        <v>8.190854204261591</v>
+        <v>12.20924697755983</v>
       </c>
       <c r="D6">
-        <v>8.243745791017277</v>
+        <v>5.019834827521792</v>
       </c>
       <c r="E6">
-        <v>12.45642566087164</v>
+        <v>7.156571988592584</v>
       </c>
       <c r="F6">
-        <v>33.96834614808441</v>
+        <v>21.24732094705382</v>
       </c>
       <c r="G6">
         <v>0</v>
       </c>
       <c r="H6">
-        <v>7.344005520526261</v>
+        <v>4.251792669778333</v>
       </c>
       <c r="I6">
-        <v>25.09264313726559</v>
+        <v>14.66102289565209</v>
       </c>
       <c r="J6">
-        <v>9.673402155735605</v>
+        <v>5.625065077291674</v>
       </c>
       <c r="K6">
         <v>0</v>
       </c>
       <c r="L6">
-        <v>11.47836134776432</v>
+        <v>7.473485466950682</v>
       </c>
       <c r="M6">
         <v>0</v>
@@ -648,7 +648,7 @@
         <v>0</v>
       </c>
       <c r="O6">
-        <v>26.08049924515172</v>
+        <v>15.8541428916352</v>
       </c>
     </row>
     <row r="7" spans="1:15">
@@ -656,37 +656,37 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>17.93339480742511</v>
+        <v>21.45460614171686</v>
       </c>
       <c r="C7">
-        <v>8.308351942563956</v>
+        <v>12.44403067314017</v>
       </c>
       <c r="D7">
-        <v>8.245115099118925</v>
+        <v>5.050617584011595</v>
       </c>
       <c r="E7">
-        <v>12.44528117483152</v>
+        <v>7.137702695351312</v>
       </c>
       <c r="F7">
-        <v>33.92240103093035</v>
+        <v>21.25584242277345</v>
       </c>
       <c r="G7">
         <v>0</v>
       </c>
       <c r="H7">
-        <v>7.344005520526261</v>
+        <v>4.251792669778333</v>
       </c>
       <c r="I7">
-        <v>25.04238724358961</v>
+        <v>14.54654643335188</v>
       </c>
       <c r="J7">
-        <v>9.665464630331805</v>
+        <v>5.603978252044386</v>
       </c>
       <c r="K7">
         <v>0</v>
       </c>
       <c r="L7">
-        <v>11.48630931911156</v>
+        <v>7.548082098245197</v>
       </c>
       <c r="M7">
         <v>0</v>
@@ -695,7 +695,7 @@
         <v>0</v>
       </c>
       <c r="O7">
-        <v>26.03998434463245</v>
+        <v>15.82283448966194</v>
       </c>
     </row>
     <row r="8" spans="1:15">
@@ -703,37 +703,37 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>18.70977401060528</v>
+        <v>23.59267478810398</v>
       </c>
       <c r="C8">
-        <v>8.805402187622301</v>
+        <v>13.43053094011506</v>
       </c>
       <c r="D8">
-        <v>8.252868063862104</v>
+        <v>5.18732500521197</v>
       </c>
       <c r="E8">
-        <v>12.39927133039408</v>
+        <v>7.060752500258785</v>
       </c>
       <c r="F8">
-        <v>33.73952826208895</v>
+        <v>21.34803160458183</v>
       </c>
       <c r="G8">
         <v>0</v>
       </c>
       <c r="H8">
-        <v>7.344005520526261</v>
+        <v>4.251792669778333</v>
       </c>
       <c r="I8">
-        <v>24.83317111780618</v>
+        <v>14.06971879202542</v>
       </c>
       <c r="J8">
-        <v>9.632209772939254</v>
+        <v>5.513701996679115</v>
       </c>
       <c r="K8">
         <v>0</v>
       </c>
       <c r="L8">
-        <v>11.52407314941284</v>
+        <v>7.8736024863627</v>
       </c>
       <c r="M8">
         <v>0</v>
@@ -742,7 +742,7 @@
         <v>0</v>
       </c>
       <c r="O8">
-        <v>25.8756774466936</v>
+        <v>15.7256239864595</v>
       </c>
     </row>
     <row r="9" spans="1:15">
@@ -750,37 +750,37 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>20.14910027797533</v>
+        <v>27.31556538852507</v>
       </c>
       <c r="C9">
-        <v>9.697246936767856</v>
+        <v>15.18170721811122</v>
       </c>
       <c r="D9">
-        <v>8.274138136974305</v>
+        <v>5.456751320715819</v>
       </c>
       <c r="E9">
-        <v>12.32039421649977</v>
+        <v>6.933398733637032</v>
       </c>
       <c r="F9">
-        <v>33.452826637689</v>
+        <v>21.73997805762023</v>
       </c>
       <c r="G9">
         <v>0</v>
       </c>
       <c r="H9">
-        <v>7.344005520526261</v>
+        <v>4.251792669778333</v>
       </c>
       <c r="I9">
-        <v>24.46796438094947</v>
+        <v>13.24676534289417</v>
       </c>
       <c r="J9">
-        <v>9.573323843198493</v>
+        <v>5.346136770194819</v>
       </c>
       <c r="K9">
         <v>0</v>
       </c>
       <c r="L9">
-        <v>11.60751024282115</v>
+        <v>8.493620157934087</v>
       </c>
       <c r="M9">
         <v>0</v>
@@ -789,7 +789,7 @@
         <v>0</v>
       </c>
       <c r="O9">
-        <v>25.60579458203549</v>
+        <v>15.69781559260502</v>
       </c>
     </row>
     <row r="10" spans="1:15">
@@ -797,37 +797,37 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>21.14589348913665</v>
+        <v>29.77023469429202</v>
       </c>
       <c r="C10">
-        <v>10.29791472249729</v>
+        <v>16.35377804673891</v>
       </c>
       <c r="D10">
-        <v>8.293387824673225</v>
+        <v>5.654040059081343</v>
       </c>
       <c r="E10">
-        <v>12.26932443426507</v>
+        <v>6.855044972607946</v>
       </c>
       <c r="F10">
-        <v>33.28645215165197</v>
+        <v>22.16889147553544</v>
       </c>
       <c r="G10">
         <v>0</v>
       </c>
       <c r="H10">
-        <v>7.344005520526261</v>
+        <v>4.251792669778333</v>
       </c>
       <c r="I10">
-        <v>24.22707387350372</v>
+        <v>12.72241557642766</v>
       </c>
       <c r="J10">
-        <v>9.533878090855417</v>
+        <v>5.228282903816433</v>
       </c>
       <c r="K10">
         <v>0</v>
       </c>
       <c r="L10">
-        <v>11.67425736422484</v>
+        <v>8.934053703739496</v>
       </c>
       <c r="M10">
         <v>0</v>
@@ -836,7 +836,7 @@
         <v>0</v>
       </c>
       <c r="O10">
-        <v>25.4396738810175</v>
+        <v>15.79089232111246</v>
       </c>
     </row>
     <row r="11" spans="1:15">
@@ -844,37 +844,37 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>21.58441245985476</v>
+        <v>30.82731897079418</v>
       </c>
       <c r="C11">
-        <v>10.55867527605919</v>
+        <v>16.86186936766443</v>
       </c>
       <c r="D11">
-        <v>8.302914214878539</v>
+        <v>5.743368197923813</v>
       </c>
       <c r="E11">
-        <v>12.24757791702846</v>
+        <v>6.82290966813787</v>
       </c>
       <c r="F11">
-        <v>33.22046178794712</v>
+        <v>22.3968738012534</v>
       </c>
       <c r="G11">
         <v>0</v>
       </c>
       <c r="H11">
-        <v>7.344005520526261</v>
+        <v>4.251792669778333</v>
       </c>
       <c r="I11">
-        <v>24.12343412451679</v>
+        <v>12.50457133961272</v>
       </c>
       <c r="J11">
-        <v>9.516753825840265</v>
+        <v>5.17568852758647</v>
       </c>
       <c r="K11">
         <v>0</v>
       </c>
       <c r="L11">
-        <v>11.70574246609774</v>
+        <v>9.1304690459533</v>
       </c>
       <c r="M11">
         <v>0</v>
@@ -883,7 +883,7 @@
         <v>0</v>
       </c>
       <c r="O11">
-        <v>25.37114145514664</v>
+        <v>15.86085199115154</v>
       </c>
     </row>
     <row r="12" spans="1:15">
@@ -891,37 +891,37 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>21.74819509582455</v>
+        <v>31.21915365852747</v>
       </c>
       <c r="C12">
-        <v>10.65558005546342</v>
+        <v>17.0506578573876</v>
       </c>
       <c r="D12">
-        <v>8.306630672125367</v>
+        <v>5.777113165492609</v>
       </c>
       <c r="E12">
-        <v>12.23955609640388</v>
+        <v>6.81126411566175</v>
       </c>
       <c r="F12">
-        <v>33.19687360181638</v>
+        <v>22.48809061196836</v>
       </c>
       <c r="G12">
         <v>0</v>
       </c>
       <c r="H12">
-        <v>7.344005520526261</v>
+        <v>4.251792669778333</v>
       </c>
       <c r="I12">
-        <v>24.08504278387185</v>
+        <v>12.42538104490115</v>
       </c>
       <c r="J12">
-        <v>9.510386571330141</v>
+        <v>5.155908218801565</v>
       </c>
       <c r="K12">
         <v>0</v>
       </c>
       <c r="L12">
-        <v>11.71782070112406</v>
+        <v>9.204234031067426</v>
       </c>
       <c r="M12">
         <v>0</v>
@@ -930,7 +930,7 @@
         <v>0</v>
       </c>
       <c r="O12">
-        <v>25.34620657256538</v>
+        <v>15.89154987553541</v>
       </c>
     </row>
     <row r="13" spans="1:15">
@@ -938,37 +938,37 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>21.71302464548928</v>
+        <v>31.1351396252126</v>
       </c>
       <c r="C13">
-        <v>10.63479231789674</v>
+        <v>17.01015963362613</v>
       </c>
       <c r="D13">
-        <v>8.305825444816689</v>
+        <v>5.769849531490217</v>
       </c>
       <c r="E13">
-        <v>12.24127426834506</v>
+        <v>6.813748600111677</v>
       </c>
       <c r="F13">
-        <v>33.20189132640731</v>
+        <v>22.46822583793714</v>
       </c>
       <c r="G13">
         <v>0</v>
       </c>
       <c r="H13">
-        <v>7.344005520526261</v>
+        <v>4.251792669778333</v>
       </c>
       <c r="I13">
-        <v>24.09327302402257</v>
+        <v>12.44228346965853</v>
       </c>
       <c r="J13">
-        <v>9.51175266387312</v>
+        <v>5.160162383547327</v>
       </c>
       <c r="K13">
         <v>0</v>
       </c>
       <c r="L13">
-        <v>11.71521261431787</v>
+        <v>9.188375358420723</v>
       </c>
       <c r="M13">
         <v>0</v>
@@ -977,7 +977,7 @@
         <v>0</v>
       </c>
       <c r="O13">
-        <v>25.35153144160323</v>
+        <v>15.88474785621711</v>
       </c>
     </row>
     <row r="14" spans="1:15">
@@ -985,37 +985,37 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>21.59793323374789</v>
+        <v>30.8597243936896</v>
       </c>
       <c r="C14">
-        <v>10.5666847850994</v>
+        <v>16.87747355363566</v>
       </c>
       <c r="D14">
-        <v>8.303217794804791</v>
+        <v>5.746146167837997</v>
       </c>
       <c r="E14">
-        <v>12.24691368864819</v>
+        <v>6.821940978826073</v>
       </c>
       <c r="F14">
-        <v>33.21849305850456</v>
+        <v>22.40427951494351</v>
       </c>
       <c r="G14">
         <v>0</v>
       </c>
       <c r="H14">
-        <v>7.344005520526261</v>
+        <v>4.251792669778333</v>
       </c>
       <c r="I14">
-        <v>24.1202585128345</v>
+        <v>12.49798806734774</v>
       </c>
       <c r="J14">
-        <v>9.516227639609649</v>
+        <v>5.174058524817887</v>
       </c>
       <c r="K14">
         <v>0</v>
       </c>
       <c r="L14">
-        <v>11.70673306672036</v>
+        <v>9.136550266357823</v>
       </c>
       <c r="M14">
         <v>0</v>
@@ -1024,7 +1024,7 @@
         <v>0</v>
       </c>
       <c r="O14">
-        <v>25.3690696395526</v>
+        <v>15.86329192729642</v>
       </c>
     </row>
     <row r="15" spans="1:15">
@@ -1032,37 +1032,37 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>21.527136588841</v>
+        <v>30.68992598845756</v>
       </c>
       <c r="C15">
-        <v>10.52472620372478</v>
+        <v>16.79572874810917</v>
       </c>
       <c r="D15">
-        <v>8.301634681454638</v>
+        <v>5.731615942118218</v>
       </c>
       <c r="E15">
-        <v>12.25039573586874</v>
+        <v>6.827027792693012</v>
       </c>
       <c r="F15">
-        <v>33.22884474098324</v>
+        <v>22.36575111585499</v>
       </c>
       <c r="G15">
         <v>0</v>
       </c>
       <c r="H15">
-        <v>7.344005520526261</v>
+        <v>4.251792669778333</v>
       </c>
       <c r="I15">
-        <v>24.13689923136718</v>
+        <v>12.5325493906053</v>
       </c>
       <c r="J15">
-        <v>9.518983955311782</v>
+        <v>5.182587710903658</v>
       </c>
       <c r="K15">
         <v>0</v>
       </c>
       <c r="L15">
-        <v>11.70155917705193</v>
+        <v>9.104724783089781</v>
       </c>
       <c r="M15">
         <v>0</v>
@@ -1071,7 +1071,7 @@
         <v>0</v>
       </c>
       <c r="O15">
-        <v>25.37994486464943</v>
+        <v>15.85070405175916</v>
       </c>
     </row>
     <row r="16" spans="1:15">
@@ -1079,37 +1079,37 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>21.11692354978569</v>
+        <v>29.69996213285286</v>
       </c>
       <c r="C16">
-        <v>10.28061821397764</v>
+        <v>16.32006737900032</v>
       </c>
       <c r="D16">
-        <v>8.292780599729193</v>
+        <v>5.6481919412183</v>
       </c>
       <c r="E16">
-        <v>12.27077546859626</v>
+        <v>6.857217270639299</v>
       </c>
       <c r="F16">
-        <v>33.29096044843551</v>
+        <v>22.15466761346028</v>
       </c>
       <c r="G16">
         <v>0</v>
       </c>
       <c r="H16">
-        <v>7.344005520526261</v>
+        <v>4.251792669778333</v>
       </c>
       <c r="I16">
-        <v>24.23396657297814</v>
+        <v>12.73709541942672</v>
       </c>
       <c r="J16">
-        <v>9.535013650971047</v>
+        <v>5.231739684676487</v>
       </c>
       <c r="K16">
         <v>0</v>
       </c>
       <c r="L16">
-        <v>11.67222181789647</v>
+        <v>8.921134052489432</v>
       </c>
       <c r="M16">
         <v>0</v>
@@ -1118,7 +1118,7 @@
         <v>0</v>
       </c>
       <c r="O16">
-        <v>25.44429466035603</v>
+        <v>15.78689626353061</v>
       </c>
     </row>
     <row r="17" spans="1:15">
@@ -1126,37 +1126,37 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>20.86135177960088</v>
+        <v>29.07747042959419</v>
       </c>
       <c r="C17">
-        <v>10.12763408288378</v>
+        <v>16.02183003789303</v>
       </c>
       <c r="D17">
-        <v>8.287544870600696</v>
+        <v>5.596890724544648</v>
       </c>
       <c r="E17">
-        <v>12.28365787117873</v>
+        <v>6.876649110360591</v>
       </c>
       <c r="F17">
-        <v>33.33155437197452</v>
+        <v>22.03371111635268</v>
       </c>
       <c r="G17">
         <v>0</v>
       </c>
       <c r="H17">
-        <v>7.344005520526261</v>
+        <v>4.251792669778333</v>
       </c>
       <c r="I17">
-        <v>24.2950364149105</v>
+        <v>12.86809446209201</v>
       </c>
       <c r="J17">
-        <v>9.545056926354301</v>
+        <v>5.262146395633048</v>
       </c>
       <c r="K17">
         <v>0</v>
       </c>
       <c r="L17">
-        <v>11.65450750014817</v>
+        <v>8.807462320835777</v>
       </c>
       <c r="M17">
         <v>0</v>
@@ -1165,7 +1165,7 @@
         <v>0</v>
       </c>
       <c r="O17">
-        <v>25.48557701027178</v>
+        <v>15.75499533397438</v>
       </c>
     </row>
     <row r="18" spans="1:15">
@@ -1173,37 +1173,37 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>20.71295533514545</v>
+        <v>28.7138174671969</v>
       </c>
       <c r="C18">
-        <v>10.03846851759511</v>
+        <v>15.84792989765047</v>
       </c>
       <c r="D18">
-        <v>8.284605959948662</v>
+        <v>5.567345283936502</v>
       </c>
       <c r="E18">
-        <v>12.29120732814401</v>
+        <v>6.888154789182534</v>
       </c>
       <c r="F18">
-        <v>33.35581499631778</v>
+        <v>21.96722542169714</v>
       </c>
       <c r="G18">
         <v>0</v>
       </c>
       <c r="H18">
-        <v>7.344005520526261</v>
+        <v>4.251792669778333</v>
       </c>
       <c r="I18">
-        <v>24.33072149140852</v>
+        <v>12.94536625286943</v>
       </c>
       <c r="J18">
-        <v>9.550910749541078</v>
+        <v>5.279732001434926</v>
       </c>
       <c r="K18">
         <v>0</v>
       </c>
       <c r="L18">
-        <v>11.64442461047141</v>
+        <v>8.741712789995621</v>
       </c>
       <c r="M18">
         <v>0</v>
@@ -1212,7 +1212,7 @@
         <v>0</v>
       </c>
       <c r="O18">
-        <v>25.5099835590044</v>
+        <v>15.73923283689639</v>
       </c>
     </row>
     <row r="19" spans="1:15">
@@ -1220,37 +1220,37 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>20.66247484307321</v>
+        <v>28.58972380251702</v>
       </c>
       <c r="C19">
-        <v>10.0080785674701</v>
+        <v>15.78864503030683</v>
       </c>
       <c r="D19">
-        <v>8.2836234036709</v>
+        <v>5.557335805708859</v>
       </c>
       <c r="E19">
-        <v>12.29378747697715</v>
+        <v>6.892106365720124</v>
       </c>
       <c r="F19">
-        <v>33.36418566020669</v>
+        <v>21.94523929679072</v>
       </c>
       <c r="G19">
         <v>0</v>
       </c>
       <c r="H19">
-        <v>7.344005520526261</v>
+        <v>4.251792669778333</v>
       </c>
       <c r="I19">
-        <v>24.34289990296446</v>
+        <v>12.97185047331192</v>
       </c>
       <c r="J19">
-        <v>9.552906029073828</v>
+        <v>5.28570305859883</v>
       </c>
       <c r="K19">
         <v>0</v>
       </c>
       <c r="L19">
-        <v>11.64102908127459</v>
+        <v>8.719389374744454</v>
       </c>
       <c r="M19">
         <v>0</v>
@@ -1259,7 +1259,7 @@
         <v>0</v>
       </c>
       <c r="O19">
-        <v>25.51836074916329</v>
+        <v>15.73433281151419</v>
       </c>
     </row>
     <row r="20" spans="1:15">
@@ -1267,37 +1267,37 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>20.88870352914701</v>
+        <v>29.14431583148455</v>
       </c>
       <c r="C20">
-        <v>10.14404126307694</v>
+        <v>16.05382244530982</v>
       </c>
       <c r="D20">
-        <v>8.288094726798747</v>
+        <v>5.602355955787293</v>
       </c>
       <c r="E20">
-        <v>12.282272048064</v>
+        <v>6.874546375039009</v>
       </c>
       <c r="F20">
-        <v>33.32713863217814</v>
+        <v>22.04626662439235</v>
       </c>
       <c r="G20">
         <v>0</v>
       </c>
       <c r="H20">
-        <v>7.344005520526261</v>
+        <v>4.251792669778333</v>
       </c>
       <c r="I20">
-        <v>24.28847753712081</v>
+        <v>12.85394797459321</v>
       </c>
       <c r="J20">
-        <v>9.54397981698761</v>
+        <v>5.25889963788514</v>
       </c>
       <c r="K20">
         <v>0</v>
       </c>
       <c r="L20">
-        <v>11.65638229863064</v>
+        <v>8.819601377090285</v>
       </c>
       <c r="M20">
         <v>0</v>
@@ -1306,7 +1306,7 @@
         <v>0</v>
       </c>
       <c r="O20">
-        <v>25.4811138794187</v>
+        <v>15.75812186956675</v>
       </c>
     </row>
     <row r="21" spans="1:15">
@@ -1314,37 +1314,37 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>21.631801064858</v>
+        <v>30.94084928512552</v>
       </c>
       <c r="C21">
-        <v>10.58673985928062</v>
+        <v>16.91654477253985</v>
       </c>
       <c r="D21">
-        <v>8.303980779516142</v>
+        <v>5.753110795883557</v>
       </c>
       <c r="E21">
-        <v>12.24525147418075</v>
+        <v>6.819520316464072</v>
       </c>
       <c r="F21">
-        <v>33.21357865302384</v>
+        <v>22.42292834624998</v>
       </c>
       <c r="G21">
         <v>0</v>
       </c>
       <c r="H21">
-        <v>7.344005520526261</v>
+        <v>4.251792669778333</v>
       </c>
       <c r="I21">
-        <v>24.11230901947834</v>
+        <v>12.48153379221776</v>
       </c>
       <c r="J21">
-        <v>9.514910050770844</v>
+        <v>5.169973284886979</v>
       </c>
       <c r="K21">
         <v>0</v>
       </c>
       <c r="L21">
-        <v>11.70921954166615</v>
+        <v>9.151789529757913</v>
       </c>
       <c r="M21">
         <v>0</v>
@@ -1353,7 +1353,7 @@
         <v>0</v>
       </c>
       <c r="O21">
-        <v>25.36389060886549</v>
+        <v>15.86947809135555</v>
       </c>
     </row>
     <row r="22" spans="1:15">
@@ -1361,37 +1361,37 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>22.10414843704795</v>
+        <v>32.06572597966003</v>
       </c>
       <c r="C22">
-        <v>10.86533099663499</v>
+        <v>17.45931897790474</v>
       </c>
       <c r="D22">
-        <v>8.314997874977479</v>
+        <v>5.851153483837304</v>
       </c>
       <c r="E22">
-        <v>12.22229835810298</v>
+        <v>6.786618091430922</v>
       </c>
       <c r="F22">
-        <v>33.14752931260676</v>
+        <v>22.6976332411613</v>
       </c>
       <c r="G22">
         <v>0</v>
       </c>
       <c r="H22">
-        <v>7.344005520526261</v>
+        <v>4.251792669778333</v>
       </c>
       <c r="I22">
-        <v>24.00215523971771</v>
+        <v>12.2575770932404</v>
       </c>
       <c r="J22">
-        <v>9.49659493059257</v>
+        <v>5.112642433029559</v>
       </c>
       <c r="K22">
         <v>0</v>
       </c>
       <c r="L22">
-        <v>11.74465537468627</v>
+        <v>9.365302902984364</v>
       </c>
       <c r="M22">
         <v>0</v>
@@ -1400,7 +1400,7 @@
         <v>0</v>
       </c>
       <c r="O22">
-        <v>25.29320774303746</v>
+        <v>15.96687166081893</v>
       </c>
     </row>
     <row r="23" spans="1:15">
@@ -1408,37 +1408,37 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>21.85330431492731</v>
+        <v>31.46983033799776</v>
       </c>
       <c r="C23">
-        <v>10.71763690784692</v>
+        <v>17.1715570592282</v>
       </c>
       <c r="D23">
-        <v>8.309060335511633</v>
+        <v>5.798877054218405</v>
       </c>
       <c r="E23">
-        <v>12.23443538571989</v>
+        <v>6.80389198551596</v>
       </c>
       <c r="F23">
-        <v>33.18203145883851</v>
+        <v>22.54835902232208</v>
       </c>
       <c r="G23">
         <v>0</v>
       </c>
       <c r="H23">
-        <v>7.344005520526261</v>
+        <v>4.251792669778333</v>
       </c>
       <c r="I23">
-        <v>24.06049036950441</v>
+        <v>12.37520735437858</v>
       </c>
       <c r="J23">
-        <v>9.506307682613393</v>
+        <v>5.143172508480006</v>
       </c>
       <c r="K23">
         <v>0</v>
       </c>
       <c r="L23">
-        <v>11.72566186806246</v>
+        <v>9.251688823991541</v>
       </c>
       <c r="M23">
         <v>0</v>
@@ -1447,7 +1447,7 @@
         <v>0</v>
       </c>
       <c r="O23">
-        <v>25.33038834964425</v>
+        <v>15.91256356437841</v>
       </c>
     </row>
     <row r="24" spans="1:15">
@@ -1455,37 +1455,37 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>20.87634235589023</v>
+        <v>29.11411301843842</v>
       </c>
       <c r="C24">
-        <v>10.13662735161574</v>
+        <v>16.03936627583748</v>
       </c>
       <c r="D24">
-        <v>8.287845914984567</v>
+        <v>5.599885284093461</v>
       </c>
       <c r="E24">
-        <v>12.28289813263023</v>
+        <v>6.875495982584553</v>
       </c>
       <c r="F24">
-        <v>33.32913211468014</v>
+        <v>22.04058077948496</v>
       </c>
       <c r="G24">
         <v>0</v>
       </c>
       <c r="H24">
-        <v>7.344005520526261</v>
+        <v>4.251792669778333</v>
       </c>
       <c r="I24">
-        <v>24.29144101399554</v>
+        <v>12.86033752489645</v>
       </c>
       <c r="J24">
-        <v>9.544466529482953</v>
+        <v>5.260367171160549</v>
       </c>
       <c r="K24">
         <v>0</v>
       </c>
       <c r="L24">
-        <v>11.65553438624504</v>
+        <v>8.814114546241951</v>
       </c>
       <c r="M24">
         <v>0</v>
@@ -1494,7 +1494,7 @@
         <v>0</v>
       </c>
       <c r="O24">
-        <v>25.48312956556329</v>
+        <v>15.75670035150084</v>
       </c>
     </row>
     <row r="25" spans="1:15">
@@ -1502,37 +1502,37 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>19.76972465227891</v>
+        <v>26.35812390922945</v>
       </c>
       <c r="C25">
-        <v>9.465311364035921</v>
+        <v>14.72794654747816</v>
       </c>
       <c r="D25">
-        <v>8.26774210946826</v>
+        <v>5.383878682275006</v>
       </c>
       <c r="E25">
-        <v>12.34052151164507</v>
+        <v>6.965245690355282</v>
       </c>
       <c r="F25">
-        <v>33.52264338063226</v>
+        <v>21.61001280877677</v>
       </c>
       <c r="G25">
         <v>0</v>
       </c>
       <c r="H25">
-        <v>7.344005520526261</v>
+        <v>4.251792669778333</v>
       </c>
       <c r="I25">
-        <v>24.56194308863829</v>
+        <v>13.45627784626852</v>
       </c>
       <c r="J25">
-        <v>9.588580795133092</v>
+        <v>5.390505583965256</v>
       </c>
       <c r="K25">
         <v>0</v>
       </c>
       <c r="L25">
-        <v>11.58396128793384</v>
+        <v>8.328285418625764</v>
       </c>
       <c r="M25">
         <v>0</v>
@@ -1541,7 +1541,7 @@
         <v>0</v>
       </c>
       <c r="O25">
-        <v>25.67317611036766</v>
+        <v>15.68642656115859</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_5_9/res_line/loading_percent.xlsx
+++ b/Code/Results/Cases/Case_5_9/res_line/loading_percent.xlsx
@@ -366,13 +366,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:O25"/>
+  <dimension ref="A1:Q25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:15">
+    <row r="1" spans="1:17">
       <c r="B1" s="1">
         <v>0</v>
       </c>
@@ -415,1133 +415,1283 @@
       <c r="O1" s="1">
         <v>13</v>
       </c>
-    </row>
-    <row r="2" spans="1:15">
+      <c r="P1" s="1">
+        <v>14</v>
+      </c>
+      <c r="Q1" s="1">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="2" spans="1:17">
       <c r="A2" s="1">
         <v>0</v>
       </c>
       <c r="B2">
-        <v>24.13997182844908</v>
+        <v>20.90109265698135</v>
       </c>
       <c r="C2">
-        <v>13.68555941304403</v>
+        <v>12.14753885658063</v>
       </c>
       <c r="D2">
-        <v>5.224514808835658</v>
+        <v>5.200214065358653</v>
       </c>
       <c r="E2">
-        <v>7.041466551349217</v>
+        <v>7.809961637404679</v>
       </c>
       <c r="F2">
-        <v>21.38680860400868</v>
+        <v>23.98948154677614</v>
       </c>
       <c r="G2">
         <v>0</v>
       </c>
       <c r="H2">
+        <v>2.192439412646492</v>
+      </c>
+      <c r="I2">
+        <v>2.888621709215918</v>
+      </c>
+      <c r="J2">
         <v>4.251792669784106</v>
       </c>
-      <c r="I2">
-        <v>13.94773125311376</v>
-      </c>
-      <c r="J2">
-        <v>5.489900393567593</v>
-      </c>
       <c r="K2">
-        <v>0</v>
+        <v>15.94499703415495</v>
       </c>
       <c r="L2">
-        <v>7.960725259097141</v>
+        <v>5.987400876167131</v>
       </c>
       <c r="M2">
         <v>0</v>
       </c>
       <c r="N2">
-        <v>0</v>
+        <v>7.847689043482466</v>
       </c>
       <c r="O2">
-        <v>15.70977017227836</v>
-      </c>
-    </row>
-    <row r="3" spans="1:15">
+        <v>0</v>
+      </c>
+      <c r="P2">
+        <v>12.72059159532541</v>
+      </c>
+      <c r="Q2">
+        <v>17.68808417055845</v>
+      </c>
+    </row>
+    <row r="3" spans="1:17">
       <c r="A3" s="1">
         <v>1</v>
       </c>
       <c r="B3">
-        <v>22.51688189433113</v>
+        <v>19.58143541535124</v>
       </c>
       <c r="C3">
-        <v>12.93209561407523</v>
+        <v>11.49076108973161</v>
       </c>
       <c r="D3">
-        <v>5.116799005549638</v>
+        <v>5.085622748339914</v>
       </c>
       <c r="E3">
-        <v>7.099164269638723</v>
+        <v>7.709456846690352</v>
       </c>
       <c r="F3">
-        <v>21.29002178973691</v>
+        <v>23.51839862630776</v>
       </c>
       <c r="G3">
         <v>0</v>
       </c>
       <c r="H3">
-        <v>4.251792669778333</v>
+        <v>2.405666656937885</v>
       </c>
       <c r="I3">
-        <v>14.30973498237894</v>
+        <v>3.051316908754881</v>
       </c>
       <c r="J3">
-        <v>5.559662106951373</v>
+        <v>4.251792669778333</v>
       </c>
       <c r="K3">
-        <v>0</v>
+        <v>15.95091599878276</v>
       </c>
       <c r="L3">
-        <v>7.706771278637321</v>
+        <v>5.947365946331555</v>
       </c>
       <c r="M3">
         <v>0</v>
       </c>
       <c r="N3">
-        <v>0</v>
+        <v>7.586958409530328</v>
       </c>
       <c r="O3">
-        <v>15.76771529276552</v>
-      </c>
-    </row>
-    <row r="4" spans="1:15">
+        <v>0</v>
+      </c>
+      <c r="P3">
+        <v>12.79950625823497</v>
+      </c>
+      <c r="Q3">
+        <v>17.44632207366644</v>
+      </c>
+    </row>
+    <row r="4" spans="1:17">
       <c r="A4" s="1">
         <v>2</v>
       </c>
       <c r="B4">
-        <v>21.46055402777284</v>
+        <v>18.72246833467999</v>
       </c>
       <c r="C4">
-        <v>12.44675115057786</v>
+        <v>11.06952447638609</v>
       </c>
       <c r="D4">
-        <v>5.050978342797626</v>
+        <v>5.014675167867852</v>
       </c>
       <c r="E4">
-        <v>7.137485320460348</v>
+        <v>7.646188219677217</v>
       </c>
       <c r="F4">
-        <v>21.25597124198315</v>
+        <v>23.23255889630131</v>
       </c>
       <c r="G4">
         <v>0</v>
       </c>
       <c r="H4">
-        <v>4.251792669778333</v>
+        <v>2.541453705588927</v>
       </c>
       <c r="I4">
-        <v>14.54522201125623</v>
+        <v>3.155670875156563</v>
       </c>
       <c r="J4">
-        <v>5.603733052208647</v>
+        <v>4.251792669778333</v>
       </c>
       <c r="K4">
-        <v>0</v>
+        <v>15.95917067140104</v>
       </c>
       <c r="L4">
-        <v>7.548953238297932</v>
+        <v>5.921752479424094</v>
       </c>
       <c r="M4">
         <v>0</v>
       </c>
       <c r="N4">
-        <v>0</v>
+        <v>7.423063608940525</v>
       </c>
       <c r="O4">
-        <v>15.82248981071074</v>
-      </c>
-    </row>
-    <row r="5" spans="1:15">
+        <v>0</v>
+      </c>
+      <c r="P4">
+        <v>12.85050343084545</v>
+      </c>
+      <c r="Q4">
+        <v>17.30263578913323</v>
+      </c>
+    </row>
+    <row r="5" spans="1:17">
       <c r="A5" s="1">
         <v>3</v>
       </c>
       <c r="B5">
-        <v>21.01497711702433</v>
+        <v>18.35505221140913</v>
       </c>
       <c r="C5">
-        <v>12.2433561824686</v>
+        <v>10.90004160681556</v>
       </c>
       <c r="D5">
-        <v>5.024263485636545</v>
+        <v>4.986158979578802</v>
       </c>
       <c r="E5">
-        <v>7.153817202705199</v>
+        <v>7.619324607536759</v>
       </c>
       <c r="F5">
-        <v>21.24824059462734</v>
+        <v>23.11002290297372</v>
       </c>
       <c r="G5">
         <v>0</v>
       </c>
       <c r="H5">
-        <v>4.251792669778333</v>
+        <v>2.598354047845679</v>
       </c>
       <c r="I5">
-        <v>14.64437061004787</v>
+        <v>3.202117541610316</v>
       </c>
       <c r="J5">
-        <v>5.622010660096113</v>
+        <v>4.251792669778333</v>
       </c>
       <c r="K5">
-        <v>0</v>
+        <v>15.95878996779104</v>
       </c>
       <c r="L5">
-        <v>7.484250340515906</v>
+        <v>5.910696981138022</v>
       </c>
       <c r="M5">
         <v>0</v>
       </c>
       <c r="N5">
-        <v>0</v>
+        <v>7.356663785065469</v>
       </c>
       <c r="O5">
-        <v>15.84940335647292</v>
-      </c>
-    </row>
-    <row r="6" spans="1:15">
+        <v>0</v>
+      </c>
+      <c r="P5">
+        <v>12.87261535015081</v>
+      </c>
+      <c r="Q5">
+        <v>17.23999369495102</v>
+      </c>
+    </row>
+    <row r="6" spans="1:17">
       <c r="A6" s="1">
         <v>4</v>
       </c>
       <c r="B6">
-        <v>20.9400738553758</v>
+        <v>18.28695323561606</v>
       </c>
       <c r="C6">
-        <v>12.20924697755983</v>
+        <v>10.87973889895644</v>
       </c>
       <c r="D6">
-        <v>5.019834827521792</v>
+        <v>4.982049339648266</v>
       </c>
       <c r="E6">
-        <v>7.156571988592584</v>
+        <v>7.61399575463346</v>
       </c>
       <c r="F6">
-        <v>21.24732094705382</v>
+        <v>23.08114903087906</v>
       </c>
       <c r="G6">
         <v>0</v>
       </c>
       <c r="H6">
-        <v>4.251792669778333</v>
+        <v>2.608275656268205</v>
       </c>
       <c r="I6">
-        <v>14.66102289565209</v>
+        <v>3.213488149674961</v>
       </c>
       <c r="J6">
-        <v>5.625065077291674</v>
+        <v>4.251792669778333</v>
       </c>
       <c r="K6">
-        <v>0</v>
+        <v>15.95283827979999</v>
       </c>
       <c r="L6">
-        <v>7.473485466950682</v>
+        <v>5.90841225695905</v>
       </c>
       <c r="M6">
         <v>0</v>
       </c>
       <c r="N6">
-        <v>0</v>
+        <v>7.34714457249687</v>
       </c>
       <c r="O6">
-        <v>15.8541428916352</v>
-      </c>
-    </row>
-    <row r="7" spans="1:15">
+        <v>0</v>
+      </c>
+      <c r="P6">
+        <v>12.87718881119225</v>
+      </c>
+      <c r="Q6">
+        <v>17.22317140621441</v>
+      </c>
+    </row>
+    <row r="7" spans="1:17">
       <c r="A7" s="1">
         <v>5</v>
       </c>
       <c r="B7">
-        <v>21.45460614171686</v>
+        <v>18.70060078902329</v>
       </c>
       <c r="C7">
-        <v>12.44403067314017</v>
+        <v>11.08898911997036</v>
       </c>
       <c r="D7">
-        <v>5.050617584011595</v>
+        <v>5.016005046074332</v>
       </c>
       <c r="E7">
-        <v>7.137702695351312</v>
+        <v>7.643542966578321</v>
       </c>
       <c r="F7">
-        <v>21.25584242277345</v>
+        <v>23.20760534699692</v>
       </c>
       <c r="G7">
         <v>0</v>
       </c>
       <c r="H7">
-        <v>4.251792669778333</v>
+        <v>2.543284332149506</v>
       </c>
       <c r="I7">
-        <v>14.54654643335188</v>
+        <v>3.165805485284408</v>
       </c>
       <c r="J7">
-        <v>5.603978252044386</v>
+        <v>4.251792669778333</v>
       </c>
       <c r="K7">
-        <v>0</v>
+        <v>15.94291291923756</v>
       </c>
       <c r="L7">
-        <v>7.548082098245197</v>
+        <v>5.920437586283177</v>
       </c>
       <c r="M7">
         <v>0</v>
       </c>
       <c r="N7">
-        <v>0</v>
+        <v>7.426378614619384</v>
       </c>
       <c r="O7">
-        <v>15.82283448966194</v>
-      </c>
-    </row>
-    <row r="8" spans="1:15">
+        <v>0</v>
+      </c>
+      <c r="P7">
+        <v>12.85322885583608</v>
+      </c>
+      <c r="Q7">
+        <v>17.28413305650981</v>
+      </c>
+    </row>
+    <row r="8" spans="1:17">
       <c r="A8" s="1">
         <v>6</v>
       </c>
       <c r="B8">
-        <v>23.59267478810398</v>
+        <v>20.43543291643336</v>
       </c>
       <c r="C8">
-        <v>13.43053094011506</v>
+        <v>11.95185820248535</v>
       </c>
       <c r="D8">
-        <v>5.18732500521197</v>
+        <v>5.163054783903362</v>
       </c>
       <c r="E8">
-        <v>7.060752500258785</v>
+        <v>7.772706516455798</v>
       </c>
       <c r="F8">
-        <v>21.34803160458183</v>
+        <v>23.79635917470912</v>
       </c>
       <c r="G8">
         <v>0</v>
       </c>
       <c r="H8">
-        <v>4.251792669778333</v>
+        <v>2.266293806746572</v>
       </c>
       <c r="I8">
-        <v>14.06971879202542</v>
+        <v>2.956045086831816</v>
       </c>
       <c r="J8">
-        <v>5.513701996679115</v>
+        <v>4.251792669778333</v>
       </c>
       <c r="K8">
-        <v>0</v>
+        <v>15.92466159055314</v>
       </c>
       <c r="L8">
-        <v>7.8736024863627</v>
+        <v>5.972331586155058</v>
       </c>
       <c r="M8">
         <v>0</v>
       </c>
       <c r="N8">
-        <v>0</v>
+        <v>7.763976756602127</v>
       </c>
       <c r="O8">
-        <v>15.7256239864595</v>
-      </c>
-    </row>
-    <row r="9" spans="1:15">
+        <v>0</v>
+      </c>
+      <c r="P8">
+        <v>12.75078926583682</v>
+      </c>
+      <c r="Q8">
+        <v>17.58082456147158</v>
+      </c>
+    </row>
+    <row r="9" spans="1:17">
       <c r="A9" s="1">
         <v>7</v>
       </c>
       <c r="B9">
-        <v>27.31556538852507</v>
+        <v>23.4766771063908</v>
       </c>
       <c r="C9">
-        <v>15.18170721811122</v>
+        <v>13.46354833997856</v>
       </c>
       <c r="D9">
-        <v>5.456751320715819</v>
+        <v>5.442645154956108</v>
       </c>
       <c r="E9">
-        <v>6.933398733637032</v>
+        <v>8.01749967941749</v>
       </c>
       <c r="F9">
-        <v>21.73997805762023</v>
+        <v>25.01345994357963</v>
       </c>
       <c r="G9">
         <v>0</v>
       </c>
       <c r="H9">
-        <v>4.251792669778333</v>
+        <v>1.759178893431703</v>
       </c>
       <c r="I9">
-        <v>13.24676534289417</v>
+        <v>2.563999460867421</v>
       </c>
       <c r="J9">
-        <v>5.346136770194819</v>
+        <v>4.251792669778333</v>
       </c>
       <c r="K9">
-        <v>0</v>
+        <v>15.95604075185938</v>
       </c>
       <c r="L9">
-        <v>8.493620157934087</v>
+        <v>6.068050000675107</v>
       </c>
       <c r="M9">
         <v>0</v>
       </c>
       <c r="N9">
-        <v>0</v>
+        <v>8.385807500372557</v>
       </c>
       <c r="O9">
-        <v>15.69781559260502</v>
-      </c>
-    </row>
-    <row r="10" spans="1:15">
+        <v>0</v>
+      </c>
+      <c r="P9">
+        <v>12.56572288545204</v>
+      </c>
+      <c r="Q9">
+        <v>18.23003067746955</v>
+      </c>
+    </row>
+    <row r="10" spans="1:17">
       <c r="A10" s="1">
         <v>8</v>
       </c>
       <c r="B10">
-        <v>29.77023469429202</v>
+        <v>25.41423275319616</v>
       </c>
       <c r="C10">
-        <v>16.35377804673891</v>
+        <v>14.51028988413002</v>
       </c>
       <c r="D10">
-        <v>5.654040059081343</v>
+        <v>5.61369726904261</v>
       </c>
       <c r="E10">
-        <v>6.855044972607946</v>
+        <v>8.133211599116951</v>
       </c>
       <c r="F10">
-        <v>22.16889147553544</v>
+        <v>25.77282263515617</v>
       </c>
       <c r="G10">
         <v>0</v>
       </c>
       <c r="H10">
-        <v>4.251792669778333</v>
+        <v>1.703798170543338</v>
       </c>
       <c r="I10">
-        <v>12.72241557642766</v>
+        <v>2.656185893048595</v>
       </c>
       <c r="J10">
-        <v>5.228282903816433</v>
+        <v>4.251792669778333</v>
       </c>
       <c r="K10">
-        <v>0</v>
+        <v>15.93412165103119</v>
       </c>
       <c r="L10">
-        <v>8.934053703739496</v>
+        <v>6.120449783924535</v>
       </c>
       <c r="M10">
         <v>0</v>
       </c>
       <c r="N10">
-        <v>0</v>
+        <v>8.738797670277904</v>
       </c>
       <c r="O10">
-        <v>15.79089232111246</v>
-      </c>
-    </row>
-    <row r="11" spans="1:15">
+        <v>0</v>
+      </c>
+      <c r="P10">
+        <v>12.45907725106868</v>
+      </c>
+      <c r="Q10">
+        <v>18.63858420186666</v>
+      </c>
+    </row>
+    <row r="11" spans="1:17">
       <c r="A11" s="1">
         <v>9</v>
       </c>
       <c r="B11">
-        <v>30.82731897079418</v>
+        <v>25.77120304099673</v>
       </c>
       <c r="C11">
-        <v>16.86186936766443</v>
+        <v>15.14514652833135</v>
       </c>
       <c r="D11">
-        <v>5.743368197923813</v>
+        <v>5.434064221669633</v>
       </c>
       <c r="E11">
-        <v>6.82290966813787</v>
+        <v>7.767584179387904</v>
       </c>
       <c r="F11">
-        <v>22.3968738012534</v>
+        <v>24.94552441189589</v>
       </c>
       <c r="G11">
         <v>0</v>
       </c>
       <c r="H11">
-        <v>4.251792669778333</v>
+        <v>2.701083118715765</v>
       </c>
       <c r="I11">
-        <v>12.50457133961272</v>
+        <v>2.733181812547051</v>
       </c>
       <c r="J11">
-        <v>5.17568852758647</v>
+        <v>4.251792669778333</v>
       </c>
       <c r="K11">
-        <v>0</v>
+        <v>15.36453339490816</v>
       </c>
       <c r="L11">
-        <v>9.1304690459533</v>
+        <v>6.073403528717004</v>
       </c>
       <c r="M11">
         <v>0</v>
       </c>
       <c r="N11">
-        <v>0</v>
+        <v>8.198628767134661</v>
       </c>
       <c r="O11">
-        <v>15.86085199115154</v>
-      </c>
-    </row>
-    <row r="12" spans="1:15">
+        <v>0</v>
+      </c>
+      <c r="P11">
+        <v>12.55712240827235</v>
+      </c>
+      <c r="Q11">
+        <v>18.10071801531912</v>
+      </c>
+    </row>
+    <row r="12" spans="1:17">
       <c r="A12" s="1">
         <v>10</v>
       </c>
       <c r="B12">
-        <v>31.21915365852747</v>
+        <v>25.69333296114305</v>
       </c>
       <c r="C12">
-        <v>17.0506578573876</v>
+        <v>15.44246864572498</v>
       </c>
       <c r="D12">
-        <v>5.777113165492609</v>
+        <v>5.245116710771733</v>
       </c>
       <c r="E12">
-        <v>6.81126411566175</v>
+        <v>7.533880152318553</v>
       </c>
       <c r="F12">
-        <v>22.48809061196836</v>
+        <v>24.10219067659591</v>
       </c>
       <c r="G12">
         <v>0</v>
       </c>
       <c r="H12">
-        <v>4.251792669778333</v>
+        <v>4.033182588550907</v>
       </c>
       <c r="I12">
-        <v>12.42538104490115</v>
+        <v>2.741592657009217</v>
       </c>
       <c r="J12">
-        <v>5.155908218801565</v>
+        <v>4.251792669778333</v>
       </c>
       <c r="K12">
-        <v>0</v>
+        <v>14.91200890358465</v>
       </c>
       <c r="L12">
-        <v>9.204234031067426</v>
+        <v>6.080384874317095</v>
       </c>
       <c r="M12">
         <v>0</v>
       </c>
       <c r="N12">
-        <v>0</v>
+        <v>7.668365350082394</v>
       </c>
       <c r="O12">
-        <v>15.89154987553541</v>
-      </c>
-    </row>
-    <row r="13" spans="1:15">
+        <v>0</v>
+      </c>
+      <c r="P12">
+        <v>12.67087002826288</v>
+      </c>
+      <c r="Q12">
+        <v>17.57356622710034</v>
+      </c>
+    </row>
+    <row r="13" spans="1:17">
       <c r="A13" s="1">
         <v>11</v>
       </c>
       <c r="B13">
-        <v>31.1351396252126</v>
+        <v>25.25424423506011</v>
       </c>
       <c r="C13">
-        <v>17.01015963362613</v>
+        <v>15.53296514565458</v>
       </c>
       <c r="D13">
-        <v>5.769849531490217</v>
+        <v>5.038350423845936</v>
       </c>
       <c r="E13">
-        <v>6.813748600111677</v>
+        <v>7.390218151035005</v>
       </c>
       <c r="F13">
-        <v>22.46822583793714</v>
+        <v>23.15042520009943</v>
       </c>
       <c r="G13">
         <v>0</v>
       </c>
       <c r="H13">
-        <v>4.251792669778333</v>
+        <v>5.480448465713422</v>
       </c>
       <c r="I13">
-        <v>12.44228346965853</v>
+        <v>2.702993468360328</v>
       </c>
       <c r="J13">
-        <v>5.160162383547327</v>
+        <v>4.251792669778333</v>
       </c>
       <c r="K13">
-        <v>0</v>
+        <v>14.49857784070727</v>
       </c>
       <c r="L13">
-        <v>9.188375358420723</v>
+        <v>6.125205393897482</v>
       </c>
       <c r="M13">
         <v>0</v>
       </c>
       <c r="N13">
-        <v>0</v>
+        <v>7.113772174078764</v>
       </c>
       <c r="O13">
-        <v>15.88474785621711</v>
-      </c>
-    </row>
-    <row r="14" spans="1:15">
+        <v>0</v>
+      </c>
+      <c r="P13">
+        <v>12.80308227086898</v>
+      </c>
+      <c r="Q13">
+        <v>16.99089153254613</v>
+      </c>
+    </row>
+    <row r="14" spans="1:17">
       <c r="A14" s="1">
         <v>12</v>
       </c>
       <c r="B14">
-        <v>30.8597243936896</v>
+        <v>24.77288951245466</v>
       </c>
       <c r="C14">
-        <v>16.87747355363566</v>
+        <v>15.50935315508453</v>
       </c>
       <c r="D14">
-        <v>5.746146167837997</v>
+        <v>4.886303402694925</v>
       </c>
       <c r="E14">
-        <v>6.821940978826073</v>
+        <v>7.346743824262471</v>
       </c>
       <c r="F14">
-        <v>22.40427951494351</v>
+        <v>22.42598569032901</v>
       </c>
       <c r="G14">
         <v>0</v>
       </c>
       <c r="H14">
-        <v>4.251792669778333</v>
+        <v>6.50579612846873</v>
       </c>
       <c r="I14">
-        <v>12.49798806734774</v>
+        <v>2.656104518845894</v>
       </c>
       <c r="J14">
-        <v>5.174058524817887</v>
+        <v>4.251792669778333</v>
       </c>
       <c r="K14">
-        <v>0</v>
+        <v>14.22655820286599</v>
       </c>
       <c r="L14">
-        <v>9.136550266357823</v>
+        <v>6.179405596359589</v>
       </c>
       <c r="M14">
         <v>0</v>
       </c>
       <c r="N14">
-        <v>0</v>
+        <v>6.717134950805553</v>
       </c>
       <c r="O14">
-        <v>15.86329192729642</v>
-      </c>
-    </row>
-    <row r="15" spans="1:15">
+        <v>0</v>
+      </c>
+      <c r="P14">
+        <v>12.90487312927687</v>
+      </c>
+      <c r="Q14">
+        <v>16.55233744322094</v>
+      </c>
+    </row>
+    <row r="15" spans="1:17">
       <c r="A15" s="1">
         <v>13</v>
       </c>
       <c r="B15">
-        <v>30.68992598845756</v>
+        <v>24.57158131185249</v>
       </c>
       <c r="C15">
-        <v>16.79572874810917</v>
+        <v>15.4661831874356</v>
       </c>
       <c r="D15">
-        <v>5.731615942118218</v>
+        <v>4.84585750947699</v>
       </c>
       <c r="E15">
-        <v>6.827027792693012</v>
+        <v>7.341697775798771</v>
       </c>
       <c r="F15">
-        <v>22.36575111585499</v>
+        <v>22.22071698873979</v>
       </c>
       <c r="G15">
         <v>0</v>
       </c>
       <c r="H15">
-        <v>4.251792669778333</v>
+        <v>6.743759448551634</v>
       </c>
       <c r="I15">
-        <v>12.5325493906053</v>
+        <v>2.63606807586923</v>
       </c>
       <c r="J15">
-        <v>5.182587710903658</v>
+        <v>4.251792669778333</v>
       </c>
       <c r="K15">
-        <v>0</v>
+        <v>14.16437735478126</v>
       </c>
       <c r="L15">
-        <v>9.104724783089781</v>
+        <v>6.193088494725182</v>
       </c>
       <c r="M15">
         <v>0</v>
       </c>
       <c r="N15">
-        <v>0</v>
+        <v>6.615749959828032</v>
       </c>
       <c r="O15">
-        <v>15.85070405175916</v>
-      </c>
-    </row>
-    <row r="16" spans="1:15">
+        <v>0</v>
+      </c>
+      <c r="P15">
+        <v>12.93306448711912</v>
+      </c>
+      <c r="Q15">
+        <v>16.42935520084748</v>
+      </c>
+    </row>
+    <row r="16" spans="1:17">
       <c r="A16" s="1">
         <v>14</v>
       </c>
       <c r="B16">
-        <v>29.69996213285286</v>
+        <v>23.82575460134574</v>
       </c>
       <c r="C16">
-        <v>16.32006737900032</v>
+        <v>15.03736819333833</v>
       </c>
       <c r="D16">
-        <v>5.6481919412183</v>
+        <v>4.81160010316639</v>
       </c>
       <c r="E16">
-        <v>6.857217270639299</v>
+        <v>7.315481479615546</v>
       </c>
       <c r="F16">
-        <v>22.15466761346028</v>
+        <v>22.04865325024226</v>
       </c>
       <c r="G16">
         <v>0</v>
       </c>
       <c r="H16">
-        <v>4.251792669778333</v>
+        <v>6.540133634266375</v>
       </c>
       <c r="I16">
-        <v>12.73709541942672</v>
+        <v>2.536442781200388</v>
       </c>
       <c r="J16">
-        <v>5.231739684676487</v>
+        <v>4.251792669778333</v>
       </c>
       <c r="K16">
-        <v>0</v>
+        <v>14.25080836328</v>
       </c>
       <c r="L16">
-        <v>8.921134052489432</v>
+        <v>6.156850574048196</v>
       </c>
       <c r="M16">
         <v>0</v>
       </c>
       <c r="N16">
-        <v>0</v>
+        <v>6.562226019098884</v>
       </c>
       <c r="O16">
-        <v>15.78689626353061</v>
-      </c>
-    </row>
-    <row r="17" spans="1:15">
+        <v>0</v>
+      </c>
+      <c r="P16">
+        <v>12.94046947989105</v>
+      </c>
+      <c r="Q16">
+        <v>16.34855876994794</v>
+      </c>
+    </row>
+    <row r="17" spans="1:17">
       <c r="A17" s="1">
         <v>15</v>
       </c>
       <c r="B17">
-        <v>29.07747042959419</v>
+        <v>23.51025925985493</v>
       </c>
       <c r="C17">
-        <v>16.02183003789303</v>
+        <v>14.7152974348631</v>
       </c>
       <c r="D17">
-        <v>5.596890724544648</v>
+        <v>4.866829833189733</v>
       </c>
       <c r="E17">
-        <v>6.876649110360591</v>
+        <v>7.30863425374689</v>
       </c>
       <c r="F17">
-        <v>22.03371111635268</v>
+        <v>22.30898687868019</v>
       </c>
       <c r="G17">
         <v>0</v>
       </c>
       <c r="H17">
-        <v>4.251792669778333</v>
+        <v>5.808226710156623</v>
       </c>
       <c r="I17">
-        <v>12.86809446209201</v>
+        <v>2.532190023818985</v>
       </c>
       <c r="J17">
-        <v>5.262146395633048</v>
+        <v>4.251792669778333</v>
       </c>
       <c r="K17">
-        <v>0</v>
+        <v>14.45943049535365</v>
       </c>
       <c r="L17">
-        <v>8.807462320835777</v>
+        <v>6.096037378987703</v>
       </c>
       <c r="M17">
         <v>0</v>
       </c>
       <c r="N17">
-        <v>0</v>
+        <v>6.733879563446492</v>
       </c>
       <c r="O17">
-        <v>15.75499533397438</v>
-      </c>
-    </row>
-    <row r="18" spans="1:15">
+        <v>0</v>
+      </c>
+      <c r="P17">
+        <v>12.89388750681063</v>
+      </c>
+      <c r="Q17">
+        <v>16.52333582546901</v>
+      </c>
+    </row>
+    <row r="18" spans="1:17">
       <c r="A18" s="1">
         <v>16</v>
       </c>
       <c r="B18">
-        <v>28.7138174671969</v>
+        <v>23.55149296107298</v>
       </c>
       <c r="C18">
-        <v>15.84792989765047</v>
+        <v>14.43841868642041</v>
       </c>
       <c r="D18">
-        <v>5.567345283936502</v>
+        <v>5.006612444488863</v>
       </c>
       <c r="E18">
-        <v>6.888154789182534</v>
+        <v>7.374364747131137</v>
       </c>
       <c r="F18">
-        <v>21.96722542169714</v>
+        <v>22.98331513737817</v>
       </c>
       <c r="G18">
         <v>0</v>
       </c>
       <c r="H18">
-        <v>4.251792669778333</v>
+        <v>4.561481645740692</v>
       </c>
       <c r="I18">
-        <v>12.94536625286943</v>
+        <v>2.53820583914175</v>
       </c>
       <c r="J18">
-        <v>5.279732001434926</v>
+        <v>4.251792669778333</v>
       </c>
       <c r="K18">
-        <v>0</v>
+        <v>14.81114831591002</v>
       </c>
       <c r="L18">
-        <v>8.741712789995621</v>
+        <v>6.033411518361169</v>
       </c>
       <c r="M18">
         <v>0</v>
       </c>
       <c r="N18">
-        <v>0</v>
+        <v>7.12722070313977</v>
       </c>
       <c r="O18">
-        <v>15.73923283689639</v>
-      </c>
-    </row>
-    <row r="19" spans="1:15">
+        <v>0</v>
+      </c>
+      <c r="P18">
+        <v>12.79709048294634</v>
+      </c>
+      <c r="Q18">
+        <v>16.94700204729695</v>
+      </c>
+    </row>
+    <row r="19" spans="1:17">
       <c r="A19" s="1">
         <v>17</v>
       </c>
       <c r="B19">
-        <v>28.58972380251702</v>
+        <v>23.84862779063323</v>
       </c>
       <c r="C19">
-        <v>15.78864503030683</v>
+        <v>14.25754235920781</v>
       </c>
       <c r="D19">
-        <v>5.557335805708859</v>
+        <v>5.209735829794015</v>
       </c>
       <c r="E19">
-        <v>6.892106365720124</v>
+        <v>7.571526204631611</v>
       </c>
       <c r="F19">
-        <v>21.94523929679072</v>
+        <v>23.8971610243384</v>
       </c>
       <c r="G19">
         <v>0</v>
       </c>
       <c r="H19">
-        <v>4.251792669778333</v>
+        <v>3.084253914071766</v>
       </c>
       <c r="I19">
-        <v>12.97185047331192</v>
+        <v>2.522963572913483</v>
       </c>
       <c r="J19">
-        <v>5.28570305859883</v>
+        <v>4.251792669778333</v>
       </c>
       <c r="K19">
-        <v>0</v>
+        <v>15.23353774546295</v>
       </c>
       <c r="L19">
-        <v>8.719389374744454</v>
+        <v>6.013519915128052</v>
       </c>
       <c r="M19">
         <v>0</v>
       </c>
       <c r="N19">
-        <v>0</v>
+        <v>7.687238622018135</v>
       </c>
       <c r="O19">
-        <v>15.73433281151419</v>
-      </c>
-    </row>
-    <row r="20" spans="1:15">
+        <v>0</v>
+      </c>
+      <c r="P19">
+        <v>12.68195632466831</v>
+      </c>
+      <c r="Q19">
+        <v>17.50693440817119</v>
+      </c>
+    </row>
+    <row r="20" spans="1:17">
       <c r="A20" s="1">
         <v>18</v>
       </c>
       <c r="B20">
-        <v>29.14431583148455</v>
+        <v>24.87739591426933</v>
       </c>
       <c r="C20">
-        <v>16.05382244530982</v>
+        <v>14.29744891472942</v>
       </c>
       <c r="D20">
-        <v>5.602355955787293</v>
+        <v>5.572605962057142</v>
       </c>
       <c r="E20">
-        <v>6.874546375039009</v>
+        <v>8.094414745604526</v>
       </c>
       <c r="F20">
-        <v>22.04626662439235</v>
+        <v>25.50127931740014</v>
       </c>
       <c r="G20">
         <v>0</v>
       </c>
       <c r="H20">
-        <v>4.251792669778333</v>
+        <v>1.612095310174744</v>
       </c>
       <c r="I20">
-        <v>12.85394797459321</v>
+        <v>2.601523889426585</v>
       </c>
       <c r="J20">
-        <v>5.25889963788514</v>
+        <v>4.251792669778333</v>
       </c>
       <c r="K20">
-        <v>0</v>
+        <v>15.8859037726982</v>
       </c>
       <c r="L20">
-        <v>8.819601377090285</v>
+        <v>6.103269133391244</v>
       </c>
       <c r="M20">
         <v>0</v>
       </c>
       <c r="N20">
-        <v>0</v>
+        <v>8.65510826939885</v>
       </c>
       <c r="O20">
-        <v>15.75812186956675</v>
-      </c>
-    </row>
-    <row r="21" spans="1:15">
+        <v>0</v>
+      </c>
+      <c r="P20">
+        <v>12.49658193518308</v>
+      </c>
+      <c r="Q20">
+        <v>18.47527700428127</v>
+      </c>
+    </row>
+    <row r="21" spans="1:17">
       <c r="A21" s="1">
         <v>19</v>
       </c>
       <c r="B21">
-        <v>30.94084928512552</v>
+        <v>26.38286230594</v>
       </c>
       <c r="C21">
-        <v>16.91654477253985</v>
+        <v>15.02992016591648</v>
       </c>
       <c r="D21">
-        <v>5.753110795883557</v>
+        <v>5.747603946324171</v>
       </c>
       <c r="E21">
-        <v>6.819520316464072</v>
+        <v>8.268487758593853</v>
       </c>
       <c r="F21">
-        <v>22.42292834624998</v>
+        <v>26.30469024654416</v>
       </c>
       <c r="G21">
         <v>0</v>
       </c>
       <c r="H21">
-        <v>4.251792669778333</v>
+        <v>1.873929129035861</v>
       </c>
       <c r="I21">
-        <v>12.48153379221776</v>
+        <v>2.801267374918146</v>
       </c>
       <c r="J21">
-        <v>5.169973284886979</v>
+        <v>4.251792669778333</v>
       </c>
       <c r="K21">
-        <v>0</v>
+        <v>15.98567247987101</v>
       </c>
       <c r="L21">
-        <v>9.151789529757913</v>
+        <v>6.162692121829958</v>
       </c>
       <c r="M21">
         <v>0</v>
       </c>
       <c r="N21">
-        <v>0</v>
+        <v>9.042667236045631</v>
       </c>
       <c r="O21">
-        <v>15.86947809135555</v>
-      </c>
-    </row>
-    <row r="22" spans="1:15">
+        <v>0</v>
+      </c>
+      <c r="P21">
+        <v>12.39554365494678</v>
+      </c>
+      <c r="Q21">
+        <v>18.93218681432654</v>
+      </c>
+    </row>
+    <row r="22" spans="1:17">
       <c r="A22" s="1">
         <v>20</v>
       </c>
       <c r="B22">
-        <v>32.06572597966003</v>
+        <v>27.31193286034696</v>
       </c>
       <c r="C22">
-        <v>17.45931897790474</v>
+        <v>15.48023580292397</v>
       </c>
       <c r="D22">
-        <v>5.851153483837304</v>
+        <v>5.843292109543923</v>
       </c>
       <c r="E22">
-        <v>6.786618091430922</v>
+        <v>8.355006879999911</v>
       </c>
       <c r="F22">
-        <v>22.6976332411613</v>
+        <v>26.78792242496893</v>
       </c>
       <c r="G22">
         <v>0</v>
       </c>
       <c r="H22">
-        <v>4.251792669778333</v>
+        <v>2.039046207013107</v>
       </c>
       <c r="I22">
-        <v>12.2575770932404</v>
+        <v>2.922580303226494</v>
       </c>
       <c r="J22">
-        <v>5.112642433029559</v>
+        <v>4.251792669778333</v>
       </c>
       <c r="K22">
-        <v>0</v>
+        <v>16.04470712249768</v>
       </c>
       <c r="L22">
-        <v>9.365302902984364</v>
+        <v>6.195481522241643</v>
       </c>
       <c r="M22">
         <v>0</v>
       </c>
       <c r="N22">
-        <v>0</v>
+        <v>9.244170425170891</v>
       </c>
       <c r="O22">
-        <v>15.96687166081893</v>
-      </c>
-    </row>
-    <row r="23" spans="1:15">
+        <v>0</v>
+      </c>
+      <c r="P22">
+        <v>12.33507224411467</v>
+      </c>
+      <c r="Q22">
+        <v>19.21300529633013</v>
+      </c>
+    </row>
+    <row r="23" spans="1:17">
       <c r="A23" s="1">
         <v>21</v>
       </c>
       <c r="B23">
-        <v>31.46983033799776</v>
+        <v>26.8346247664119</v>
       </c>
       <c r="C23">
-        <v>17.1715570592282</v>
+        <v>15.22178886541282</v>
       </c>
       <c r="D23">
-        <v>5.798877054218405</v>
+        <v>5.790551333769002</v>
       </c>
       <c r="E23">
-        <v>6.80389198551596</v>
+        <v>8.311301958666725</v>
       </c>
       <c r="F23">
-        <v>22.54835902232208</v>
+        <v>26.55415532177041</v>
       </c>
       <c r="G23">
         <v>0</v>
       </c>
       <c r="H23">
-        <v>4.251792669778333</v>
+        <v>1.952212804871454</v>
       </c>
       <c r="I23">
-        <v>12.37520735437858</v>
+        <v>2.853440174789384</v>
       </c>
       <c r="J23">
-        <v>5.143172508480006</v>
+        <v>4.251792669778333</v>
       </c>
       <c r="K23">
-        <v>0</v>
+        <v>16.03132064998515</v>
       </c>
       <c r="L23">
-        <v>9.251688823991541</v>
+        <v>6.17920471587516</v>
       </c>
       <c r="M23">
         <v>0</v>
       </c>
       <c r="N23">
-        <v>0</v>
+        <v>9.132947755099021</v>
       </c>
       <c r="O23">
-        <v>15.91256356437841</v>
-      </c>
-    </row>
-    <row r="24" spans="1:15">
+        <v>0</v>
+      </c>
+      <c r="P23">
+        <v>12.36315254727929</v>
+      </c>
+      <c r="Q23">
+        <v>19.08165547394369</v>
+      </c>
+    </row>
+    <row r="24" spans="1:17">
       <c r="A24" s="1">
         <v>22</v>
       </c>
       <c r="B24">
-        <v>29.11411301843842</v>
+        <v>24.91857529618807</v>
       </c>
       <c r="C24">
-        <v>16.03936627583748</v>
+        <v>14.2392163828498</v>
       </c>
       <c r="D24">
-        <v>5.599885284093461</v>
+        <v>5.590999863542432</v>
       </c>
       <c r="E24">
-        <v>6.875495982584553</v>
+        <v>8.139473942088314</v>
       </c>
       <c r="F24">
-        <v>22.04058077948496</v>
+        <v>25.63132826844846</v>
       </c>
       <c r="G24">
         <v>0</v>
       </c>
       <c r="H24">
-        <v>4.251792669778333</v>
+        <v>1.614763672658569</v>
       </c>
       <c r="I24">
-        <v>12.86033752489645</v>
+        <v>2.59422262849703</v>
       </c>
       <c r="J24">
-        <v>5.260367171160549</v>
+        <v>4.251792669778333</v>
       </c>
       <c r="K24">
-        <v>0</v>
+        <v>15.96271491341514</v>
       </c>
       <c r="L24">
-        <v>8.814114546241951</v>
+        <v>6.114281848155461</v>
       </c>
       <c r="M24">
         <v>0</v>
       </c>
       <c r="N24">
-        <v>0</v>
+        <v>8.707891388770539</v>
       </c>
       <c r="O24">
-        <v>15.75670035150084</v>
-      </c>
-    </row>
-    <row r="25" spans="1:15">
+        <v>0</v>
+      </c>
+      <c r="P24">
+        <v>12.48121522873183</v>
+      </c>
+      <c r="Q24">
+        <v>18.56189055027261</v>
+      </c>
+    </row>
+    <row r="25" spans="1:17">
       <c r="A25" s="1">
         <v>23</v>
       </c>
       <c r="B25">
-        <v>26.35812390922945</v>
+        <v>22.66989532779059</v>
       </c>
       <c r="C25">
-        <v>14.72794654747816</v>
+        <v>13.10430703064589</v>
       </c>
       <c r="D25">
-        <v>5.383878682275006</v>
+        <v>5.370701616544951</v>
       </c>
       <c r="E25">
-        <v>6.965245690355282</v>
+        <v>7.948777818005929</v>
       </c>
       <c r="F25">
-        <v>21.61001280877677</v>
+        <v>24.64298028211268</v>
       </c>
       <c r="G25">
         <v>0</v>
       </c>
       <c r="H25">
-        <v>4.251792669778333</v>
+        <v>1.894120620738705</v>
       </c>
       <c r="I25">
-        <v>13.45627784626852</v>
+        <v>2.684495826902877</v>
       </c>
       <c r="J25">
-        <v>5.390505583965256</v>
+        <v>4.251792669778333</v>
       </c>
       <c r="K25">
-        <v>0</v>
+        <v>15.91423328857725</v>
       </c>
       <c r="L25">
-        <v>8.328285418625764</v>
+        <v>6.041079010187342</v>
       </c>
       <c r="M25">
         <v>0</v>
       </c>
       <c r="N25">
-        <v>0</v>
+        <v>8.228428158473278</v>
       </c>
       <c r="O25">
-        <v>15.68642656115859</v>
+        <v>0</v>
+      </c>
+      <c r="P25">
+        <v>12.6188344877015</v>
+      </c>
+      <c r="Q25">
+        <v>18.02023542790861</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_5_9/res_line/loading_percent.xlsx
+++ b/Code/Results/Cases/Case_5_9/res_line/loading_percent.xlsx
@@ -366,13 +366,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:Q25"/>
+  <dimension ref="A1:S25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:17">
+    <row r="1" spans="1:19">
       <c r="B1" s="1">
         <v>0</v>
       </c>
@@ -421,1277 +421,1427 @@
       <c r="Q1" s="1">
         <v>15</v>
       </c>
-    </row>
-    <row r="2" spans="1:17">
+      <c r="R1" s="1">
+        <v>16</v>
+      </c>
+      <c r="S1" s="1">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="2" spans="1:19">
       <c r="A2" s="1">
         <v>0</v>
       </c>
       <c r="B2">
-        <v>20.90109265698135</v>
+        <v>20.52416848175495</v>
       </c>
       <c r="C2">
-        <v>12.14753885658063</v>
+        <v>12.44946729895833</v>
       </c>
       <c r="D2">
-        <v>5.200214065358653</v>
+        <v>5.280375302344241</v>
       </c>
       <c r="E2">
-        <v>7.809961637404679</v>
+        <v>7.771517553294288</v>
       </c>
       <c r="F2">
-        <v>23.98948154677614</v>
+        <v>23.28760285825338</v>
       </c>
       <c r="G2">
         <v>0</v>
       </c>
       <c r="H2">
-        <v>2.192439412646492</v>
+        <v>2.098268660236094</v>
       </c>
       <c r="I2">
-        <v>2.888621709215918</v>
+        <v>2.772012835308347</v>
       </c>
       <c r="J2">
-        <v>4.251792669784106</v>
+        <v>5.716774528916059</v>
       </c>
       <c r="K2">
-        <v>15.94499703415495</v>
+        <v>15.30092202052579</v>
       </c>
       <c r="L2">
-        <v>5.987400876167131</v>
+        <v>12.80604854030066</v>
       </c>
       <c r="M2">
-        <v>0</v>
+        <v>9.857737973523003</v>
       </c>
       <c r="N2">
-        <v>7.847689043482466</v>
+        <v>5.944320816631208</v>
       </c>
       <c r="O2">
         <v>0</v>
       </c>
       <c r="P2">
-        <v>12.72059159532541</v>
+        <v>8.01769024020866</v>
       </c>
       <c r="Q2">
-        <v>17.68808417055845</v>
-      </c>
-    </row>
-    <row r="3" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R2">
+        <v>12.68231799044322</v>
+      </c>
+      <c r="S2">
+        <v>17.11795077770466</v>
+      </c>
+    </row>
+    <row r="3" spans="1:19">
       <c r="A3" s="1">
         <v>1</v>
       </c>
       <c r="B3">
-        <v>19.58143541535124</v>
+        <v>19.24337132429142</v>
       </c>
       <c r="C3">
-        <v>11.49076108973161</v>
+        <v>11.70568281164772</v>
       </c>
       <c r="D3">
-        <v>5.085622748339914</v>
+        <v>5.163531526154812</v>
       </c>
       <c r="E3">
-        <v>7.709456846690352</v>
+        <v>7.679794525049354</v>
       </c>
       <c r="F3">
-        <v>23.51839862630776</v>
+        <v>22.87581763571112</v>
       </c>
       <c r="G3">
         <v>0</v>
       </c>
       <c r="H3">
-        <v>2.405666656937885</v>
+        <v>2.299396705898415</v>
       </c>
       <c r="I3">
-        <v>3.051316908754881</v>
+        <v>2.9190469529166</v>
       </c>
       <c r="J3">
-        <v>4.251792669778333</v>
+        <v>5.716774528915655</v>
       </c>
       <c r="K3">
-        <v>15.95091599878276</v>
+        <v>15.3441187235344</v>
       </c>
       <c r="L3">
-        <v>5.947365946331555</v>
+        <v>12.92644438596526</v>
       </c>
       <c r="M3">
-        <v>0</v>
+        <v>9.818790024730269</v>
       </c>
       <c r="N3">
-        <v>7.586958409530328</v>
+        <v>5.906506370855674</v>
       </c>
       <c r="O3">
         <v>0</v>
       </c>
       <c r="P3">
-        <v>12.79950625823497</v>
+        <v>7.751144768180055</v>
       </c>
       <c r="Q3">
-        <v>17.44632207366644</v>
-      </c>
-    </row>
-    <row r="4" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R3">
+        <v>12.73663588189575</v>
+      </c>
+      <c r="S3">
+        <v>16.92042096501125</v>
+      </c>
+    </row>
+    <row r="4" spans="1:19">
       <c r="A4" s="1">
         <v>2</v>
       </c>
       <c r="B4">
-        <v>18.72246833467999</v>
+        <v>18.40864059585798</v>
       </c>
       <c r="C4">
-        <v>11.06952447638609</v>
+        <v>11.22764101037119</v>
       </c>
       <c r="D4">
-        <v>5.014675167867852</v>
+        <v>5.091316802789738</v>
       </c>
       <c r="E4">
-        <v>7.646188219677217</v>
+        <v>7.621991621747861</v>
       </c>
       <c r="F4">
-        <v>23.23255889630131</v>
+        <v>22.62579754145122</v>
       </c>
       <c r="G4">
         <v>0</v>
       </c>
       <c r="H4">
-        <v>2.541453705588927</v>
+        <v>2.427535243349516</v>
       </c>
       <c r="I4">
-        <v>3.155670875156563</v>
+        <v>3.013693742170742</v>
       </c>
       <c r="J4">
-        <v>4.251792669778333</v>
+        <v>5.716774528915655</v>
       </c>
       <c r="K4">
-        <v>15.95917067140104</v>
+        <v>15.37410557878959</v>
       </c>
       <c r="L4">
-        <v>5.921752479424094</v>
+        <v>13.000960474676</v>
       </c>
       <c r="M4">
-        <v>0</v>
+        <v>9.814946545112733</v>
       </c>
       <c r="N4">
-        <v>7.423063608940525</v>
+        <v>5.882281793049439</v>
       </c>
       <c r="O4">
         <v>0</v>
       </c>
       <c r="P4">
-        <v>12.85050343084545</v>
+        <v>7.58391734727915</v>
       </c>
       <c r="Q4">
-        <v>17.30263578913323</v>
-      </c>
-    </row>
-    <row r="5" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R4">
+        <v>12.77299430846589</v>
+      </c>
+      <c r="S4">
+        <v>16.80317796353216</v>
+      </c>
+    </row>
+    <row r="5" spans="1:19">
       <c r="A5" s="1">
         <v>3</v>
       </c>
       <c r="B5">
-        <v>18.35505221140913</v>
+        <v>18.0511537764134</v>
       </c>
       <c r="C5">
-        <v>10.90004160681556</v>
+        <v>11.03442917909086</v>
       </c>
       <c r="D5">
-        <v>4.986158979578802</v>
+        <v>5.062317643943248</v>
       </c>
       <c r="E5">
-        <v>7.619324607536759</v>
+        <v>7.597385469403732</v>
       </c>
       <c r="F5">
-        <v>23.11002290297372</v>
+        <v>22.51770446241008</v>
       </c>
       <c r="G5">
         <v>0</v>
       </c>
       <c r="H5">
-        <v>2.598354047845679</v>
+        <v>2.48125605090451</v>
       </c>
       <c r="I5">
-        <v>3.202117541610316</v>
+        <v>3.056652733262454</v>
       </c>
       <c r="J5">
-        <v>4.251792669778333</v>
+        <v>5.716774528915655</v>
       </c>
       <c r="K5">
-        <v>15.95878996779104</v>
+        <v>15.38242585677792</v>
       </c>
       <c r="L5">
-        <v>5.910696981138022</v>
+        <v>13.0270964733116</v>
       </c>
       <c r="M5">
-        <v>0</v>
+        <v>9.815652872673624</v>
       </c>
       <c r="N5">
-        <v>7.356663785065469</v>
+        <v>5.871817206394028</v>
       </c>
       <c r="O5">
         <v>0</v>
       </c>
       <c r="P5">
-        <v>12.87261535015081</v>
+        <v>7.516224484060007</v>
       </c>
       <c r="Q5">
-        <v>17.23999369495102</v>
-      </c>
-    </row>
-    <row r="6" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R5">
+        <v>12.78936321929964</v>
+      </c>
+      <c r="S5">
+        <v>16.75114616154337</v>
+      </c>
+    </row>
+    <row r="6" spans="1:19">
       <c r="A6" s="1">
         <v>4</v>
       </c>
       <c r="B6">
-        <v>18.28695323561606</v>
+        <v>17.98468637133523</v>
       </c>
       <c r="C6">
-        <v>10.87973889895644</v>
+        <v>11.01045966352452</v>
       </c>
       <c r="D6">
-        <v>4.982049339648266</v>
+        <v>5.058131610290503</v>
       </c>
       <c r="E6">
-        <v>7.61399575463346</v>
+        <v>7.592448170482273</v>
       </c>
       <c r="F6">
-        <v>23.08114903087906</v>
+        <v>22.49125082782219</v>
       </c>
       <c r="G6">
         <v>0</v>
       </c>
       <c r="H6">
-        <v>2.608275656268205</v>
+        <v>2.490638983053988</v>
       </c>
       <c r="I6">
-        <v>3.213488149674961</v>
+        <v>3.068092770446222</v>
       </c>
       <c r="J6">
-        <v>4.251792669778333</v>
+        <v>5.716774528915655</v>
       </c>
       <c r="K6">
-        <v>15.95283827979999</v>
+        <v>15.37806557684515</v>
       </c>
       <c r="L6">
-        <v>5.90841225695905</v>
+        <v>13.02609790484031</v>
       </c>
       <c r="M6">
-        <v>0</v>
+        <v>9.812697305479306</v>
       </c>
       <c r="N6">
-        <v>7.34714457249687</v>
+        <v>5.869653834231833</v>
       </c>
       <c r="O6">
         <v>0</v>
       </c>
       <c r="P6">
-        <v>12.87718881119225</v>
+        <v>7.506491511146544</v>
       </c>
       <c r="Q6">
-        <v>17.22317140621441</v>
-      </c>
-    </row>
-    <row r="7" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R6">
+        <v>12.79312421904849</v>
+      </c>
+      <c r="S6">
+        <v>16.73611463159408</v>
+      </c>
+    </row>
+    <row r="7" spans="1:19">
       <c r="A7" s="1">
         <v>5</v>
       </c>
       <c r="B7">
-        <v>18.70060078902329</v>
+        <v>18.38685907115552</v>
       </c>
       <c r="C7">
-        <v>11.08898911997036</v>
+        <v>11.24763734268442</v>
       </c>
       <c r="D7">
-        <v>5.016005046074332</v>
+        <v>5.092645843456612</v>
       </c>
       <c r="E7">
-        <v>7.643542966578321</v>
+        <v>7.61942124983581</v>
       </c>
       <c r="F7">
-        <v>23.20760534699692</v>
+        <v>22.60114754291468</v>
       </c>
       <c r="G7">
         <v>0</v>
       </c>
       <c r="H7">
-        <v>2.543284332149506</v>
+        <v>2.429302867197664</v>
       </c>
       <c r="I7">
-        <v>3.165805485284408</v>
+        <v>3.025490639070757</v>
       </c>
       <c r="J7">
-        <v>4.251792669778333</v>
+        <v>5.712988455786178</v>
       </c>
       <c r="K7">
-        <v>15.94291291923756</v>
+        <v>15.35844790904072</v>
       </c>
       <c r="L7">
-        <v>5.920437586283177</v>
+        <v>12.98706905776283</v>
       </c>
       <c r="M7">
-        <v>0</v>
+        <v>9.805340171226126</v>
       </c>
       <c r="N7">
-        <v>7.426378614619384</v>
+        <v>5.881040243568948</v>
       </c>
       <c r="O7">
         <v>0</v>
       </c>
       <c r="P7">
-        <v>12.85322885583608</v>
+        <v>7.587208178121872</v>
       </c>
       <c r="Q7">
-        <v>17.28413305650981</v>
-      </c>
-    </row>
-    <row r="8" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R7">
+        <v>12.77602276374399</v>
+      </c>
+      <c r="S7">
+        <v>16.78494742613081</v>
+      </c>
+    </row>
+    <row r="8" spans="1:19">
       <c r="A8" s="1">
         <v>6</v>
       </c>
       <c r="B8">
-        <v>20.43543291643336</v>
+        <v>20.07178458854927</v>
       </c>
       <c r="C8">
-        <v>11.95185820248535</v>
+        <v>12.22545449252246</v>
       </c>
       <c r="D8">
-        <v>5.163054783903362</v>
+        <v>5.242428243986528</v>
       </c>
       <c r="E8">
-        <v>7.772706516455798</v>
+        <v>7.737339733270041</v>
       </c>
       <c r="F8">
-        <v>23.79635917470912</v>
+        <v>23.11522336035986</v>
       </c>
       <c r="G8">
         <v>0</v>
       </c>
       <c r="H8">
-        <v>2.266293806746572</v>
+        <v>2.167965946346567</v>
       </c>
       <c r="I8">
-        <v>2.956045086831816</v>
+        <v>2.836262306316006</v>
       </c>
       <c r="J8">
-        <v>4.251792669778333</v>
+        <v>5.711640832521052</v>
       </c>
       <c r="K8">
-        <v>15.92466159055314</v>
+        <v>15.29444944163808</v>
       </c>
       <c r="L8">
-        <v>5.972331586155058</v>
+        <v>12.83009329555668</v>
       </c>
       <c r="M8">
-        <v>0</v>
+        <v>9.825963183797997</v>
       </c>
       <c r="N8">
-        <v>7.763976756602127</v>
+        <v>5.930110512135451</v>
       </c>
       <c r="O8">
         <v>0</v>
       </c>
       <c r="P8">
-        <v>12.75078926583682</v>
+        <v>7.931930492308008</v>
       </c>
       <c r="Q8">
-        <v>17.58082456147158</v>
-      </c>
-    </row>
-    <row r="9" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R8">
+        <v>12.70449459662952</v>
+      </c>
+      <c r="S8">
+        <v>17.02630030882366</v>
+      </c>
+    </row>
+    <row r="9" spans="1:19">
       <c r="A9" s="1">
         <v>7</v>
       </c>
       <c r="B9">
-        <v>23.4766771063908</v>
+        <v>23.01898135785252</v>
       </c>
       <c r="C9">
-        <v>13.46354833997856</v>
+        <v>13.93445996020541</v>
       </c>
       <c r="D9">
-        <v>5.442645154956108</v>
+        <v>5.528155399739893</v>
       </c>
       <c r="E9">
-        <v>8.01749967941749</v>
+        <v>7.960620718542184</v>
       </c>
       <c r="F9">
-        <v>25.01345994357963</v>
+        <v>24.18231413738172</v>
       </c>
       <c r="G9">
         <v>0</v>
       </c>
       <c r="H9">
-        <v>1.759178893431703</v>
+        <v>1.689926384929452</v>
       </c>
       <c r="I9">
-        <v>2.563999460867421</v>
+        <v>2.485556092632458</v>
       </c>
       <c r="J9">
-        <v>4.251792669778333</v>
+        <v>5.712301332179654</v>
       </c>
       <c r="K9">
-        <v>15.95604075185938</v>
+        <v>15.22572841575608</v>
       </c>
       <c r="L9">
-        <v>6.068050000675107</v>
+        <v>12.54954177294622</v>
       </c>
       <c r="M9">
-        <v>0</v>
+        <v>10.04508450271565</v>
       </c>
       <c r="N9">
-        <v>8.385807500372557</v>
+        <v>6.020357087076746</v>
       </c>
       <c r="O9">
         <v>0</v>
       </c>
       <c r="P9">
-        <v>12.56572288545204</v>
+        <v>8.569274634545062</v>
       </c>
       <c r="Q9">
-        <v>18.23003067746955</v>
-      </c>
-    </row>
-    <row r="10" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R9">
+        <v>12.58310829950288</v>
+      </c>
+      <c r="S9">
+        <v>17.56184267900545</v>
+      </c>
+    </row>
+    <row r="10" spans="1:19">
       <c r="A10" s="1">
         <v>8</v>
       </c>
       <c r="B10">
-        <v>25.41423275319616</v>
+        <v>24.89541304251039</v>
       </c>
       <c r="C10">
-        <v>14.51028988413002</v>
+        <v>15.10396849444376</v>
       </c>
       <c r="D10">
-        <v>5.61369726904261</v>
+        <v>5.703236229089532</v>
       </c>
       <c r="E10">
-        <v>8.133211599116951</v>
+        <v>8.063482537320693</v>
       </c>
       <c r="F10">
-        <v>25.77282263515617</v>
+        <v>24.84014400592677</v>
       </c>
       <c r="G10">
         <v>0</v>
       </c>
       <c r="H10">
-        <v>1.703798170543338</v>
+        <v>1.751553771483623</v>
       </c>
       <c r="I10">
-        <v>2.656185893048595</v>
+        <v>2.720922320869827</v>
       </c>
       <c r="J10">
-        <v>4.251792669778333</v>
+        <v>5.744419754315621</v>
       </c>
       <c r="K10">
-        <v>15.93412165103119</v>
+        <v>15.13347995148956</v>
       </c>
       <c r="L10">
-        <v>6.120449783924535</v>
+        <v>12.30197438795224</v>
       </c>
       <c r="M10">
-        <v>0</v>
+        <v>10.24898042929382</v>
       </c>
       <c r="N10">
-        <v>8.738797670277904</v>
+        <v>6.071151514785011</v>
       </c>
       <c r="O10">
         <v>0</v>
       </c>
       <c r="P10">
-        <v>12.45907725106868</v>
+        <v>8.932562057257361</v>
       </c>
       <c r="Q10">
-        <v>18.63858420186666</v>
-      </c>
-    </row>
-    <row r="11" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R10">
+        <v>12.52661267812873</v>
+      </c>
+      <c r="S10">
+        <v>17.89220399935139</v>
+      </c>
+    </row>
+    <row r="11" spans="1:19">
       <c r="A11" s="1">
         <v>9</v>
       </c>
       <c r="B11">
-        <v>25.77120304099673</v>
+        <v>25.26724679069175</v>
       </c>
       <c r="C11">
-        <v>15.14514652833135</v>
+        <v>15.73859843638846</v>
       </c>
       <c r="D11">
-        <v>5.434064221669633</v>
+        <v>5.518387813723987</v>
       </c>
       <c r="E11">
-        <v>7.767584179387904</v>
+        <v>7.714499928679</v>
       </c>
       <c r="F11">
-        <v>24.94552441189589</v>
+        <v>24.04337360239355</v>
       </c>
       <c r="G11">
         <v>0</v>
       </c>
       <c r="H11">
-        <v>2.701083118715765</v>
+        <v>2.728752796452126</v>
       </c>
       <c r="I11">
-        <v>2.733181812547051</v>
+        <v>2.794133033055425</v>
       </c>
       <c r="J11">
-        <v>4.251792669778333</v>
+        <v>5.942780798806009</v>
       </c>
       <c r="K11">
-        <v>15.36453339490816</v>
+        <v>14.60718097264315</v>
       </c>
       <c r="L11">
-        <v>6.073403528717004</v>
+        <v>11.85445217805172</v>
       </c>
       <c r="M11">
-        <v>0</v>
+        <v>9.94424134813069</v>
       </c>
       <c r="N11">
-        <v>8.198628767134661</v>
+        <v>6.042824375166098</v>
       </c>
       <c r="O11">
         <v>0</v>
       </c>
       <c r="P11">
-        <v>12.55712240827235</v>
+        <v>8.382511860432508</v>
       </c>
       <c r="Q11">
-        <v>18.10071801531912</v>
-      </c>
-    </row>
-    <row r="12" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R11">
+        <v>12.65196085316775</v>
+      </c>
+      <c r="S11">
+        <v>17.37948278229529</v>
+      </c>
+    </row>
+    <row r="12" spans="1:19">
       <c r="A12" s="1">
         <v>10</v>
       </c>
       <c r="B12">
-        <v>25.69333296114305</v>
+        <v>25.21520188325257</v>
       </c>
       <c r="C12">
-        <v>15.44246864572498</v>
+        <v>16.00900905675394</v>
       </c>
       <c r="D12">
-        <v>5.245116710771733</v>
+        <v>5.323979933751905</v>
       </c>
       <c r="E12">
-        <v>7.533880152318553</v>
+        <v>7.497977568034016</v>
       </c>
       <c r="F12">
-        <v>24.10219067659591</v>
+        <v>23.24804060219837</v>
       </c>
       <c r="G12">
         <v>0</v>
       </c>
       <c r="H12">
-        <v>4.033182588550907</v>
+        <v>4.05147686917584</v>
       </c>
       <c r="I12">
-        <v>2.741592657009217</v>
+        <v>2.802133710152896</v>
       </c>
       <c r="J12">
-        <v>4.251792669778333</v>
+        <v>6.092466875987244</v>
       </c>
       <c r="K12">
-        <v>14.91200890358465</v>
+        <v>14.20632125240255</v>
       </c>
       <c r="L12">
-        <v>6.080384874317095</v>
+        <v>11.55604378479604</v>
       </c>
       <c r="M12">
-        <v>0</v>
+        <v>9.650451078664165</v>
       </c>
       <c r="N12">
-        <v>7.668365350082394</v>
+        <v>6.064866409781938</v>
       </c>
       <c r="O12">
         <v>0</v>
       </c>
       <c r="P12">
-        <v>12.67087002826288</v>
+        <v>7.841020868082548</v>
       </c>
       <c r="Q12">
-        <v>17.57356622710034</v>
-      </c>
-    </row>
-    <row r="13" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R12">
+        <v>12.77506107280404</v>
+      </c>
+      <c r="S12">
+        <v>16.89072547001792</v>
+      </c>
+    </row>
+    <row r="13" spans="1:19">
       <c r="A13" s="1">
         <v>11</v>
       </c>
       <c r="B13">
-        <v>25.25424423506011</v>
+        <v>24.81284113824509</v>
       </c>
       <c r="C13">
-        <v>15.53296514565458</v>
+        <v>16.0508170148798</v>
       </c>
       <c r="D13">
-        <v>5.038350423845936</v>
+        <v>5.111292931322205</v>
       </c>
       <c r="E13">
-        <v>7.390218151035005</v>
+        <v>7.371899982282152</v>
       </c>
       <c r="F13">
-        <v>23.15042520009943</v>
+        <v>22.36168864668042</v>
       </c>
       <c r="G13">
         <v>0</v>
       </c>
       <c r="H13">
-        <v>5.480448465713422</v>
+        <v>5.467583204649135</v>
       </c>
       <c r="I13">
-        <v>2.702993468360328</v>
+        <v>2.767314055213741</v>
       </c>
       <c r="J13">
-        <v>4.251792669778333</v>
+        <v>6.056017976358584</v>
       </c>
       <c r="K13">
-        <v>14.49857784070727</v>
+        <v>13.8547451314506</v>
       </c>
       <c r="L13">
-        <v>6.125205393897482</v>
+        <v>11.32808278199312</v>
       </c>
       <c r="M13">
-        <v>0</v>
+        <v>9.331598074045589</v>
       </c>
       <c r="N13">
-        <v>7.113772174078764</v>
+        <v>6.122075620300587</v>
       </c>
       <c r="O13">
         <v>0</v>
       </c>
       <c r="P13">
-        <v>12.80308227086898</v>
+        <v>7.273520481849399</v>
       </c>
       <c r="Q13">
-        <v>16.99089153254613</v>
-      </c>
-    </row>
-    <row r="14" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R13">
+        <v>12.90410020679012</v>
+      </c>
+      <c r="S13">
+        <v>16.35978753685656</v>
+      </c>
+    </row>
+    <row r="14" spans="1:19">
       <c r="A14" s="1">
         <v>12</v>
       </c>
       <c r="B14">
-        <v>24.77288951245466</v>
+        <v>24.36262480638295</v>
       </c>
       <c r="C14">
-        <v>15.50935315508453</v>
+        <v>15.98271296856995</v>
       </c>
       <c r="D14">
-        <v>4.886303402694925</v>
+        <v>4.954945583453181</v>
       </c>
       <c r="E14">
-        <v>7.346743824262471</v>
+        <v>7.340158467039558</v>
       </c>
       <c r="F14">
-        <v>22.42598569032901</v>
+        <v>21.69115545955075</v>
       </c>
       <c r="G14">
         <v>0</v>
       </c>
       <c r="H14">
-        <v>6.50579612846873</v>
+        <v>6.493613204591943</v>
       </c>
       <c r="I14">
-        <v>2.656104518845894</v>
+        <v>2.725283389736712</v>
       </c>
       <c r="J14">
-        <v>4.251792669778333</v>
+        <v>5.953276842055249</v>
       </c>
       <c r="K14">
-        <v>14.22655820286599</v>
+        <v>13.63007942039412</v>
       </c>
       <c r="L14">
-        <v>6.179405596359589</v>
+        <v>11.19544992186194</v>
       </c>
       <c r="M14">
-        <v>0</v>
+        <v>9.099673820487327</v>
       </c>
       <c r="N14">
-        <v>6.717134950805553</v>
+        <v>6.183201603795515</v>
       </c>
       <c r="O14">
         <v>0</v>
       </c>
       <c r="P14">
-        <v>12.90487312927687</v>
+        <v>6.867125093124939</v>
       </c>
       <c r="Q14">
-        <v>16.55233744322094</v>
-      </c>
-    </row>
-    <row r="15" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R14">
+        <v>12.99796458371871</v>
+      </c>
+      <c r="S14">
+        <v>15.96357876543067</v>
+      </c>
+    </row>
+    <row r="15" spans="1:19">
       <c r="A15" s="1">
         <v>13</v>
       </c>
       <c r="B15">
-        <v>24.57158131185249</v>
+        <v>24.17128289680038</v>
       </c>
       <c r="C15">
-        <v>15.4661831874356</v>
+        <v>15.92413508935017</v>
       </c>
       <c r="D15">
-        <v>4.84585750947699</v>
+        <v>4.913407767637316</v>
       </c>
       <c r="E15">
-        <v>7.341697775798771</v>
+        <v>7.33790642985122</v>
       </c>
       <c r="F15">
-        <v>22.22071698873979</v>
+        <v>21.50263535529441</v>
       </c>
       <c r="G15">
         <v>0</v>
       </c>
       <c r="H15">
-        <v>6.743759448551634</v>
+        <v>6.731395536842596</v>
       </c>
       <c r="I15">
-        <v>2.63606807586923</v>
+        <v>2.707862953899194</v>
       </c>
       <c r="J15">
-        <v>4.251792669778333</v>
+        <v>5.901744702216713</v>
       </c>
       <c r="K15">
-        <v>14.16437735478126</v>
+        <v>13.58146487172782</v>
       </c>
       <c r="L15">
-        <v>6.193088494725182</v>
+        <v>11.17206825512522</v>
       </c>
       <c r="M15">
-        <v>0</v>
+        <v>9.037044954247415</v>
       </c>
       <c r="N15">
-        <v>6.615749959828032</v>
+        <v>6.198116336825103</v>
       </c>
       <c r="O15">
         <v>0</v>
       </c>
       <c r="P15">
-        <v>12.93306448711912</v>
+        <v>6.763175076389272</v>
       </c>
       <c r="Q15">
-        <v>16.42935520084748</v>
-      </c>
-    </row>
-    <row r="16" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R15">
+        <v>13.02200213403253</v>
+      </c>
+      <c r="S15">
+        <v>15.85366175320356</v>
+      </c>
+    </row>
+    <row r="16" spans="1:19">
       <c r="A16" s="1">
         <v>14</v>
       </c>
       <c r="B16">
-        <v>23.82575460134574</v>
+        <v>23.44634184385816</v>
       </c>
       <c r="C16">
-        <v>15.03736819333833</v>
+        <v>15.45259824076287</v>
       </c>
       <c r="D16">
-        <v>4.81160010316639</v>
+        <v>4.878803102793621</v>
       </c>
       <c r="E16">
-        <v>7.315481479615546</v>
+        <v>7.312140148059123</v>
       </c>
       <c r="F16">
-        <v>22.04865325024226</v>
+        <v>21.36213538233189</v>
       </c>
       <c r="G16">
         <v>0</v>
       </c>
       <c r="H16">
-        <v>6.540133634266375</v>
+        <v>6.524257042626296</v>
       </c>
       <c r="I16">
-        <v>2.536442781200388</v>
+        <v>2.618011946520468</v>
       </c>
       <c r="J16">
-        <v>4.251792669778333</v>
+        <v>5.738831790925769</v>
       </c>
       <c r="K16">
-        <v>14.25080836328</v>
+        <v>13.68395747109963</v>
       </c>
       <c r="L16">
-        <v>6.156850574048196</v>
+        <v>11.28842311954668</v>
       </c>
       <c r="M16">
-        <v>0</v>
+        <v>9.020895561159378</v>
       </c>
       <c r="N16">
-        <v>6.562226019098884</v>
+        <v>6.158681802363033</v>
       </c>
       <c r="O16">
         <v>0</v>
       </c>
       <c r="P16">
-        <v>12.94046947989105</v>
+        <v>6.708387786148509</v>
       </c>
       <c r="Q16">
-        <v>16.34855876994794</v>
-      </c>
-    </row>
-    <row r="17" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R16">
+        <v>13.00845354177676</v>
+      </c>
+      <c r="S16">
+        <v>15.79670339329542</v>
+      </c>
+    </row>
+    <row r="17" spans="1:19">
       <c r="A17" s="1">
         <v>15</v>
       </c>
       <c r="B17">
-        <v>23.51025925985493</v>
+        <v>23.12963059862066</v>
       </c>
       <c r="C17">
-        <v>14.7152974348631</v>
+        <v>15.12183796411626</v>
       </c>
       <c r="D17">
-        <v>4.866829833189733</v>
+        <v>4.936006248901167</v>
       </c>
       <c r="E17">
-        <v>7.30863425374689</v>
+        <v>7.299988969577383</v>
       </c>
       <c r="F17">
-        <v>22.30898687868019</v>
+        <v>21.61760193000603</v>
       </c>
       <c r="G17">
         <v>0</v>
       </c>
       <c r="H17">
-        <v>5.808226710156623</v>
+        <v>5.788369275184661</v>
       </c>
       <c r="I17">
-        <v>2.532190023818985</v>
+        <v>2.571722290241362</v>
       </c>
       <c r="J17">
-        <v>4.251792669778333</v>
+        <v>5.713305037326999</v>
       </c>
       <c r="K17">
-        <v>14.45943049535365</v>
+        <v>13.88035457257338</v>
       </c>
       <c r="L17">
-        <v>6.096037378987703</v>
+        <v>11.45404878342596</v>
       </c>
       <c r="M17">
-        <v>0</v>
+        <v>9.127742770948529</v>
       </c>
       <c r="N17">
-        <v>6.733879563446492</v>
+        <v>6.092170132929494</v>
       </c>
       <c r="O17">
         <v>0</v>
       </c>
       <c r="P17">
-        <v>12.89388750681063</v>
+        <v>6.884143843260191</v>
       </c>
       <c r="Q17">
-        <v>16.52333582546901</v>
-      </c>
-    </row>
-    <row r="18" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R17">
+        <v>12.95021788833374</v>
+      </c>
+      <c r="S17">
+        <v>15.96700224025764</v>
+      </c>
+    </row>
+    <row r="18" spans="1:19">
       <c r="A18" s="1">
         <v>16</v>
       </c>
       <c r="B18">
-        <v>23.55149296107298</v>
+        <v>23.15049414566267</v>
       </c>
       <c r="C18">
-        <v>14.43841868642041</v>
+        <v>14.86465362487738</v>
       </c>
       <c r="D18">
-        <v>5.006612444488863</v>
+        <v>5.079915078013386</v>
       </c>
       <c r="E18">
-        <v>7.374364747131137</v>
+        <v>7.354137211216143</v>
       </c>
       <c r="F18">
-        <v>22.98331513737817</v>
+        <v>22.25541219691338</v>
       </c>
       <c r="G18">
         <v>0</v>
       </c>
       <c r="H18">
-        <v>4.561481645740692</v>
+        <v>4.53565758461388</v>
       </c>
       <c r="I18">
-        <v>2.53820583914175</v>
+        <v>2.553077066843756</v>
       </c>
       <c r="J18">
-        <v>4.251792669778333</v>
+        <v>5.711150574177133</v>
       </c>
       <c r="K18">
-        <v>14.81114831591002</v>
+        <v>14.19391936787383</v>
       </c>
       <c r="L18">
-        <v>6.033411518361169</v>
+        <v>11.69628405436247</v>
       </c>
       <c r="M18">
-        <v>0</v>
+        <v>9.354087675314982</v>
       </c>
       <c r="N18">
-        <v>7.12722070313977</v>
+        <v>6.020140901849552</v>
       </c>
       <c r="O18">
         <v>0</v>
       </c>
       <c r="P18">
-        <v>12.79709048294634</v>
+        <v>7.286281416454517</v>
       </c>
       <c r="Q18">
-        <v>16.94700204729695</v>
-      </c>
-    </row>
-    <row r="19" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R18">
+        <v>12.84709213655179</v>
+      </c>
+      <c r="S18">
+        <v>16.36155499543272</v>
+      </c>
+    </row>
+    <row r="19" spans="1:19">
       <c r="A19" s="1">
         <v>17</v>
       </c>
       <c r="B19">
-        <v>23.84862779063323</v>
+        <v>23.41394560343271</v>
       </c>
       <c r="C19">
-        <v>14.25754235920781</v>
+        <v>14.7249051252339</v>
       </c>
       <c r="D19">
-        <v>5.209735829794015</v>
+        <v>5.288635567431623</v>
       </c>
       <c r="E19">
-        <v>7.571526204631611</v>
+        <v>7.534764998201579</v>
       </c>
       <c r="F19">
-        <v>23.8971610243384</v>
+        <v>23.11056614218144</v>
       </c>
       <c r="G19">
         <v>0</v>
       </c>
       <c r="H19">
-        <v>3.084253914071766</v>
+        <v>3.048202059399001</v>
       </c>
       <c r="I19">
-        <v>2.522963572913483</v>
+        <v>2.573080000373382</v>
       </c>
       <c r="J19">
-        <v>4.251792669778333</v>
+        <v>5.711490394033017</v>
       </c>
       <c r="K19">
-        <v>15.23353774546295</v>
+        <v>14.56073380276003</v>
       </c>
       <c r="L19">
-        <v>6.013519915128052</v>
+        <v>11.97004398691043</v>
       </c>
       <c r="M19">
-        <v>0</v>
+        <v>9.642198543729004</v>
       </c>
       <c r="N19">
-        <v>7.687238622018135</v>
+        <v>5.987385415853053</v>
       </c>
       <c r="O19">
         <v>0</v>
       </c>
       <c r="P19">
-        <v>12.68195632466831</v>
+        <v>7.85807792797012</v>
       </c>
       <c r="Q19">
-        <v>17.50693440817119</v>
-      </c>
-    </row>
-    <row r="20" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R19">
+        <v>12.72965497262158</v>
+      </c>
+      <c r="S19">
+        <v>16.87520316999397</v>
+      </c>
+    </row>
+    <row r="20" spans="1:19">
       <c r="A20" s="1">
         <v>18</v>
       </c>
       <c r="B20">
-        <v>24.87739591426933</v>
+        <v>24.37468300959706</v>
       </c>
       <c r="C20">
-        <v>14.29744891472942</v>
+        <v>14.8612038803195</v>
       </c>
       <c r="D20">
-        <v>5.572605962057142</v>
+        <v>5.661078152634119</v>
       </c>
       <c r="E20">
-        <v>8.094414745604526</v>
+        <v>8.028301852565509</v>
       </c>
       <c r="F20">
-        <v>25.50127931740014</v>
+        <v>24.59616013987644</v>
       </c>
       <c r="G20">
         <v>0</v>
       </c>
       <c r="H20">
-        <v>1.612095310174744</v>
+        <v>1.665096022291173</v>
       </c>
       <c r="I20">
-        <v>2.601523889426585</v>
+        <v>2.675696888457768</v>
       </c>
       <c r="J20">
-        <v>4.251792669778333</v>
+        <v>5.714445660903893</v>
       </c>
       <c r="K20">
-        <v>15.8859037726982</v>
+        <v>15.10670810960178</v>
       </c>
       <c r="L20">
-        <v>6.103269133391244</v>
+        <v>12.33080098402181</v>
       </c>
       <c r="M20">
-        <v>0</v>
+        <v>10.149174372995</v>
       </c>
       <c r="N20">
-        <v>8.65510826939885</v>
+        <v>6.054742549210699</v>
       </c>
       <c r="O20">
         <v>0</v>
       </c>
       <c r="P20">
-        <v>12.49658193518308</v>
+        <v>8.846123483075017</v>
       </c>
       <c r="Q20">
-        <v>18.47527700428127</v>
-      </c>
-    </row>
-    <row r="21" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R20">
+        <v>12.55230900177023</v>
+      </c>
+      <c r="S20">
+        <v>17.75042983461505</v>
+      </c>
+    </row>
+    <row r="21" spans="1:19">
       <c r="A21" s="1">
         <v>19</v>
       </c>
       <c r="B21">
-        <v>26.38286230594</v>
+        <v>25.82680834506877</v>
       </c>
       <c r="C21">
-        <v>15.02992016591648</v>
+        <v>15.69180944013003</v>
       </c>
       <c r="D21">
-        <v>5.747603946324171</v>
+        <v>5.840465338042251</v>
       </c>
       <c r="E21">
-        <v>8.268487758593853</v>
+        <v>8.188799120060516</v>
       </c>
       <c r="F21">
-        <v>26.30469024654416</v>
+        <v>25.30834090880222</v>
       </c>
       <c r="G21">
         <v>0</v>
       </c>
       <c r="H21">
-        <v>1.873929129035861</v>
+        <v>1.911740480819933</v>
       </c>
       <c r="I21">
-        <v>2.801267374918146</v>
+        <v>2.8565809825974</v>
       </c>
       <c r="J21">
-        <v>4.251792669778333</v>
+        <v>6.072890156015649</v>
       </c>
       <c r="K21">
-        <v>15.98567247987101</v>
+        <v>15.13703823608559</v>
       </c>
       <c r="L21">
-        <v>6.162692121829958</v>
+        <v>12.21115630682297</v>
       </c>
       <c r="M21">
-        <v>0</v>
+        <v>10.40956444243067</v>
       </c>
       <c r="N21">
-        <v>9.042667236045631</v>
+        <v>6.109482624067244</v>
       </c>
       <c r="O21">
         <v>0</v>
       </c>
       <c r="P21">
-        <v>12.39554365494678</v>
+        <v>9.244182678106604</v>
       </c>
       <c r="Q21">
-        <v>18.93218681432654</v>
-      </c>
-    </row>
-    <row r="22" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R21">
+        <v>12.48949542848047</v>
+      </c>
+      <c r="S21">
+        <v>18.13619903082311</v>
+      </c>
+    </row>
+    <row r="22" spans="1:19">
       <c r="A22" s="1">
         <v>20</v>
       </c>
       <c r="B22">
-        <v>27.31193286034696</v>
+        <v>26.72417625895892</v>
       </c>
       <c r="C22">
-        <v>15.48023580292397</v>
+        <v>16.19965678371282</v>
       </c>
       <c r="D22">
-        <v>5.843292109543923</v>
+        <v>5.93860848987963</v>
       </c>
       <c r="E22">
-        <v>8.355006879999911</v>
+        <v>8.267721623808111</v>
       </c>
       <c r="F22">
-        <v>26.78792242496893</v>
+        <v>25.73663578102615</v>
       </c>
       <c r="G22">
         <v>0</v>
       </c>
       <c r="H22">
-        <v>2.039046207013107</v>
+        <v>2.067081702127778</v>
       </c>
       <c r="I22">
-        <v>2.922580303226494</v>
+        <v>2.964725695032854</v>
       </c>
       <c r="J22">
-        <v>4.251792669778333</v>
+        <v>6.613666634130157</v>
       </c>
       <c r="K22">
-        <v>16.04470712249768</v>
+        <v>15.15304790573528</v>
       </c>
       <c r="L22">
-        <v>6.195481522241643</v>
+        <v>12.12619368069056</v>
       </c>
       <c r="M22">
-        <v>0</v>
+        <v>10.58933614891982</v>
       </c>
       <c r="N22">
-        <v>9.244170425170891</v>
+        <v>6.140233756823788</v>
       </c>
       <c r="O22">
         <v>0</v>
       </c>
       <c r="P22">
-        <v>12.33507224411467</v>
+        <v>9.451692173733175</v>
       </c>
       <c r="Q22">
-        <v>19.21300529633013</v>
-      </c>
-    </row>
-    <row r="23" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R22">
+        <v>12.45414528892925</v>
+      </c>
+      <c r="S22">
+        <v>18.37384418002669</v>
+      </c>
+    </row>
+    <row r="23" spans="1:19">
       <c r="A23" s="1">
         <v>21</v>
       </c>
       <c r="B23">
-        <v>26.8346247664119</v>
+        <v>26.26370142859866</v>
       </c>
       <c r="C23">
-        <v>15.22178886541282</v>
+        <v>15.9102602158839</v>
       </c>
       <c r="D23">
-        <v>5.790551333769002</v>
+        <v>5.88454181794533</v>
       </c>
       <c r="E23">
-        <v>8.311301958666725</v>
+        <v>8.227993006388463</v>
       </c>
       <c r="F23">
-        <v>26.55415532177041</v>
+        <v>25.53193671043726</v>
       </c>
       <c r="G23">
         <v>0</v>
       </c>
       <c r="H23">
-        <v>1.952212804871454</v>
+        <v>1.985421090719267</v>
       </c>
       <c r="I23">
-        <v>2.853440174789384</v>
+        <v>2.90126219160656</v>
       </c>
       <c r="J23">
-        <v>4.251792669778333</v>
+        <v>6.216599296839356</v>
       </c>
       <c r="K23">
-        <v>16.03132064998515</v>
+        <v>15.16184276930495</v>
       </c>
       <c r="L23">
-        <v>6.17920471587516</v>
+        <v>12.1835573128612</v>
       </c>
       <c r="M23">
-        <v>0</v>
+        <v>10.5071025036112</v>
       </c>
       <c r="N23">
-        <v>9.132947755099021</v>
+        <v>6.124928402972932</v>
       </c>
       <c r="O23">
         <v>0</v>
       </c>
       <c r="P23">
-        <v>12.36315254727929</v>
+        <v>9.337248510029507</v>
       </c>
       <c r="Q23">
-        <v>19.08165547394369</v>
-      </c>
-    </row>
-    <row r="24" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R23">
+        <v>12.46817442420231</v>
+      </c>
+      <c r="S23">
+        <v>18.26529666177991</v>
+      </c>
+    </row>
+    <row r="24" spans="1:19">
       <c r="A24" s="1">
         <v>22</v>
       </c>
       <c r="B24">
-        <v>24.91857529618807</v>
+        <v>24.4128130629279</v>
       </c>
       <c r="C24">
-        <v>14.2392163828498</v>
+        <v>14.80536083691576</v>
       </c>
       <c r="D24">
-        <v>5.590999863542432</v>
+        <v>5.68001812096148</v>
       </c>
       <c r="E24">
-        <v>8.139473942088314</v>
+        <v>8.07151950059626</v>
       </c>
       <c r="F24">
-        <v>25.63132826844846</v>
+        <v>24.72037416957819</v>
       </c>
       <c r="G24">
         <v>0</v>
       </c>
       <c r="H24">
-        <v>1.614763672658569</v>
+        <v>1.667858843178247</v>
       </c>
       <c r="I24">
-        <v>2.59422262849703</v>
+        <v>2.666095298302631</v>
       </c>
       <c r="J24">
-        <v>4.251792669778333</v>
+        <v>5.713894566704329</v>
       </c>
       <c r="K24">
-        <v>15.96271491341514</v>
+        <v>15.17653809454889</v>
       </c>
       <c r="L24">
-        <v>6.114281848155461</v>
+        <v>12.3835124656866</v>
       </c>
       <c r="M24">
-        <v>0</v>
+        <v>10.20272399633675</v>
       </c>
       <c r="N24">
-        <v>8.707891388770539</v>
+        <v>6.063911803299194</v>
       </c>
       <c r="O24">
         <v>0</v>
       </c>
       <c r="P24">
-        <v>12.48121522873183</v>
+        <v>8.900012282174725</v>
       </c>
       <c r="Q24">
-        <v>18.56189055027261</v>
-      </c>
-    </row>
-    <row r="25" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R24">
+        <v>12.53501121054548</v>
+      </c>
+      <c r="S24">
+        <v>17.83229191321423</v>
+      </c>
+    </row>
+    <row r="25" spans="1:19">
       <c r="A25" s="1">
         <v>23</v>
       </c>
       <c r="B25">
-        <v>22.66989532779059</v>
+        <v>22.23713745689748</v>
       </c>
       <c r="C25">
-        <v>13.10430703064589</v>
+        <v>13.52578127706696</v>
       </c>
       <c r="D25">
-        <v>5.370701616544951</v>
+        <v>5.454503573650095</v>
       </c>
       <c r="E25">
-        <v>7.948777818005929</v>
+        <v>7.897743014187311</v>
       </c>
       <c r="F25">
-        <v>24.64298028211268</v>
+        <v>23.85288822987557</v>
       </c>
       <c r="G25">
         <v>0</v>
       </c>
       <c r="H25">
-        <v>1.894120620738705</v>
+        <v>1.817122483760508</v>
       </c>
       <c r="I25">
-        <v>2.684495826902877</v>
+        <v>2.595029197520744</v>
       </c>
       <c r="J25">
-        <v>4.251792669778333</v>
+        <v>5.711175322947495</v>
       </c>
       <c r="K25">
-        <v>15.91423328857725</v>
+        <v>15.21322790294158</v>
       </c>
       <c r="L25">
-        <v>6.041079010187342</v>
+        <v>12.60363755860554</v>
       </c>
       <c r="M25">
-        <v>0</v>
+        <v>9.947597393655522</v>
       </c>
       <c r="N25">
-        <v>8.228428158473278</v>
+        <v>5.994997636132264</v>
       </c>
       <c r="O25">
         <v>0</v>
       </c>
       <c r="P25">
-        <v>12.6188344877015</v>
+        <v>8.4075931421619</v>
       </c>
       <c r="Q25">
-        <v>18.02023542790861</v>
+        <v>0</v>
+      </c>
+      <c r="R25">
+        <v>12.6193973522047</v>
+      </c>
+      <c r="S25">
+        <v>17.38354243174459</v>
       </c>
     </row>
   </sheetData>
